--- a/pembagian talaqqi bahasa santri 2024-2025.xlsx
+++ b/pembagian talaqqi bahasa santri 2024-2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7875" activeTab="1"/>
+    <workbookView windowHeight="17250" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="masjid putri" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,28 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'masjid putra'!$A$1:$L$32</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+  <si>
+    <t>Nama</t>
+  </si>
   <si>
     <t>Mufrodat Dzuhur</t>
   </si>
@@ -176,12 +192,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -219,8 +235,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,14 +255,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -258,10 +274,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -280,8 +305,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,6 +331,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,47 +357,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,13 +380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,19 +398,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,7 +416,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,49 +446,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,7 +464,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,49 +548,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,11 +626,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,28 +689,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,175 +715,162 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -886,55 +902,55 @@
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="Normal 3" xfId="19"/>
-    <cellStyle name="20% - Accent1" xfId="20" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="21" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="22" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="23" builtinId="32"/>
-    <cellStyle name="Bad" xfId="24" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="25" builtinId="42"/>
-    <cellStyle name="Total" xfId="26" builtinId="25"/>
-    <cellStyle name="Output" xfId="27" builtinId="21"/>
-    <cellStyle name="Currency" xfId="28" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="29" builtinId="38"/>
-    <cellStyle name="Note" xfId="30" builtinId="10"/>
-    <cellStyle name="Input" xfId="31" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="32" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="33" builtinId="22"/>
-    <cellStyle name="Good" xfId="34" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="35" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="36" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="37" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="38" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
-    <cellStyle name="Title" xfId="40" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="41" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="42" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
-    <cellStyle name="Comma" xfId="45" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8"/>
+    <cellStyle name="Koma" xfId="1" builtinId="3"/>
+    <cellStyle name="Mata Uang" xfId="2" builtinId="4"/>
+    <cellStyle name="Persen" xfId="3" builtinId="5"/>
+    <cellStyle name="Koma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Mata Uang [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Hyperlink yang Diikuti" xfId="7" builtinId="9"/>
+    <cellStyle name="Catatan" xfId="8" builtinId="10"/>
+    <cellStyle name="Teks Peringatan" xfId="9" builtinId="11"/>
+    <cellStyle name="Judul" xfId="10" builtinId="15"/>
+    <cellStyle name="Teks CExplanatory" xfId="11" builtinId="53"/>
+    <cellStyle name="Kepala 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Kepala 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Kepala 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Kepala 4" xfId="15" builtinId="19"/>
+    <cellStyle name="input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Perhitungan" xfId="18" builtinId="22"/>
+    <cellStyle name="Cek Sel" xfId="19" builtinId="23"/>
+    <cellStyle name="Sel Ditautkan" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Baik" xfId="22" builtinId="26"/>
+    <cellStyle name="Buruk" xfId="23" builtinId="27"/>
+    <cellStyle name="Netral" xfId="24" builtinId="28"/>
+    <cellStyle name="Aksen1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Aksen1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Aksen1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Aksen1" xfId="28" builtinId="32"/>
+    <cellStyle name="Aksen2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Aksen2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Aksen2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Aksen2" xfId="32" builtinId="36"/>
+    <cellStyle name="Aksen3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Aksen3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Aksen3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Aksen3" xfId="36" builtinId="40"/>
+    <cellStyle name="Aksen4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Aksen4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Aksen4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Aksen4" xfId="40" builtinId="44"/>
+    <cellStyle name="Aksen5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Aksen5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Aksen5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Aksen5" xfId="44" builtinId="48"/>
+    <cellStyle name="Aksen6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Aksen6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Aksen6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Aksen6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal 3" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1206,36 +1222,39 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1407407407407" customWidth="1"/>
+    <col min="1" max="1" width="31.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12">
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -1273,7 +1292,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3">
         <v>12</v>
@@ -1321,7 +1340,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3">
         <f>L3+1</f>
@@ -1370,7 +1389,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3">
         <f>L4+1</f>
@@ -1422,7 +1441,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3">
         <f>L5+1</f>
@@ -1471,7 +1490,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3">
         <f>L7+1</f>
@@ -1520,7 +1539,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3">
         <f>L8+1</f>
@@ -1569,7 +1588,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3">
         <f t="shared" ref="B10:B12" si="3">L9+1</f>
@@ -1618,7 +1637,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" s="3">
         <f t="shared" si="3"/>
@@ -1667,7 +1686,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="3">
         <f t="shared" si="3"/>
@@ -1716,7 +1735,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" s="3">
         <f t="shared" ref="B13" si="7">L12+1</f>
@@ -1768,7 +1787,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="3">
         <f>L13+1</f>
@@ -1817,7 +1836,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3">
         <f>L15+1</f>
@@ -1866,7 +1885,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="3">
         <f>L16+1</f>
@@ -1915,7 +1934,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="3">
         <f>L17+1</f>
@@ -1964,7 +1983,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="3">
         <f>L18+1</f>
@@ -2030,37 +2049,40 @@
   </sheetPr>
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.4222222222222" customWidth="1"/>
+    <col min="1" max="1" width="38.4190476190476" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12">
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -2098,7 +2120,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3">
         <f>L2+1</f>
@@ -2147,7 +2169,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3">
         <f t="shared" ref="B4:B9" si="1">L3+1</f>
@@ -2196,7 +2218,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="3">
         <f t="shared" si="1"/>
@@ -2245,7 +2267,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="3">
         <f t="shared" si="1"/>
@@ -2294,7 +2316,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="3">
         <f t="shared" si="1"/>
@@ -2343,7 +2365,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="3">
         <f t="shared" si="1"/>
@@ -2405,7 +2427,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3">
         <f>L8+1</f>
@@ -2454,7 +2476,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3">
         <f t="shared" ref="B10:B23" si="8">L10+1</f>
@@ -2503,7 +2525,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="3">
         <f t="shared" si="8"/>
@@ -2552,7 +2574,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="3">
         <f t="shared" si="8"/>
@@ -2601,7 +2623,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="3">
         <f t="shared" si="8"/>
@@ -2650,7 +2672,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="3">
         <f t="shared" si="8"/>
@@ -2699,7 +2721,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="3">
         <f t="shared" si="8"/>
@@ -2748,7 +2770,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" s="3">
         <f t="shared" si="8"/>
@@ -2797,7 +2819,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="3">
         <f t="shared" si="8"/>
@@ -2846,7 +2868,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="3">
         <f t="shared" si="8"/>
@@ -2895,7 +2917,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" s="3">
         <f t="shared" si="8"/>
@@ -2944,7 +2966,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="3">
         <v>1</v>
@@ -2982,7 +3004,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="3">
         <f t="shared" ref="B22:B40" si="24">L21+1</f>
@@ -3031,7 +3053,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="3">
         <f t="shared" si="24"/>
@@ -3093,7 +3115,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" s="3">
         <f>L23+1</f>
@@ -3142,7 +3164,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" s="3">
         <f t="shared" si="24"/>
@@ -3191,7 +3213,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" s="3">
         <f t="shared" si="24"/>
@@ -3240,7 +3262,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" s="3">
         <f t="shared" si="24"/>
@@ -3289,7 +3311,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29" s="3">
         <f t="shared" si="24"/>
@@ -3338,7 +3360,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" s="3">
         <f t="shared" si="24"/>
@@ -3387,7 +3409,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B31" s="3">
         <f t="shared" si="24"/>
@@ -3436,7 +3458,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B32" s="3">
         <f t="shared" si="24"/>
@@ -3485,7 +3507,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B33" s="3">
         <f t="shared" si="24"/>
@@ -3534,7 +3556,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B34" s="3">
         <f t="shared" si="24"/>
@@ -3583,7 +3605,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B35" s="3">
         <f t="shared" si="24"/>

--- a/pembagian talaqqi bahasa santri 2024-2025.xlsx
+++ b/pembagian talaqqi bahasa santri 2024-2025.xlsx
@@ -1,17 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZEN-PROJECT\mabaiz\kosakata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F683AE-3C59-42BE-AA13-B2DAD8EFD52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17250" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="masjid putri" sheetId="1" r:id="rId1"/>
     <sheet name="masjid putra" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'masjid putra'!$A$1:$L$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'masjid putra'!$A$1:$L$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'masjid putri'!$A$1:$L$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -192,14 +199,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,345 +228,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -625,258 +303,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -899,63 +332,22 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Koma" xfId="1" builtinId="3"/>
-    <cellStyle name="Mata Uang" xfId="2" builtinId="4"/>
-    <cellStyle name="Persen" xfId="3" builtinId="5"/>
-    <cellStyle name="Koma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Mata Uang [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Hyperlink yang Diikuti" xfId="7" builtinId="9"/>
-    <cellStyle name="Catatan" xfId="8" builtinId="10"/>
-    <cellStyle name="Teks Peringatan" xfId="9" builtinId="11"/>
-    <cellStyle name="Judul" xfId="10" builtinId="15"/>
-    <cellStyle name="Teks CExplanatory" xfId="11" builtinId="53"/>
-    <cellStyle name="Kepala 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Kepala 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Kepala 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Kepala 4" xfId="15" builtinId="19"/>
-    <cellStyle name="input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Perhitungan" xfId="18" builtinId="22"/>
-    <cellStyle name="Cek Sel" xfId="19" builtinId="23"/>
-    <cellStyle name="Sel Ditautkan" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Baik" xfId="22" builtinId="26"/>
-    <cellStyle name="Buruk" xfId="23" builtinId="27"/>
-    <cellStyle name="Netral" xfId="24" builtinId="28"/>
-    <cellStyle name="Aksen1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Aksen1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Aksen1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Aksen1" xfId="28" builtinId="32"/>
-    <cellStyle name="Aksen2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Aksen2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Aksen2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Aksen2" xfId="32" builtinId="36"/>
-    <cellStyle name="Aksen3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Aksen3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Aksen3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Aksen3" xfId="36" builtinId="40"/>
-    <cellStyle name="Aksen4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Aksen4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Aksen4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Aksen4" xfId="40" builtinId="44"/>
-    <cellStyle name="Aksen5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Aksen5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Aksen5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Aksen5" xfId="44" builtinId="48"/>
-    <cellStyle name="Aksen6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Aksen6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Aksen6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Aksen6" xfId="48" builtinId="52"/>
-    <cellStyle name="Normal 3" xfId="49"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1213,819 +605,822 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>2</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>3</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>4</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>5</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>6</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>7</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>8</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
         <v>9</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <v>10</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="4">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>12</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <f t="shared" ref="C3:L3" si="0">B3+1</f>
         <v>13</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <f>L3+1</f>
         <v>23</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <f t="shared" ref="C4:L9" si="1">B4+1</f>
         <v>24</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <f>L4+1</f>
         <v>34</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="9"/>
+    <row r="6" spans="1:12">
+      <c r="A6" s="8"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <f>L5+1</f>
         <v>45</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <f t="shared" ref="C7:L7" si="2">B7+1</f>
         <v>46</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="4">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <f>L7+1</f>
         <v>56</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="4">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <f>L8+1</f>
         <v>67</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="4">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <f t="shared" ref="B10:B12" si="3">L9+1</f>
         <v>78</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <f t="shared" ref="C10:L10" si="4">B10+1</f>
         <v>79</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <f t="shared" si="4"/>
         <v>81</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <f t="shared" si="4"/>
         <v>82</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <f t="shared" si="4"/>
         <v>83</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <f t="shared" si="4"/>
         <v>84</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <f t="shared" si="4"/>
         <v>85</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <f t="shared" si="4"/>
         <v>86</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <f t="shared" si="4"/>
         <v>87</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="4">
         <f t="shared" si="4"/>
         <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <f t="shared" si="3"/>
         <v>89</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <f t="shared" ref="C11:L11" si="5">B11+1</f>
         <v>90</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <f t="shared" si="5"/>
         <v>91</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <f t="shared" si="5"/>
         <v>92</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <f t="shared" si="5"/>
         <v>93</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <f t="shared" si="5"/>
         <v>94</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <f t="shared" si="5"/>
         <v>95</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <f t="shared" si="5"/>
         <v>96</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <f t="shared" si="5"/>
         <v>97</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <f t="shared" si="5"/>
         <v>98</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="4">
         <f t="shared" si="5"/>
         <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <f t="shared" ref="C12:L13" si="6">B12+1</f>
         <v>101</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <f t="shared" si="6"/>
         <v>102</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <f t="shared" si="6"/>
         <v>103</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <f t="shared" si="6"/>
         <v>104</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <f t="shared" si="6"/>
         <v>105</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <f t="shared" si="6"/>
         <v>106</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <f t="shared" si="6"/>
         <v>107</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <f t="shared" si="6"/>
         <v>108</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <f t="shared" si="6"/>
         <v>109</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="4">
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <f t="shared" ref="B13" si="7">L12+1</f>
         <v>111</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <f t="shared" si="6"/>
         <v>112</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <f t="shared" si="6"/>
         <v>113</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <f t="shared" si="6"/>
         <v>114</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <f t="shared" si="6"/>
         <v>115</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <f t="shared" si="6"/>
         <v>116</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <f t="shared" si="6"/>
         <v>117</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <f t="shared" si="6"/>
         <v>118</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <f t="shared" si="6"/>
         <v>119</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="4">
         <f t="shared" si="6"/>
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="2"/>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <f>L13+1</f>
         <v>122</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <f t="shared" ref="C15:L15" si="8">B15+1</f>
         <v>123</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <f t="shared" si="8"/>
         <v>124</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <f t="shared" si="8"/>
         <v>125</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <f t="shared" si="8"/>
         <v>126</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <f t="shared" si="8"/>
         <v>127</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <f t="shared" si="8"/>
         <v>128</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <f t="shared" si="8"/>
         <v>129</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <f t="shared" si="8"/>
         <v>130</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <f t="shared" si="8"/>
         <v>131</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="4">
         <f t="shared" si="8"/>
         <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <f>L15+1</f>
         <v>133</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <f t="shared" ref="C16:L16" si="9">B16+1</f>
         <v>134</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <f t="shared" si="9"/>
         <v>135</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <f t="shared" si="9"/>
         <v>136</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <f t="shared" si="9"/>
         <v>137</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <f t="shared" si="9"/>
         <v>138</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <f t="shared" si="9"/>
         <v>139</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <f t="shared" si="9"/>
         <v>140</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <f t="shared" si="9"/>
         <v>141</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <f t="shared" si="9"/>
         <v>142</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="4">
         <f t="shared" si="9"/>
         <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <f>L16+1</f>
         <v>144</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <f t="shared" ref="C17:L17" si="10">B17+1</f>
         <v>145</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <f t="shared" si="10"/>
         <v>146</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <f t="shared" si="10"/>
         <v>147</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <f t="shared" si="10"/>
         <v>148</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <f t="shared" si="10"/>
         <v>149</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <f t="shared" si="10"/>
         <v>150</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <f t="shared" si="10"/>
         <v>151</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <f t="shared" si="10"/>
         <v>152</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <f t="shared" si="10"/>
         <v>153</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="4">
         <f t="shared" si="10"/>
         <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <f>L17+1</f>
         <v>155</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <f t="shared" ref="C18:L18" si="11">B18+1</f>
         <v>156</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <f t="shared" si="11"/>
         <v>157</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <f t="shared" si="11"/>
         <v>158</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <f t="shared" si="11"/>
         <v>159</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <f t="shared" si="11"/>
         <v>160</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <f t="shared" si="11"/>
         <v>161</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <f t="shared" si="11"/>
         <v>162</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <f t="shared" si="11"/>
         <v>163</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <f t="shared" si="11"/>
         <v>164</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="4">
         <f t="shared" si="11"/>
         <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <f>L18+1</f>
         <v>166</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <f t="shared" ref="C19:L19" si="12">B19+1</f>
         <v>167</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <f t="shared" si="12"/>
         <v>168</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <f t="shared" si="12"/>
         <v>169</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <f t="shared" si="12"/>
         <v>170</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <f t="shared" si="12"/>
         <v>171</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <f t="shared" si="12"/>
         <v>172</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="4">
         <f t="shared" si="12"/>
         <v>173</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="3">
         <f t="shared" si="12"/>
         <v>174</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="3">
         <f t="shared" si="12"/>
         <v>175</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="4">
         <f t="shared" si="12"/>
         <v>176</v>
       </c>
@@ -2037,1685 +1432,1684 @@
     <mergeCell ref="J1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.4190476190476" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>2</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>3</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>4</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>5</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>6</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>7</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>8</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
         <v>9</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <v>10</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="4">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <f>L2+1</f>
         <v>12</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <f t="shared" ref="C3:L3" si="0">B3+1</f>
         <v>13</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="3">
-        <f t="shared" ref="B4:B9" si="1">L3+1</f>
+      <c r="B4" s="2">
+        <f t="shared" ref="B4:B8" si="1">L3+1</f>
         <v>23</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <f t="shared" ref="C4:L4" si="2">B4+1</f>
         <v>24</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <f t="shared" ref="C5:L5" si="3">B5+1</f>
         <v>35</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <f t="shared" ref="C6:L6" si="4">B6+1</f>
         <v>46</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <f t="shared" si="4"/>
         <v>47</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <f t="shared" si="4"/>
         <v>49</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <f t="shared" si="4"/>
         <v>51</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <f t="shared" si="4"/>
         <v>53</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <f t="shared" ref="C7:L7" si="5">B7+1</f>
         <v>57</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <f t="shared" si="5"/>
         <v>58</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="4">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <f t="shared" ref="C8:L8" si="6">B8+1</f>
         <v>68</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <f t="shared" si="6"/>
         <v>69</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <f t="shared" si="6"/>
         <v>70</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <f t="shared" si="6"/>
         <v>71</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <f t="shared" si="6"/>
         <v>72</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <f t="shared" si="6"/>
         <v>73</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <f t="shared" si="6"/>
         <v>74</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <f t="shared" si="6"/>
         <v>75</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <f t="shared" si="6"/>
         <v>76</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="4">
         <f t="shared" si="6"/>
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="5"/>
+    <row r="9" spans="1:12">
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <f>L8+1</f>
         <v>78</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <f t="shared" ref="C10:L10" si="7">B10+1</f>
         <v>79</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <f t="shared" si="7"/>
         <v>80</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <f t="shared" si="7"/>
         <v>81</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <f t="shared" si="7"/>
         <v>82</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <f t="shared" si="7"/>
         <v>83</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <f t="shared" si="7"/>
         <v>84</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <f t="shared" si="7"/>
         <v>85</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <f t="shared" si="7"/>
         <v>86</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <f t="shared" si="7"/>
         <v>87</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="4">
         <f t="shared" si="7"/>
         <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="3">
-        <f t="shared" ref="B10:B23" si="8">L10+1</f>
+      <c r="B11" s="2">
+        <f t="shared" ref="B11:B20" si="8">L10+1</f>
         <v>89</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <f t="shared" ref="C11:L11" si="9">B11+1</f>
         <v>90</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <f t="shared" si="9"/>
         <v>91</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <f t="shared" si="9"/>
         <v>92</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <f t="shared" si="9"/>
         <v>93</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <f t="shared" si="9"/>
         <v>94</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <f t="shared" si="9"/>
         <v>95</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <f t="shared" si="9"/>
         <v>96</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <f t="shared" si="9"/>
         <v>97</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <f t="shared" si="9"/>
         <v>98</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="4">
         <f t="shared" si="9"/>
         <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <f t="shared" ref="C12:L12" si="10">B12+1</f>
         <v>101</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <f t="shared" si="10"/>
         <v>102</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <f t="shared" si="10"/>
         <v>103</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <f t="shared" si="10"/>
         <v>104</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <f t="shared" si="10"/>
         <v>105</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <f t="shared" si="10"/>
         <v>106</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <f t="shared" si="10"/>
         <v>107</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <f t="shared" si="10"/>
         <v>108</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <f t="shared" si="10"/>
         <v>109</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="4">
         <f t="shared" si="10"/>
         <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <f t="shared" si="8"/>
         <v>111</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <f t="shared" ref="C13:L13" si="11">B13+1</f>
         <v>112</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <f t="shared" si="11"/>
         <v>113</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <f t="shared" si="11"/>
         <v>114</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <f t="shared" si="11"/>
         <v>115</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <f t="shared" si="11"/>
         <v>116</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <f t="shared" si="11"/>
         <v>117</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <f t="shared" si="11"/>
         <v>118</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <f t="shared" si="11"/>
         <v>119</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <f t="shared" si="11"/>
         <v>120</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="4">
         <f t="shared" si="11"/>
         <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <f t="shared" si="8"/>
         <v>122</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <f t="shared" ref="C14:L14" si="12">B14+1</f>
         <v>123</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <f t="shared" si="12"/>
         <v>124</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <f t="shared" si="12"/>
         <v>125</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <f t="shared" si="12"/>
         <v>126</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <f t="shared" si="12"/>
         <v>127</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <f t="shared" si="12"/>
         <v>128</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <f t="shared" si="12"/>
         <v>129</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <f t="shared" si="12"/>
         <v>130</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <f t="shared" si="12"/>
         <v>131</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="4">
         <f t="shared" si="12"/>
         <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <f t="shared" si="8"/>
         <v>133</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <f t="shared" ref="C15:L15" si="13">B15+1</f>
         <v>134</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <f t="shared" si="13"/>
         <v>135</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <f t="shared" si="13"/>
         <v>136</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <f t="shared" si="13"/>
         <v>137</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <f t="shared" si="13"/>
         <v>138</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <f t="shared" si="13"/>
         <v>139</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <f t="shared" si="13"/>
         <v>140</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <f t="shared" si="13"/>
         <v>141</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <f t="shared" si="13"/>
         <v>142</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="4">
         <f t="shared" si="13"/>
         <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <f t="shared" si="8"/>
         <v>144</v>
       </c>
-      <c r="C16" s="4">
-        <f t="shared" ref="C16:C23" si="14">B16+1</f>
+      <c r="C16" s="3">
+        <f t="shared" ref="C16:C20" si="14">B16+1</f>
         <v>145</v>
       </c>
-      <c r="D16" s="5">
-        <f t="shared" ref="D16:D23" si="15">C16+1</f>
+      <c r="D16" s="4">
+        <f t="shared" ref="D16:D20" si="15">C16+1</f>
         <v>146</v>
       </c>
-      <c r="E16" s="3">
-        <f t="shared" ref="E16:E23" si="16">D16+1</f>
+      <c r="E16" s="2">
+        <f t="shared" ref="E16:E20" si="16">D16+1</f>
         <v>147</v>
       </c>
-      <c r="F16" s="4">
-        <f t="shared" ref="F16:F23" si="17">E16+1</f>
+      <c r="F16" s="3">
+        <f t="shared" ref="F16:F20" si="17">E16+1</f>
         <v>148</v>
       </c>
-      <c r="G16" s="4">
-        <f t="shared" ref="G16:G23" si="18">F16+1</f>
+      <c r="G16" s="3">
+        <f t="shared" ref="G16:G20" si="18">F16+1</f>
         <v>149</v>
       </c>
-      <c r="H16" s="4">
-        <f t="shared" ref="H16:H23" si="19">G16+1</f>
+      <c r="H16" s="3">
+        <f t="shared" ref="H16:H20" si="19">G16+1</f>
         <v>150</v>
       </c>
-      <c r="I16" s="5">
-        <f t="shared" ref="I16:I23" si="20">H16+1</f>
+      <c r="I16" s="4">
+        <f t="shared" ref="I16:I20" si="20">H16+1</f>
         <v>151</v>
       </c>
-      <c r="J16" s="4">
-        <f t="shared" ref="J16:J23" si="21">I16+1</f>
+      <c r="J16" s="3">
+        <f t="shared" ref="J16:J20" si="21">I16+1</f>
         <v>152</v>
       </c>
-      <c r="K16" s="4">
-        <f t="shared" ref="K16:K23" si="22">J16+1</f>
+      <c r="K16" s="3">
+        <f t="shared" ref="K16:K20" si="22">J16+1</f>
         <v>153</v>
       </c>
-      <c r="L16" s="5">
-        <f t="shared" ref="L16:L23" si="23">K16+1</f>
+      <c r="L16" s="4">
+        <f t="shared" ref="L16:L20" si="23">K16+1</f>
         <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <f t="shared" si="8"/>
         <v>155</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <f t="shared" si="14"/>
         <v>156</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <f t="shared" si="15"/>
         <v>157</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <f t="shared" si="16"/>
         <v>158</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <f t="shared" si="17"/>
         <v>159</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <f t="shared" si="18"/>
         <v>160</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <f t="shared" si="19"/>
         <v>161</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <f t="shared" si="20"/>
         <v>162</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <f t="shared" si="21"/>
         <v>163</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <f t="shared" si="22"/>
         <v>164</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="4">
         <f t="shared" si="23"/>
         <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <f t="shared" si="8"/>
         <v>166</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <f t="shared" si="14"/>
         <v>167</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <f t="shared" si="15"/>
         <v>168</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <f t="shared" si="16"/>
         <v>169</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <f t="shared" si="17"/>
         <v>170</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <f t="shared" si="18"/>
         <v>171</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <f t="shared" si="19"/>
         <v>172</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <f t="shared" si="20"/>
         <v>173</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <f t="shared" si="21"/>
         <v>174</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <f t="shared" si="22"/>
         <v>175</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="4">
         <f t="shared" si="23"/>
         <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <f t="shared" si="8"/>
         <v>177</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <f t="shared" si="14"/>
         <v>178</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <f t="shared" si="15"/>
         <v>179</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <f t="shared" si="16"/>
         <v>180</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <f t="shared" si="17"/>
         <v>181</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <f t="shared" si="18"/>
         <v>182</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <f t="shared" si="19"/>
         <v>183</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="4">
         <f t="shared" si="20"/>
         <v>184</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="3">
         <f t="shared" si="21"/>
         <v>185</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="3">
         <f t="shared" si="22"/>
         <v>186</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="4">
         <f t="shared" si="23"/>
         <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <f t="shared" si="8"/>
         <v>188</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <f t="shared" si="14"/>
         <v>189</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <f t="shared" si="15"/>
         <v>190</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <f t="shared" si="16"/>
         <v>191</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <f t="shared" si="17"/>
         <v>192</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <f t="shared" si="18"/>
         <v>193</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <f t="shared" si="19"/>
         <v>194</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="4">
         <f t="shared" si="20"/>
         <v>195</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="3">
         <f t="shared" si="21"/>
         <v>196</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="3">
         <f t="shared" si="22"/>
         <v>197</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="4">
         <f t="shared" si="23"/>
         <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>1</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>2</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>3</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>4</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>5</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>6</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>7</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="4">
         <v>8</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="3">
         <v>9</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="3">
         <v>10</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="4">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="3">
-        <f t="shared" ref="B22:B40" si="24">L21+1</f>
+      <c r="B22" s="2">
+        <f t="shared" ref="B22:B35" si="24">L21+1</f>
         <v>12</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <f t="shared" ref="C22:L22" si="25">B22+1</f>
         <v>13</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <f t="shared" si="25"/>
         <v>14</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <f t="shared" si="25"/>
         <v>15</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <f t="shared" si="25"/>
         <v>16</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <f t="shared" si="25"/>
         <v>17</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <f t="shared" si="25"/>
         <v>18</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="4">
         <f t="shared" si="25"/>
         <v>19</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="3">
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="3">
         <f t="shared" si="25"/>
         <v>21</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="4">
         <f t="shared" si="25"/>
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <f t="shared" si="24"/>
         <v>23</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <f t="shared" ref="C23:L23" si="26">B23+1</f>
         <v>24</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <f t="shared" si="26"/>
         <v>25</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <f t="shared" si="26"/>
         <v>26</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <f t="shared" si="26"/>
         <v>27</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <f t="shared" si="26"/>
         <v>28</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <f t="shared" si="26"/>
         <v>29</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="4">
         <f t="shared" si="26"/>
         <v>30</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="3">
         <f t="shared" si="26"/>
         <v>31</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="3">
         <f t="shared" si="26"/>
         <v>32</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="4">
         <f t="shared" si="26"/>
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="5"/>
+    <row r="24" spans="1:12">
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="4"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <f>L23+1</f>
         <v>34</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <f t="shared" ref="C25:L25" si="27">B25+1</f>
         <v>35</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <f t="shared" si="27"/>
         <v>36</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <f t="shared" si="27"/>
         <v>37</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <f t="shared" si="27"/>
         <v>38</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="3">
         <f t="shared" si="27"/>
         <v>39</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="3">
         <f t="shared" si="27"/>
         <v>40</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="4">
         <f t="shared" si="27"/>
         <v>41</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="3">
         <f t="shared" si="27"/>
         <v>42</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="3">
         <f t="shared" si="27"/>
         <v>43</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="4">
         <f t="shared" si="27"/>
         <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <f t="shared" si="24"/>
         <v>45</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <f t="shared" ref="C26:L26" si="28">B26+1</f>
         <v>46</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <f t="shared" si="28"/>
         <v>47</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <f t="shared" si="28"/>
         <v>48</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <f t="shared" si="28"/>
         <v>49</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="3">
         <f t="shared" si="28"/>
         <v>50</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="3">
         <f t="shared" si="28"/>
         <v>51</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="4">
         <f t="shared" si="28"/>
         <v>52</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="3">
         <f t="shared" si="28"/>
         <v>53</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="3">
         <f t="shared" si="28"/>
         <v>54</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L26" s="4">
         <f t="shared" si="28"/>
         <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <f t="shared" si="24"/>
         <v>56</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <f t="shared" ref="C27:L27" si="29">B27+1</f>
         <v>57</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <f t="shared" si="29"/>
         <v>58</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <f t="shared" si="29"/>
         <v>59</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <f t="shared" si="29"/>
         <v>60</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="3">
         <f t="shared" si="29"/>
         <v>61</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="3">
         <f t="shared" si="29"/>
         <v>62</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="4">
         <f t="shared" si="29"/>
         <v>63</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="3">
         <f t="shared" si="29"/>
         <v>64</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="3">
         <f t="shared" si="29"/>
         <v>65</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27" s="4">
         <f t="shared" si="29"/>
         <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <f t="shared" si="24"/>
         <v>67</v>
       </c>
-      <c r="C28" s="4">
-        <f t="shared" ref="C28:C40" si="30">B28+1</f>
+      <c r="C28" s="3">
+        <f t="shared" ref="C28:C35" si="30">B28+1</f>
         <v>68</v>
       </c>
-      <c r="D28" s="5">
-        <f t="shared" ref="D28:D40" si="31">C28+1</f>
+      <c r="D28" s="4">
+        <f t="shared" ref="D28:D35" si="31">C28+1</f>
         <v>69</v>
       </c>
-      <c r="E28" s="3">
-        <f t="shared" ref="E28:E40" si="32">D28+1</f>
+      <c r="E28" s="2">
+        <f t="shared" ref="E28:E35" si="32">D28+1</f>
         <v>70</v>
       </c>
-      <c r="F28" s="4">
-        <f t="shared" ref="F28:F40" si="33">E28+1</f>
+      <c r="F28" s="3">
+        <f t="shared" ref="F28:F35" si="33">E28+1</f>
         <v>71</v>
       </c>
-      <c r="G28" s="4">
-        <f t="shared" ref="G28:G40" si="34">F28+1</f>
+      <c r="G28" s="3">
+        <f t="shared" ref="G28:G35" si="34">F28+1</f>
         <v>72</v>
       </c>
-      <c r="H28" s="4">
-        <f t="shared" ref="H28:H40" si="35">G28+1</f>
+      <c r="H28" s="3">
+        <f t="shared" ref="H28:H35" si="35">G28+1</f>
         <v>73</v>
       </c>
-      <c r="I28" s="5">
-        <f t="shared" ref="I28:I40" si="36">H28+1</f>
+      <c r="I28" s="4">
+        <f t="shared" ref="I28:I35" si="36">H28+1</f>
         <v>74</v>
       </c>
-      <c r="J28" s="4">
-        <f t="shared" ref="J28:J40" si="37">I28+1</f>
+      <c r="J28" s="3">
+        <f t="shared" ref="J28:J35" si="37">I28+1</f>
         <v>75</v>
       </c>
-      <c r="K28" s="4">
-        <f t="shared" ref="K28:K40" si="38">J28+1</f>
+      <c r="K28" s="3">
+        <f t="shared" ref="K28:K35" si="38">J28+1</f>
         <v>76</v>
       </c>
-      <c r="L28" s="5">
-        <f t="shared" ref="L28:L40" si="39">K28+1</f>
+      <c r="L28" s="4">
+        <f t="shared" ref="L28:L35" si="39">K28+1</f>
         <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <f t="shared" si="24"/>
         <v>78</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <f t="shared" si="30"/>
         <v>79</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <f t="shared" si="31"/>
         <v>80</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <f t="shared" si="32"/>
         <v>81</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="3">
         <f t="shared" si="33"/>
         <v>82</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="3">
         <f t="shared" si="34"/>
         <v>83</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="3">
         <f t="shared" si="35"/>
         <v>84</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="4">
         <f t="shared" si="36"/>
         <v>85</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="3">
         <f t="shared" si="37"/>
         <v>86</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="3">
         <f t="shared" si="38"/>
         <v>87</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29" s="4">
         <f t="shared" si="39"/>
         <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <f t="shared" si="24"/>
         <v>89</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <f t="shared" si="30"/>
         <v>90</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <f t="shared" si="31"/>
         <v>91</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <f t="shared" si="32"/>
         <v>92</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="3">
         <f t="shared" si="33"/>
         <v>93</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="3">
         <f t="shared" si="34"/>
         <v>94</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="3">
         <f t="shared" si="35"/>
         <v>95</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30" s="4">
         <f t="shared" si="36"/>
         <v>96</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="3">
         <f t="shared" si="37"/>
         <v>97</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="3">
         <f t="shared" si="38"/>
         <v>98</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="4">
         <f t="shared" si="39"/>
         <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <f t="shared" si="24"/>
         <v>100</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <f t="shared" si="30"/>
         <v>101</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <f t="shared" si="31"/>
         <v>102</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <f t="shared" si="32"/>
         <v>103</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="3">
         <f t="shared" si="33"/>
         <v>104</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="3">
         <f t="shared" si="34"/>
         <v>105</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="3">
         <f t="shared" si="35"/>
         <v>106</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="4">
         <f t="shared" si="36"/>
         <v>107</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="3">
         <f t="shared" si="37"/>
         <v>108</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="3">
         <f t="shared" si="38"/>
         <v>109</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31" s="4">
         <f t="shared" si="39"/>
         <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <f t="shared" si="24"/>
         <v>111</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <f t="shared" si="30"/>
         <v>112</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <f t="shared" si="31"/>
         <v>113</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <f t="shared" si="32"/>
         <v>114</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="3">
         <f t="shared" si="33"/>
         <v>115</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="3">
         <f t="shared" si="34"/>
         <v>116</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="3">
         <f t="shared" si="35"/>
         <v>117</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="4">
         <f t="shared" si="36"/>
         <v>118</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="3">
         <f t="shared" si="37"/>
         <v>119</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="3">
         <f t="shared" si="38"/>
         <v>120</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L32" s="4">
         <f t="shared" si="39"/>
         <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <f t="shared" si="24"/>
         <v>122</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <f t="shared" si="30"/>
         <v>123</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <f t="shared" si="31"/>
         <v>124</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <f t="shared" si="32"/>
         <v>125</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="3">
         <f t="shared" si="33"/>
         <v>126</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="3">
         <f t="shared" si="34"/>
         <v>127</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="3">
         <f t="shared" si="35"/>
         <v>128</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="4">
         <f t="shared" si="36"/>
         <v>129</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="3">
         <f t="shared" si="37"/>
         <v>130</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="3">
         <f t="shared" si="38"/>
         <v>131</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L33" s="4">
         <f t="shared" si="39"/>
         <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <f t="shared" si="24"/>
         <v>133</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <f t="shared" si="30"/>
         <v>134</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <f t="shared" si="31"/>
         <v>135</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <f t="shared" si="32"/>
         <v>136</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="3">
         <f t="shared" si="33"/>
         <v>137</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="3">
         <f t="shared" si="34"/>
         <v>138</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="3">
         <f t="shared" si="35"/>
         <v>139</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34" s="4">
         <f t="shared" si="36"/>
         <v>140</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34" s="3">
         <f t="shared" si="37"/>
         <v>141</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="3">
         <f t="shared" si="38"/>
         <v>142</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L34" s="4">
         <f t="shared" si="39"/>
         <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <f t="shared" si="24"/>
         <v>144</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <f t="shared" si="30"/>
         <v>145</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <f t="shared" si="31"/>
         <v>146</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <f t="shared" si="32"/>
         <v>147</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="3">
         <f t="shared" si="33"/>
         <v>148</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="3">
         <f t="shared" si="34"/>
         <v>149</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="3">
         <f t="shared" si="35"/>
         <v>150</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="4">
         <f t="shared" si="36"/>
         <v>151</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35" s="3">
         <f t="shared" si="37"/>
         <v>152</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="3">
         <f t="shared" si="38"/>
         <v>153</v>
       </c>
-      <c r="L35" s="5">
+      <c r="L35" s="4">
         <f t="shared" si="39"/>
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="2:12">
-      <c r="B36" s="3"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="5"/>
-    </row>
-    <row r="37" spans="2:12">
-      <c r="B37" s="3"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="5"/>
-    </row>
-    <row r="38" spans="2:12">
-      <c r="B38" s="3"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="5"/>
-    </row>
-    <row r="39" spans="2:12">
-      <c r="B39" s="3"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="5"/>
-    </row>
-    <row r="40" spans="2:12">
-      <c r="B40" s="3"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="5"/>
+    <row r="36" spans="1:12">
+      <c r="B36" s="2"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="B37" s="2"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="B38" s="2"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="B39" s="2"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="4"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="B40" s="2"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3724,7 +3118,6 @@
     <mergeCell ref="J1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="95" fitToHeight="0" orientation="landscape"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/pembagian talaqqi bahasa santri 2024-2025.xlsx
+++ b/pembagian talaqqi bahasa santri 2024-2025.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZEN-PROJECT\mabaiz\kosakata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F683AE-3C59-42BE-AA13-B2DAD8EFD52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="masjid putri" sheetId="1" r:id="rId1"/>
@@ -20,20 +14,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'masjid putra'!$A$1:$L$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'masjid putri'!$A$1:$L$19</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -199,8 +180,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,22 +215,345 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -303,13 +613,258 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -332,22 +887,63 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="Normal 3" xfId="19"/>
+    <cellStyle name="20% - Accent1" xfId="20" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="21" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="22" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="23" builtinId="32"/>
+    <cellStyle name="Bad" xfId="24" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="25" builtinId="42"/>
+    <cellStyle name="Total" xfId="26" builtinId="25"/>
+    <cellStyle name="Output" xfId="27" builtinId="21"/>
+    <cellStyle name="Currency" xfId="28" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="29" builtinId="38"/>
+    <cellStyle name="Note" xfId="30" builtinId="10"/>
+    <cellStyle name="Input" xfId="31" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="32" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="33" builtinId="22"/>
+    <cellStyle name="Good" xfId="34" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="35" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="36" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="37" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="38" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
+    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="41" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="42" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
+    <cellStyle name="Comma" xfId="45" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -605,822 +1201,822 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.3333333333333" customWidth="1"/>
+    <col min="2" max="12" width="6.47407407407407" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>3</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>4</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>5</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="4">
         <v>6</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="4">
         <v>7</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="5">
         <v>8</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="4">
         <v>9</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="4">
         <v>10</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="5">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>12</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <f t="shared" ref="C3:L3" si="0">B3+1</f>
         <v>13</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <f>L3+1</f>
         <v>23</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <f t="shared" ref="C4:L9" si="1">B4+1</f>
         <v>24</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="4">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="4">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="5">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="4">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="4">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="5">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <f>L4+1</f>
         <v>34</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="4">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="4">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="5">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="4">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="4">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="5">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="8"/>
+    <row r="6" spans="1:1">
+      <c r="A6" s="9"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <f>L5+1</f>
         <v>45</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <f t="shared" ref="C7:L7" si="2">B7+1</f>
         <v>46</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="4">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="4">
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="5">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="4">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="4">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="5">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <f>L7+1</f>
         <v>56</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="4">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="4">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="5">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="4">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="4">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="5">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <f>L8+1</f>
         <v>67</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="4">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="4">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="5">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="4">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="4">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="5">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <f t="shared" ref="B10:B12" si="3">L9+1</f>
         <v>78</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <f t="shared" ref="C10:L10" si="4">B10+1</f>
         <v>79</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <f t="shared" si="4"/>
         <v>81</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <f t="shared" si="4"/>
         <v>82</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="4">
         <f t="shared" si="4"/>
         <v>83</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="4">
         <f t="shared" si="4"/>
         <v>84</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="5">
         <f t="shared" si="4"/>
         <v>85</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="4">
         <f t="shared" si="4"/>
         <v>86</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="4">
         <f t="shared" si="4"/>
         <v>87</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="5">
         <f t="shared" si="4"/>
         <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <f t="shared" si="3"/>
         <v>89</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <f t="shared" ref="C11:L11" si="5">B11+1</f>
         <v>90</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="5">
         <f t="shared" si="5"/>
         <v>91</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <f t="shared" si="5"/>
         <v>92</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="4">
         <f t="shared" si="5"/>
         <v>93</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="4">
         <f t="shared" si="5"/>
         <v>94</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="4">
         <f t="shared" si="5"/>
         <v>95</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="5">
         <f t="shared" si="5"/>
         <v>96</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="4">
         <f t="shared" si="5"/>
         <v>97</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="4">
         <f t="shared" si="5"/>
         <v>98</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="5">
         <f t="shared" si="5"/>
         <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="4">
         <f t="shared" ref="C12:L13" si="6">B12+1</f>
         <v>101</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="5">
         <f t="shared" si="6"/>
         <v>102</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <f t="shared" si="6"/>
         <v>103</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="4">
         <f t="shared" si="6"/>
         <v>104</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="4">
         <f t="shared" si="6"/>
         <v>105</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="4">
         <f t="shared" si="6"/>
         <v>106</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="5">
         <f t="shared" si="6"/>
         <v>107</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="4">
         <f t="shared" si="6"/>
         <v>108</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="4">
         <f t="shared" si="6"/>
         <v>109</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="5">
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <f t="shared" ref="B13" si="7">L12+1</f>
         <v>111</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <f t="shared" si="6"/>
         <v>112</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="5">
         <f t="shared" si="6"/>
         <v>113</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <f t="shared" si="6"/>
         <v>114</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="4">
         <f t="shared" si="6"/>
         <v>115</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="4">
         <f t="shared" si="6"/>
         <v>116</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="4">
         <f t="shared" si="6"/>
         <v>117</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="5">
         <f t="shared" si="6"/>
         <v>118</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="4">
         <f t="shared" si="6"/>
         <v>119</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="4">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="5">
         <f t="shared" si="6"/>
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="1"/>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <f>L13+1</f>
         <v>122</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="4">
         <f t="shared" ref="C15:L15" si="8">B15+1</f>
         <v>123</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="5">
         <f t="shared" si="8"/>
         <v>124</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <f t="shared" si="8"/>
         <v>125</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="4">
         <f t="shared" si="8"/>
         <v>126</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="4">
         <f t="shared" si="8"/>
         <v>127</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="4">
         <f t="shared" si="8"/>
         <v>128</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="5">
         <f t="shared" si="8"/>
         <v>129</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="4">
         <f t="shared" si="8"/>
         <v>130</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="4">
         <f t="shared" si="8"/>
         <v>131</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="5">
         <f t="shared" si="8"/>
         <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <f>L15+1</f>
         <v>133</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="4">
         <f t="shared" ref="C16:L16" si="9">B16+1</f>
         <v>134</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="5">
         <f t="shared" si="9"/>
         <v>135</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <f t="shared" si="9"/>
         <v>136</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="4">
         <f t="shared" si="9"/>
         <v>137</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="4">
         <f t="shared" si="9"/>
         <v>138</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="4">
         <f t="shared" si="9"/>
         <v>139</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="5">
         <f t="shared" si="9"/>
         <v>140</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="4">
         <f t="shared" si="9"/>
         <v>141</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="4">
         <f t="shared" si="9"/>
         <v>142</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="5">
         <f t="shared" si="9"/>
         <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <f>L16+1</f>
         <v>144</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="4">
         <f t="shared" ref="C17:L17" si="10">B17+1</f>
         <v>145</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="5">
         <f t="shared" si="10"/>
         <v>146</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="3">
         <f t="shared" si="10"/>
         <v>147</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="4">
         <f t="shared" si="10"/>
         <v>148</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="4">
         <f t="shared" si="10"/>
         <v>149</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="4">
         <f t="shared" si="10"/>
         <v>150</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="5">
         <f t="shared" si="10"/>
         <v>151</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="4">
         <f t="shared" si="10"/>
         <v>152</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="4">
         <f t="shared" si="10"/>
         <v>153</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="5">
         <f t="shared" si="10"/>
         <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <f>L17+1</f>
         <v>155</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="4">
         <f t="shared" ref="C18:L18" si="11">B18+1</f>
         <v>156</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="5">
         <f t="shared" si="11"/>
         <v>157</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
         <f t="shared" si="11"/>
         <v>158</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="4">
         <f t="shared" si="11"/>
         <v>159</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="4">
         <f t="shared" si="11"/>
         <v>160</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="4">
         <f t="shared" si="11"/>
         <v>161</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="5">
         <f t="shared" si="11"/>
         <v>162</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="4">
         <f t="shared" si="11"/>
         <v>163</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="4">
         <f t="shared" si="11"/>
         <v>164</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="5">
         <f t="shared" si="11"/>
         <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <f>L18+1</f>
         <v>166</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="4">
         <f t="shared" ref="C19:L19" si="12">B19+1</f>
         <v>167</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="5">
         <f t="shared" si="12"/>
         <v>168</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="3">
         <f t="shared" si="12"/>
         <v>169</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="4">
         <f t="shared" si="12"/>
         <v>170</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="4">
         <f t="shared" si="12"/>
         <v>171</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="4">
         <f t="shared" si="12"/>
         <v>172</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="5">
         <f t="shared" si="12"/>
         <v>173</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="4">
         <f t="shared" si="12"/>
         <v>174</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="4">
         <f t="shared" si="12"/>
         <v>175</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="5">
         <f t="shared" si="12"/>
         <v>176</v>
       </c>
@@ -1432,12 +2028,13 @@
     <mergeCell ref="J1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1449,1667 +2046,1667 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" customWidth="1"/>
+    <col min="1" max="1" width="38.4222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>3</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>4</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>5</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="4">
         <v>6</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="4">
         <v>7</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="5">
         <v>8</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="4">
         <v>9</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="4">
         <v>10</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="5">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <f>L2+1</f>
         <v>12</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <f t="shared" ref="C3:L3" si="0">B3+1</f>
         <v>13</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <f t="shared" ref="B4:B8" si="1">L3+1</f>
         <v>23</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <f t="shared" ref="C4:L4" si="2">B4+1</f>
         <v>24</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="4">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="4">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="5">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="4">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="4">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="5">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <f t="shared" ref="C5:L5" si="3">B5+1</f>
         <v>35</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="4">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="4">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="5">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="4">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="4">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="5">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <f t="shared" ref="C6:L6" si="4">B6+1</f>
         <v>46</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <f t="shared" si="4"/>
         <v>47</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <f t="shared" si="4"/>
         <v>49</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="4">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="4">
         <f t="shared" si="4"/>
         <v>51</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="5">
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="4">
         <f t="shared" si="4"/>
         <v>53</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="4">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="5">
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <f t="shared" ref="C7:L7" si="5">B7+1</f>
         <v>57</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <f t="shared" si="5"/>
         <v>58</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="4">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="4">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="5">
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="4">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="4">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="5">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <f t="shared" ref="C8:L8" si="6">B8+1</f>
         <v>68</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <f t="shared" si="6"/>
         <v>69</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <f t="shared" si="6"/>
         <v>70</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <f t="shared" si="6"/>
         <v>71</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="4">
         <f t="shared" si="6"/>
         <v>72</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="4">
         <f t="shared" si="6"/>
         <v>73</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="5">
         <f t="shared" si="6"/>
         <v>74</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="4">
         <f t="shared" si="6"/>
         <v>75</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="4">
         <f t="shared" si="6"/>
         <v>76</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="5">
         <f t="shared" si="6"/>
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="4"/>
+    <row r="9" spans="2:12">
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <f>L8+1</f>
         <v>78</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <f t="shared" ref="C10:L10" si="7">B10+1</f>
         <v>79</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <f t="shared" si="7"/>
         <v>80</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <f t="shared" si="7"/>
         <v>81</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <f t="shared" si="7"/>
         <v>82</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="4">
         <f t="shared" si="7"/>
         <v>83</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="4">
         <f t="shared" si="7"/>
         <v>84</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="5">
         <f t="shared" si="7"/>
         <v>85</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="4">
         <f t="shared" si="7"/>
         <v>86</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="4">
         <f t="shared" si="7"/>
         <v>87</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="5">
         <f t="shared" si="7"/>
         <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <f t="shared" ref="B11:B20" si="8">L10+1</f>
         <v>89</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <f t="shared" ref="C11:L11" si="9">B11+1</f>
         <v>90</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="5">
         <f t="shared" si="9"/>
         <v>91</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <f t="shared" si="9"/>
         <v>92</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="4">
         <f t="shared" si="9"/>
         <v>93</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="4">
         <f t="shared" si="9"/>
         <v>94</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="4">
         <f t="shared" si="9"/>
         <v>95</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="5">
         <f t="shared" si="9"/>
         <v>96</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="4">
         <f t="shared" si="9"/>
         <v>97</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="4">
         <f t="shared" si="9"/>
         <v>98</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="5">
         <f t="shared" si="9"/>
         <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="4">
         <f t="shared" ref="C12:L12" si="10">B12+1</f>
         <v>101</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="5">
         <f t="shared" si="10"/>
         <v>102</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <f t="shared" si="10"/>
         <v>103</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="4">
         <f t="shared" si="10"/>
         <v>104</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="4">
         <f t="shared" si="10"/>
         <v>105</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="4">
         <f t="shared" si="10"/>
         <v>106</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="5">
         <f t="shared" si="10"/>
         <v>107</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="4">
         <f t="shared" si="10"/>
         <v>108</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="4">
         <f t="shared" si="10"/>
         <v>109</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="5">
         <f t="shared" si="10"/>
         <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <f t="shared" si="8"/>
         <v>111</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <f t="shared" ref="C13:L13" si="11">B13+1</f>
         <v>112</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="5">
         <f t="shared" si="11"/>
         <v>113</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <f t="shared" si="11"/>
         <v>114</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="4">
         <f t="shared" si="11"/>
         <v>115</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="4">
         <f t="shared" si="11"/>
         <v>116</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="4">
         <f t="shared" si="11"/>
         <v>117</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="5">
         <f t="shared" si="11"/>
         <v>118</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="4">
         <f t="shared" si="11"/>
         <v>119</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="4">
         <f t="shared" si="11"/>
         <v>120</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="5">
         <f t="shared" si="11"/>
         <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <f t="shared" si="8"/>
         <v>122</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="4">
         <f t="shared" ref="C14:L14" si="12">B14+1</f>
         <v>123</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="5">
         <f t="shared" si="12"/>
         <v>124</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <f t="shared" si="12"/>
         <v>125</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="4">
         <f t="shared" si="12"/>
         <v>126</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="4">
         <f t="shared" si="12"/>
         <v>127</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="4">
         <f t="shared" si="12"/>
         <v>128</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="5">
         <f t="shared" si="12"/>
         <v>129</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="4">
         <f t="shared" si="12"/>
         <v>130</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="4">
         <f t="shared" si="12"/>
         <v>131</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="5">
         <f t="shared" si="12"/>
         <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <f t="shared" si="8"/>
         <v>133</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="4">
         <f t="shared" ref="C15:L15" si="13">B15+1</f>
         <v>134</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="5">
         <f t="shared" si="13"/>
         <v>135</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <f t="shared" si="13"/>
         <v>136</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="4">
         <f t="shared" si="13"/>
         <v>137</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="4">
         <f t="shared" si="13"/>
         <v>138</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="4">
         <f t="shared" si="13"/>
         <v>139</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="5">
         <f t="shared" si="13"/>
         <v>140</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="4">
         <f t="shared" si="13"/>
         <v>141</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="4">
         <f t="shared" si="13"/>
         <v>142</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="5">
         <f t="shared" si="13"/>
         <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <f t="shared" si="8"/>
         <v>144</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="4">
         <f t="shared" ref="C16:C20" si="14">B16+1</f>
         <v>145</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="5">
         <f t="shared" ref="D16:D20" si="15">C16+1</f>
         <v>146</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <f t="shared" ref="E16:E20" si="16">D16+1</f>
         <v>147</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="4">
         <f t="shared" ref="F16:F20" si="17">E16+1</f>
         <v>148</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="4">
         <f t="shared" ref="G16:G20" si="18">F16+1</f>
         <v>149</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="4">
         <f t="shared" ref="H16:H20" si="19">G16+1</f>
         <v>150</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="5">
         <f t="shared" ref="I16:I20" si="20">H16+1</f>
         <v>151</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="4">
         <f t="shared" ref="J16:J20" si="21">I16+1</f>
         <v>152</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="4">
         <f t="shared" ref="K16:K20" si="22">J16+1</f>
         <v>153</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="5">
         <f t="shared" ref="L16:L20" si="23">K16+1</f>
         <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <f t="shared" si="8"/>
         <v>155</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="4">
         <f t="shared" si="14"/>
         <v>156</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="5">
         <f t="shared" si="15"/>
         <v>157</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="3">
         <f t="shared" si="16"/>
         <v>158</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="4">
         <f t="shared" si="17"/>
         <v>159</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="4">
         <f t="shared" si="18"/>
         <v>160</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="4">
         <f t="shared" si="19"/>
         <v>161</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="5">
         <f t="shared" si="20"/>
         <v>162</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="4">
         <f t="shared" si="21"/>
         <v>163</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="4">
         <f t="shared" si="22"/>
         <v>164</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="5">
         <f t="shared" si="23"/>
         <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <f t="shared" si="8"/>
         <v>166</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="4">
         <f t="shared" si="14"/>
         <v>167</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="5">
         <f t="shared" si="15"/>
         <v>168</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
         <f t="shared" si="16"/>
         <v>169</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="4">
         <f t="shared" si="17"/>
         <v>170</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="4">
         <f t="shared" si="18"/>
         <v>171</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="4">
         <f t="shared" si="19"/>
         <v>172</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="5">
         <f t="shared" si="20"/>
         <v>173</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="4">
         <f t="shared" si="21"/>
         <v>174</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="4">
         <f t="shared" si="22"/>
         <v>175</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="5">
         <f t="shared" si="23"/>
         <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <f t="shared" si="8"/>
         <v>177</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="4">
         <f t="shared" si="14"/>
         <v>178</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="5">
         <f t="shared" si="15"/>
         <v>179</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="3">
         <f t="shared" si="16"/>
         <v>180</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="4">
         <f t="shared" si="17"/>
         <v>181</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="4">
         <f t="shared" si="18"/>
         <v>182</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="4">
         <f t="shared" si="19"/>
         <v>183</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="5">
         <f t="shared" si="20"/>
         <v>184</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="4">
         <f t="shared" si="21"/>
         <v>185</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="4">
         <f t="shared" si="22"/>
         <v>186</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="5">
         <f t="shared" si="23"/>
         <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="3">
         <f t="shared" si="8"/>
         <v>188</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="4">
         <f t="shared" si="14"/>
         <v>189</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="5">
         <f t="shared" si="15"/>
         <v>190</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="3">
         <f t="shared" si="16"/>
         <v>191</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="4">
         <f t="shared" si="17"/>
         <v>192</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="4">
         <f t="shared" si="18"/>
         <v>193</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="4">
         <f t="shared" si="19"/>
         <v>194</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="5">
         <f t="shared" si="20"/>
         <v>195</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="4">
         <f t="shared" si="21"/>
         <v>196</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="4">
         <f t="shared" si="22"/>
         <v>197</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="5">
         <f t="shared" si="23"/>
         <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <v>1</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="4">
         <v>2</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="5">
         <v>3</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="3">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="4">
         <v>5</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="4">
         <v>6</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="4">
         <v>7</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="5">
         <v>8</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="4">
         <v>9</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="4">
         <v>10</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="5">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <f t="shared" ref="B22:B35" si="24">L21+1</f>
         <v>12</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="4">
         <f t="shared" ref="C22:L22" si="25">B22+1</f>
         <v>13</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="5">
         <f t="shared" si="25"/>
         <v>14</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="3">
         <f t="shared" si="25"/>
         <v>15</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="4">
         <f t="shared" si="25"/>
         <v>16</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="4">
         <f t="shared" si="25"/>
         <v>17</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="4">
         <f t="shared" si="25"/>
         <v>18</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="5">
         <f t="shared" si="25"/>
         <v>19</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="4">
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="4">
         <f t="shared" si="25"/>
         <v>21</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="5">
         <f t="shared" si="25"/>
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="3">
         <f t="shared" si="24"/>
         <v>23</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="4">
         <f t="shared" ref="C23:L23" si="26">B23+1</f>
         <v>24</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="5">
         <f t="shared" si="26"/>
         <v>25</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="3">
         <f t="shared" si="26"/>
         <v>26</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="4">
         <f t="shared" si="26"/>
         <v>27</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="4">
         <f t="shared" si="26"/>
         <v>28</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="4">
         <f t="shared" si="26"/>
         <v>29</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="5">
         <f t="shared" si="26"/>
         <v>30</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="4">
         <f t="shared" si="26"/>
         <v>31</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="4">
         <f t="shared" si="26"/>
         <v>32</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="5">
         <f t="shared" si="26"/>
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="4"/>
+    <row r="24" spans="2:12">
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="5"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <f>L23+1</f>
         <v>34</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="4">
         <f t="shared" ref="C25:L25" si="27">B25+1</f>
         <v>35</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="5">
         <f t="shared" si="27"/>
         <v>36</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="3">
         <f t="shared" si="27"/>
         <v>37</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="4">
         <f t="shared" si="27"/>
         <v>38</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="4">
         <f t="shared" si="27"/>
         <v>39</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="4">
         <f t="shared" si="27"/>
         <v>40</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="5">
         <f t="shared" si="27"/>
         <v>41</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="4">
         <f t="shared" si="27"/>
         <v>42</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="4">
         <f t="shared" si="27"/>
         <v>43</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="5">
         <f t="shared" si="27"/>
         <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="3">
         <f t="shared" si="24"/>
         <v>45</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="4">
         <f t="shared" ref="C26:L26" si="28">B26+1</f>
         <v>46</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="5">
         <f t="shared" si="28"/>
         <v>47</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="3">
         <f t="shared" si="28"/>
         <v>48</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="4">
         <f t="shared" si="28"/>
         <v>49</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="4">
         <f t="shared" si="28"/>
         <v>50</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="4">
         <f t="shared" si="28"/>
         <v>51</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="5">
         <f t="shared" si="28"/>
         <v>52</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="4">
         <f t="shared" si="28"/>
         <v>53</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="4">
         <f t="shared" si="28"/>
         <v>54</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="5">
         <f t="shared" si="28"/>
         <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="3">
         <f t="shared" si="24"/>
         <v>56</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="4">
         <f t="shared" ref="C27:L27" si="29">B27+1</f>
         <v>57</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="5">
         <f t="shared" si="29"/>
         <v>58</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="3">
         <f t="shared" si="29"/>
         <v>59</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="4">
         <f t="shared" si="29"/>
         <v>60</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="4">
         <f t="shared" si="29"/>
         <v>61</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="4">
         <f t="shared" si="29"/>
         <v>62</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="5">
         <f t="shared" si="29"/>
         <v>63</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="4">
         <f t="shared" si="29"/>
         <v>64</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="4">
         <f t="shared" si="29"/>
         <v>65</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="5">
         <f t="shared" si="29"/>
         <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="3">
         <f t="shared" si="24"/>
         <v>67</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="4">
         <f t="shared" ref="C28:C35" si="30">B28+1</f>
         <v>68</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="5">
         <f t="shared" ref="D28:D35" si="31">C28+1</f>
         <v>69</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="3">
         <f t="shared" ref="E28:E35" si="32">D28+1</f>
         <v>70</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="4">
         <f t="shared" ref="F28:F35" si="33">E28+1</f>
         <v>71</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="4">
         <f t="shared" ref="G28:G35" si="34">F28+1</f>
         <v>72</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="4">
         <f t="shared" ref="H28:H35" si="35">G28+1</f>
         <v>73</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="5">
         <f t="shared" ref="I28:I35" si="36">H28+1</f>
         <v>74</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="4">
         <f t="shared" ref="J28:J35" si="37">I28+1</f>
         <v>75</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="4">
         <f t="shared" ref="K28:K35" si="38">J28+1</f>
         <v>76</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L28" s="5">
         <f t="shared" ref="L28:L35" si="39">K28+1</f>
         <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="3">
         <f t="shared" si="24"/>
         <v>78</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="4">
         <f t="shared" si="30"/>
         <v>79</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="5">
         <f t="shared" si="31"/>
         <v>80</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="3">
         <f t="shared" si="32"/>
         <v>81</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="4">
         <f t="shared" si="33"/>
         <v>82</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="4">
         <f t="shared" si="34"/>
         <v>83</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="4">
         <f t="shared" si="35"/>
         <v>84</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="5">
         <f t="shared" si="36"/>
         <v>85</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="4">
         <f t="shared" si="37"/>
         <v>86</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="4">
         <f t="shared" si="38"/>
         <v>87</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L29" s="5">
         <f t="shared" si="39"/>
         <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="3">
         <f t="shared" si="24"/>
         <v>89</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="4">
         <f t="shared" si="30"/>
         <v>90</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="5">
         <f t="shared" si="31"/>
         <v>91</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="3">
         <f t="shared" si="32"/>
         <v>92</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="4">
         <f t="shared" si="33"/>
         <v>93</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="4">
         <f t="shared" si="34"/>
         <v>94</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="4">
         <f t="shared" si="35"/>
         <v>95</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="5">
         <f t="shared" si="36"/>
         <v>96</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="4">
         <f t="shared" si="37"/>
         <v>97</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="4">
         <f t="shared" si="38"/>
         <v>98</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30" s="5">
         <f t="shared" si="39"/>
         <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="3">
         <f t="shared" si="24"/>
         <v>100</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="4">
         <f t="shared" si="30"/>
         <v>101</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="5">
         <f t="shared" si="31"/>
         <v>102</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="3">
         <f t="shared" si="32"/>
         <v>103</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="4">
         <f t="shared" si="33"/>
         <v>104</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="4">
         <f t="shared" si="34"/>
         <v>105</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="4">
         <f t="shared" si="35"/>
         <v>106</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="5">
         <f t="shared" si="36"/>
         <v>107</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="4">
         <f t="shared" si="37"/>
         <v>108</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="4">
         <f t="shared" si="38"/>
         <v>109</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L31" s="5">
         <f t="shared" si="39"/>
         <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="3">
         <f t="shared" si="24"/>
         <v>111</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="4">
         <f t="shared" si="30"/>
         <v>112</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="5">
         <f t="shared" si="31"/>
         <v>113</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="3">
         <f t="shared" si="32"/>
         <v>114</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="4">
         <f t="shared" si="33"/>
         <v>115</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="4">
         <f t="shared" si="34"/>
         <v>116</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="4">
         <f t="shared" si="35"/>
         <v>117</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="5">
         <f t="shared" si="36"/>
         <v>118</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="4">
         <f t="shared" si="37"/>
         <v>119</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="4">
         <f t="shared" si="38"/>
         <v>120</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L32" s="5">
         <f t="shared" si="39"/>
         <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="3">
         <f t="shared" si="24"/>
         <v>122</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="4">
         <f t="shared" si="30"/>
         <v>123</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="5">
         <f t="shared" si="31"/>
         <v>124</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="3">
         <f t="shared" si="32"/>
         <v>125</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="4">
         <f t="shared" si="33"/>
         <v>126</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="4">
         <f t="shared" si="34"/>
         <v>127</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="4">
         <f t="shared" si="35"/>
         <v>128</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="5">
         <f t="shared" si="36"/>
         <v>129</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="4">
         <f t="shared" si="37"/>
         <v>130</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="4">
         <f t="shared" si="38"/>
         <v>131</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L33" s="5">
         <f t="shared" si="39"/>
         <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="3">
         <f t="shared" si="24"/>
         <v>133</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="4">
         <f t="shared" si="30"/>
         <v>134</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="5">
         <f t="shared" si="31"/>
         <v>135</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="3">
         <f t="shared" si="32"/>
         <v>136</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="4">
         <f t="shared" si="33"/>
         <v>137</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="4">
         <f t="shared" si="34"/>
         <v>138</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="4">
         <f t="shared" si="35"/>
         <v>139</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="5">
         <f t="shared" si="36"/>
         <v>140</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="4">
         <f t="shared" si="37"/>
         <v>141</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="4">
         <f t="shared" si="38"/>
         <v>142</v>
       </c>
-      <c r="L34" s="4">
+      <c r="L34" s="5">
         <f t="shared" si="39"/>
         <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="3">
         <f t="shared" si="24"/>
         <v>144</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="4">
         <f t="shared" si="30"/>
         <v>145</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="5">
         <f t="shared" si="31"/>
         <v>146</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="3">
         <f t="shared" si="32"/>
         <v>147</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="4">
         <f t="shared" si="33"/>
         <v>148</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="4">
         <f t="shared" si="34"/>
         <v>149</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="4">
         <f t="shared" si="35"/>
         <v>150</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="5">
         <f t="shared" si="36"/>
         <v>151</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="4">
         <f t="shared" si="37"/>
         <v>152</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="4">
         <f t="shared" si="38"/>
         <v>153</v>
       </c>
-      <c r="L35" s="4">
+      <c r="L35" s="5">
         <f t="shared" si="39"/>
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
-      <c r="B36" s="2"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="4"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="B37" s="2"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="4"/>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="B38" s="2"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="4"/>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="B39" s="2"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="4"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="B40" s="2"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="4"/>
+    <row r="36" spans="2:12">
+      <c r="B36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="5"/>
+    </row>
+    <row r="37" spans="2:12">
+      <c r="B37" s="3"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="5"/>
+    </row>
+    <row r="38" spans="2:12">
+      <c r="B38" s="3"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="5"/>
+    </row>
+    <row r="39" spans="2:12">
+      <c r="B39" s="3"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="5"/>
+    </row>
+    <row r="40" spans="2:12">
+      <c r="B40" s="3"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3118,6 +3715,7 @@
     <mergeCell ref="J1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/pembagian talaqqi bahasa santri 2024-2025.xlsx
+++ b/pembagian talaqqi bahasa santri 2024-2025.xlsx
@@ -4,22 +4,26 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7875"/>
+    <workbookView windowWidth="20490" windowHeight="7875" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="masjid putri" sheetId="1" r:id="rId1"/>
     <sheet name="masjid putra" sheetId="2" r:id="rId2"/>
+    <sheet name="asrama putri" sheetId="3" r:id="rId3"/>
+    <sheet name="asrama putra" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'masjid putra'!$A$1:$L$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'masjid putri'!$A$1:$L$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'asrama putri'!$A$1:$L$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'asrama putra'!$A$1:$L$35</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="52">
   <si>
     <t>Nama</t>
   </si>
@@ -183,9 +187,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -215,16 +219,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,42 +234,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -294,16 +258,56 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -323,37 +327,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,7 +372,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,7 +408,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,19 +420,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,7 +432,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,19 +504,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,49 +522,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,13 +534,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,31 +546,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,6 +618,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -629,10 +642,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -642,7 +672,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,30 +688,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,160 +709,158 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1211,7 +1215,7 @@
   </sheetPr>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -3718,4 +3722,2455 @@
   <pageSetup paperSize="9" scale="95" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.3333333333333" customWidth="1"/>
+    <col min="2" max="12" width="6.47407407407407" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4">
+        <v>7</v>
+      </c>
+      <c r="I2" s="5">
+        <v>8</v>
+      </c>
+      <c r="J2" s="4">
+        <v>9</v>
+      </c>
+      <c r="K2" s="4">
+        <v>10</v>
+      </c>
+      <c r="L2" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4">
+        <f t="shared" ref="C3:L3" si="0">B3+1</f>
+        <v>13</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="L3" s="5">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3">
+        <f t="shared" ref="B4:B13" si="1">L3+1</f>
+        <v>23</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" ref="C4:L4" si="2">B4+1</f>
+        <v>24</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="L4" s="5">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" ref="C5:L5" si="3">B5+1</f>
+        <v>35</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="9"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3">
+        <f>L5+1</f>
+        <v>45</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" ref="C7:L7" si="4">B7+1</f>
+        <v>46</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" ref="C8:L8" si="5">B8+1</f>
+        <v>57</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="5"/>
+        <v>59</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="5"/>
+        <v>61</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" si="5"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" ref="C9:L9" si="6">B9+1</f>
+        <v>68</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="6"/>
+        <v>69</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="6"/>
+        <v>73</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="6"/>
+        <v>76</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="6"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" ref="C10:L10" si="7">B10+1</f>
+        <v>79</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="7"/>
+        <v>81</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="7"/>
+        <v>83</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="7"/>
+        <v>84</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="7"/>
+        <v>85</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="7"/>
+        <v>86</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="7"/>
+        <v>87</v>
+      </c>
+      <c r="L10" s="5">
+        <f t="shared" si="7"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" ref="C11:L11" si="8">B11+1</f>
+        <v>90</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="8"/>
+        <v>92</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="8"/>
+        <v>93</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="8"/>
+        <v>94</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="8"/>
+        <v>95</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="8"/>
+        <v>96</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="8"/>
+        <v>97</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="8"/>
+        <v>98</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" si="8"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" ref="C12:L12" si="9">B12+1</f>
+        <v>101</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="9"/>
+        <v>102</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="9"/>
+        <v>103</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="9"/>
+        <v>104</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="9"/>
+        <v>105</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="9"/>
+        <v>106</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="9"/>
+        <v>107</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="9"/>
+        <v>108</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="9"/>
+        <v>109</v>
+      </c>
+      <c r="L12" s="5">
+        <f t="shared" si="9"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" ref="C13:L13" si="10">B13+1</f>
+        <v>112</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="10"/>
+        <v>113</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="10"/>
+        <v>114</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="10"/>
+        <v>115</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="10"/>
+        <v>116</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="10"/>
+        <v>117</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="10"/>
+        <v>118</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="10"/>
+        <v>119</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="10"/>
+        <v>120</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" si="10"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
+        <f>L13+1</f>
+        <v>122</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" ref="C15:L15" si="11">B15+1</f>
+        <v>123</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="11"/>
+        <v>124</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="11"/>
+        <v>125</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="11"/>
+        <v>126</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="11"/>
+        <v>127</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="11"/>
+        <v>128</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="11"/>
+        <v>129</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="11"/>
+        <v>130</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="11"/>
+        <v>131</v>
+      </c>
+      <c r="L15" s="5">
+        <f t="shared" si="11"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3">
+        <f t="shared" ref="B16:B19" si="12">L15+1</f>
+        <v>133</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" ref="C16:L16" si="13">B16+1</f>
+        <v>134</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="13"/>
+        <v>135</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="13"/>
+        <v>136</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="13"/>
+        <v>137</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="13"/>
+        <v>138</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="13"/>
+        <v>139</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="13"/>
+        <v>140</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="13"/>
+        <v>141</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="13"/>
+        <v>142</v>
+      </c>
+      <c r="L16" s="5">
+        <f t="shared" si="13"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3">
+        <f t="shared" si="12"/>
+        <v>144</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" ref="C17:L17" si="14">B17+1</f>
+        <v>145</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="14"/>
+        <v>146</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="14"/>
+        <v>147</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="14"/>
+        <v>148</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="14"/>
+        <v>149</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="14"/>
+        <v>150</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="14"/>
+        <v>151</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="14"/>
+        <v>152</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="14"/>
+        <v>153</v>
+      </c>
+      <c r="L17" s="5">
+        <f t="shared" si="14"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3">
+        <f t="shared" si="12"/>
+        <v>155</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" ref="C18:L18" si="15">B18+1</f>
+        <v>156</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="15"/>
+        <v>157</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="15"/>
+        <v>158</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="15"/>
+        <v>159</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="15"/>
+        <v>160</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="15"/>
+        <v>161</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="15"/>
+        <v>162</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="15"/>
+        <v>163</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="15"/>
+        <v>164</v>
+      </c>
+      <c r="L18" s="5">
+        <f t="shared" si="15"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3">
+        <f t="shared" si="12"/>
+        <v>166</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" ref="C19:L19" si="16">B19+1</f>
+        <v>167</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="16"/>
+        <v>168</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="16"/>
+        <v>169</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="16"/>
+        <v>170</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="16"/>
+        <v>171</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="16"/>
+        <v>172</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="16"/>
+        <v>173</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="16"/>
+        <v>174</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="16"/>
+        <v>175</v>
+      </c>
+      <c r="L19" s="5">
+        <f t="shared" si="16"/>
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:L35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="38.4222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4">
+        <v>7</v>
+      </c>
+      <c r="I2" s="5">
+        <v>8</v>
+      </c>
+      <c r="J2" s="4">
+        <v>9</v>
+      </c>
+      <c r="K2" s="4">
+        <v>10</v>
+      </c>
+      <c r="L2" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3">
+        <f t="shared" ref="B3:B8" si="0">L2+1</f>
+        <v>12</v>
+      </c>
+      <c r="C3" s="4">
+        <f t="shared" ref="C3:L3" si="1">B3+1</f>
+        <v>13</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="L3" s="5">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" ref="C4:L4" si="2">B4+1</f>
+        <v>24</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="L4" s="5">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" ref="C5:L5" si="3">B5+1</f>
+        <v>35</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" ref="C6:L6" si="4">B6+1</f>
+        <v>46</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="3">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" ref="C7:L7" si="5">B7+1</f>
+        <v>57</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="5"/>
+        <v>59</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="5"/>
+        <v>61</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="5"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" ref="C8:L8" si="6">B8+1</f>
+        <v>68</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="6"/>
+        <v>69</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="6"/>
+        <v>73</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="6"/>
+        <v>76</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" si="6"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3">
+        <f>L8+1</f>
+        <v>78</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" ref="C10:L10" si="7">B10+1</f>
+        <v>79</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="7"/>
+        <v>81</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="7"/>
+        <v>83</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="7"/>
+        <v>84</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="7"/>
+        <v>85</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="7"/>
+        <v>86</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="7"/>
+        <v>87</v>
+      </c>
+      <c r="L10" s="5">
+        <f t="shared" si="7"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="3">
+        <f t="shared" ref="B11:B20" si="8">L10+1</f>
+        <v>89</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" ref="C11:L11" si="9">B11+1</f>
+        <v>90</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="9"/>
+        <v>91</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="9"/>
+        <v>92</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="9"/>
+        <v>93</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="9"/>
+        <v>94</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="9"/>
+        <v>95</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="9"/>
+        <v>96</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="9"/>
+        <v>97</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="9"/>
+        <v>98</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" si="9"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" ref="C12:L12" si="10">B12+1</f>
+        <v>101</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="10"/>
+        <v>102</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="10"/>
+        <v>103</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="10"/>
+        <v>104</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="10"/>
+        <v>105</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="10"/>
+        <v>106</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="10"/>
+        <v>107</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="10"/>
+        <v>108</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="10"/>
+        <v>109</v>
+      </c>
+      <c r="L12" s="5">
+        <f t="shared" si="10"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="3">
+        <f t="shared" si="8"/>
+        <v>111</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" ref="C13:L13" si="11">B13+1</f>
+        <v>112</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="11"/>
+        <v>113</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="11"/>
+        <v>114</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="11"/>
+        <v>115</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="11"/>
+        <v>116</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="11"/>
+        <v>117</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="11"/>
+        <v>118</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="11"/>
+        <v>119</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="11"/>
+        <v>120</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" si="11"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="3">
+        <f t="shared" si="8"/>
+        <v>122</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" ref="C14:L14" si="12">B14+1</f>
+        <v>123</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="12"/>
+        <v>124</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="12"/>
+        <v>125</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="12"/>
+        <v>126</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="12"/>
+        <v>127</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="12"/>
+        <v>128</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="12"/>
+        <v>129</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="12"/>
+        <v>130</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="12"/>
+        <v>131</v>
+      </c>
+      <c r="L14" s="5">
+        <f t="shared" si="12"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="3">
+        <f t="shared" si="8"/>
+        <v>133</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" ref="C15:L15" si="13">B15+1</f>
+        <v>134</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="13"/>
+        <v>135</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="13"/>
+        <v>136</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="13"/>
+        <v>137</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="13"/>
+        <v>138</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="13"/>
+        <v>139</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="13"/>
+        <v>140</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="13"/>
+        <v>141</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="13"/>
+        <v>142</v>
+      </c>
+      <c r="L15" s="5">
+        <f t="shared" si="13"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="3">
+        <f t="shared" si="8"/>
+        <v>144</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" ref="C16:L16" si="14">B16+1</f>
+        <v>145</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="14"/>
+        <v>146</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="14"/>
+        <v>147</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="14"/>
+        <v>148</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="14"/>
+        <v>149</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="14"/>
+        <v>150</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="14"/>
+        <v>151</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="14"/>
+        <v>152</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="14"/>
+        <v>153</v>
+      </c>
+      <c r="L16" s="5">
+        <f t="shared" si="14"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="3">
+        <f t="shared" si="8"/>
+        <v>155</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" ref="C17:L17" si="15">B17+1</f>
+        <v>156</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="15"/>
+        <v>157</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="15"/>
+        <v>158</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="15"/>
+        <v>159</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="15"/>
+        <v>160</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="15"/>
+        <v>161</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="15"/>
+        <v>162</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="15"/>
+        <v>163</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="15"/>
+        <v>164</v>
+      </c>
+      <c r="L17" s="5">
+        <f t="shared" si="15"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="3">
+        <f t="shared" si="8"/>
+        <v>166</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" ref="C18:L18" si="16">B18+1</f>
+        <v>167</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="16"/>
+        <v>168</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="16"/>
+        <v>169</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="16"/>
+        <v>170</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="16"/>
+        <v>171</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="16"/>
+        <v>172</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="16"/>
+        <v>173</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="16"/>
+        <v>174</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="16"/>
+        <v>175</v>
+      </c>
+      <c r="L18" s="5">
+        <f t="shared" si="16"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3">
+        <v>4</v>
+      </c>
+      <c r="F19" s="4">
+        <v>5</v>
+      </c>
+      <c r="G19" s="4">
+        <v>6</v>
+      </c>
+      <c r="H19" s="4">
+        <v>7</v>
+      </c>
+      <c r="I19" s="5">
+        <v>8</v>
+      </c>
+      <c r="J19" s="4">
+        <v>9</v>
+      </c>
+      <c r="K19" s="4">
+        <v>10</v>
+      </c>
+      <c r="L19" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="3">
+        <f t="shared" ref="B20:B23" si="17">L19+1</f>
+        <v>12</v>
+      </c>
+      <c r="C20" s="4">
+        <f t="shared" ref="C20:L20" si="18">B20+1</f>
+        <v>13</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="18"/>
+        <v>14</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="18"/>
+        <v>15</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="18"/>
+        <v>16</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="18"/>
+        <v>17</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="18"/>
+        <v>18</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="18"/>
+        <v>19</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="18"/>
+        <v>20</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="18"/>
+        <v>21</v>
+      </c>
+      <c r="L20" s="5">
+        <f t="shared" si="18"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="3">
+        <f t="shared" si="17"/>
+        <v>23</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" ref="C21:L21" si="19">B21+1</f>
+        <v>24</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="19"/>
+        <v>25</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="19"/>
+        <v>26</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="19"/>
+        <v>27</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="19"/>
+        <v>28</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="19"/>
+        <v>29</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="19"/>
+        <v>30</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="19"/>
+        <v>31</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="19"/>
+        <v>32</v>
+      </c>
+      <c r="L21" s="5">
+        <f t="shared" si="19"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="3">
+        <f t="shared" si="17"/>
+        <v>34</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" ref="C22:L22" si="20">B22+1</f>
+        <v>35</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="20"/>
+        <v>36</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="20"/>
+        <v>37</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="20"/>
+        <v>38</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="20"/>
+        <v>39</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="20"/>
+        <v>40</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="20"/>
+        <v>41</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="20"/>
+        <v>42</v>
+      </c>
+      <c r="K22" s="4">
+        <f t="shared" si="20"/>
+        <v>43</v>
+      </c>
+      <c r="L22" s="5">
+        <f t="shared" si="20"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="3">
+        <f t="shared" si="17"/>
+        <v>45</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" ref="C23:L23" si="21">B23+1</f>
+        <v>46</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="21"/>
+        <v>47</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="21"/>
+        <v>48</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="21"/>
+        <v>50</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="21"/>
+        <v>51</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" si="21"/>
+        <v>52</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="21"/>
+        <v>53</v>
+      </c>
+      <c r="K23" s="4">
+        <f t="shared" si="21"/>
+        <v>54</v>
+      </c>
+      <c r="L23" s="5">
+        <f t="shared" si="21"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="3">
+        <f>L23+1</f>
+        <v>56</v>
+      </c>
+      <c r="C25" s="4">
+        <f t="shared" ref="C25:L25" si="22">B25+1</f>
+        <v>57</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" si="22"/>
+        <v>58</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="22"/>
+        <v>59</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="22"/>
+        <v>60</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="22"/>
+        <v>61</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="22"/>
+        <v>62</v>
+      </c>
+      <c r="I25" s="5">
+        <f t="shared" si="22"/>
+        <v>63</v>
+      </c>
+      <c r="J25" s="4">
+        <f t="shared" si="22"/>
+        <v>64</v>
+      </c>
+      <c r="K25" s="4">
+        <f t="shared" si="22"/>
+        <v>65</v>
+      </c>
+      <c r="L25" s="5">
+        <f t="shared" si="22"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="3">
+        <f t="shared" ref="B26:B35" si="23">L25+1</f>
+        <v>67</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" ref="C26:L26" si="24">B26+1</f>
+        <v>68</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="24"/>
+        <v>69</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="24"/>
+        <v>70</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="24"/>
+        <v>71</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="24"/>
+        <v>72</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="24"/>
+        <v>73</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" si="24"/>
+        <v>74</v>
+      </c>
+      <c r="J26" s="4">
+        <f t="shared" si="24"/>
+        <v>75</v>
+      </c>
+      <c r="K26" s="4">
+        <f t="shared" si="24"/>
+        <v>76</v>
+      </c>
+      <c r="L26" s="5">
+        <f t="shared" si="24"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="3">
+        <f t="shared" si="23"/>
+        <v>78</v>
+      </c>
+      <c r="C27" s="4">
+        <f t="shared" ref="C27:L27" si="25">B27+1</f>
+        <v>79</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="25"/>
+        <v>80</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="25"/>
+        <v>81</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" si="25"/>
+        <v>82</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="25"/>
+        <v>83</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" si="25"/>
+        <v>84</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="25"/>
+        <v>85</v>
+      </c>
+      <c r="J27" s="4">
+        <f t="shared" si="25"/>
+        <v>86</v>
+      </c>
+      <c r="K27" s="4">
+        <f t="shared" si="25"/>
+        <v>87</v>
+      </c>
+      <c r="L27" s="5">
+        <f t="shared" si="25"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="3">
+        <f t="shared" si="23"/>
+        <v>89</v>
+      </c>
+      <c r="C28" s="4">
+        <f t="shared" ref="C28:C35" si="26">B28+1</f>
+        <v>90</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" ref="D28:D35" si="27">C28+1</f>
+        <v>91</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" ref="E28:E35" si="28">D28+1</f>
+        <v>92</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" ref="F28:F35" si="29">E28+1</f>
+        <v>93</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" ref="G28:G35" si="30">F28+1</f>
+        <v>94</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" ref="H28:H35" si="31">G28+1</f>
+        <v>95</v>
+      </c>
+      <c r="I28" s="5">
+        <f t="shared" ref="I28:I35" si="32">H28+1</f>
+        <v>96</v>
+      </c>
+      <c r="J28" s="4">
+        <f t="shared" ref="J28:J35" si="33">I28+1</f>
+        <v>97</v>
+      </c>
+      <c r="K28" s="4">
+        <f t="shared" ref="K28:K35" si="34">J28+1</f>
+        <v>98</v>
+      </c>
+      <c r="L28" s="5">
+        <f t="shared" ref="L28:L35" si="35">K28+1</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="3">
+        <f t="shared" si="23"/>
+        <v>100</v>
+      </c>
+      <c r="C29" s="4">
+        <f t="shared" si="26"/>
+        <v>101</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" si="27"/>
+        <v>102</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="28"/>
+        <v>103</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" si="29"/>
+        <v>104</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="30"/>
+        <v>105</v>
+      </c>
+      <c r="H29" s="4">
+        <f t="shared" si="31"/>
+        <v>106</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" si="32"/>
+        <v>107</v>
+      </c>
+      <c r="J29" s="4">
+        <f t="shared" si="33"/>
+        <v>108</v>
+      </c>
+      <c r="K29" s="4">
+        <f t="shared" si="34"/>
+        <v>109</v>
+      </c>
+      <c r="L29" s="5">
+        <f t="shared" si="35"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="3">
+        <f t="shared" si="23"/>
+        <v>111</v>
+      </c>
+      <c r="C30" s="4">
+        <f t="shared" si="26"/>
+        <v>112</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="27"/>
+        <v>113</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" si="28"/>
+        <v>114</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" si="29"/>
+        <v>115</v>
+      </c>
+      <c r="G30" s="4">
+        <f t="shared" si="30"/>
+        <v>116</v>
+      </c>
+      <c r="H30" s="4">
+        <f t="shared" si="31"/>
+        <v>117</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" si="32"/>
+        <v>118</v>
+      </c>
+      <c r="J30" s="4">
+        <f t="shared" si="33"/>
+        <v>119</v>
+      </c>
+      <c r="K30" s="4">
+        <f t="shared" si="34"/>
+        <v>120</v>
+      </c>
+      <c r="L30" s="5">
+        <f t="shared" si="35"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="3">
+        <f t="shared" si="23"/>
+        <v>122</v>
+      </c>
+      <c r="C31" s="4">
+        <f t="shared" si="26"/>
+        <v>123</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" si="27"/>
+        <v>124</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" si="28"/>
+        <v>125</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="29"/>
+        <v>126</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="30"/>
+        <v>127</v>
+      </c>
+      <c r="H31" s="4">
+        <f t="shared" si="31"/>
+        <v>128</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" si="32"/>
+        <v>129</v>
+      </c>
+      <c r="J31" s="4">
+        <f t="shared" si="33"/>
+        <v>130</v>
+      </c>
+      <c r="K31" s="4">
+        <f t="shared" si="34"/>
+        <v>131</v>
+      </c>
+      <c r="L31" s="5">
+        <f t="shared" si="35"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="3">
+        <f t="shared" si="23"/>
+        <v>133</v>
+      </c>
+      <c r="C32" s="4">
+        <f t="shared" si="26"/>
+        <v>134</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="27"/>
+        <v>135</v>
+      </c>
+      <c r="E32" s="3">
+        <f t="shared" si="28"/>
+        <v>136</v>
+      </c>
+      <c r="F32" s="4">
+        <f t="shared" si="29"/>
+        <v>137</v>
+      </c>
+      <c r="G32" s="4">
+        <f t="shared" si="30"/>
+        <v>138</v>
+      </c>
+      <c r="H32" s="4">
+        <f t="shared" si="31"/>
+        <v>139</v>
+      </c>
+      <c r="I32" s="5">
+        <f t="shared" si="32"/>
+        <v>140</v>
+      </c>
+      <c r="J32" s="4">
+        <f t="shared" si="33"/>
+        <v>141</v>
+      </c>
+      <c r="K32" s="4">
+        <f t="shared" si="34"/>
+        <v>142</v>
+      </c>
+      <c r="L32" s="5">
+        <f t="shared" si="35"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="3">
+        <f t="shared" si="23"/>
+        <v>144</v>
+      </c>
+      <c r="C33" s="4">
+        <f t="shared" si="26"/>
+        <v>145</v>
+      </c>
+      <c r="D33" s="5">
+        <f t="shared" si="27"/>
+        <v>146</v>
+      </c>
+      <c r="E33" s="3">
+        <f t="shared" si="28"/>
+        <v>147</v>
+      </c>
+      <c r="F33" s="4">
+        <f t="shared" si="29"/>
+        <v>148</v>
+      </c>
+      <c r="G33" s="4">
+        <f t="shared" si="30"/>
+        <v>149</v>
+      </c>
+      <c r="H33" s="4">
+        <f t="shared" si="31"/>
+        <v>150</v>
+      </c>
+      <c r="I33" s="5">
+        <f t="shared" si="32"/>
+        <v>151</v>
+      </c>
+      <c r="J33" s="4">
+        <f t="shared" si="33"/>
+        <v>152</v>
+      </c>
+      <c r="K33" s="4">
+        <f t="shared" si="34"/>
+        <v>153</v>
+      </c>
+      <c r="L33" s="5">
+        <f t="shared" si="35"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="3">
+        <f t="shared" si="23"/>
+        <v>155</v>
+      </c>
+      <c r="C34" s="4">
+        <f t="shared" si="26"/>
+        <v>156</v>
+      </c>
+      <c r="D34" s="5">
+        <f t="shared" si="27"/>
+        <v>157</v>
+      </c>
+      <c r="E34" s="3">
+        <f t="shared" si="28"/>
+        <v>158</v>
+      </c>
+      <c r="F34" s="4">
+        <f t="shared" si="29"/>
+        <v>159</v>
+      </c>
+      <c r="G34" s="4">
+        <f t="shared" si="30"/>
+        <v>160</v>
+      </c>
+      <c r="H34" s="4">
+        <f t="shared" si="31"/>
+        <v>161</v>
+      </c>
+      <c r="I34" s="5">
+        <f t="shared" si="32"/>
+        <v>162</v>
+      </c>
+      <c r="J34" s="4">
+        <f t="shared" si="33"/>
+        <v>163</v>
+      </c>
+      <c r="K34" s="4">
+        <f t="shared" si="34"/>
+        <v>164</v>
+      </c>
+      <c r="L34" s="5">
+        <f t="shared" si="35"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="3">
+        <f t="shared" si="23"/>
+        <v>166</v>
+      </c>
+      <c r="C35" s="4">
+        <f t="shared" si="26"/>
+        <v>167</v>
+      </c>
+      <c r="D35" s="5">
+        <f t="shared" si="27"/>
+        <v>168</v>
+      </c>
+      <c r="E35" s="3">
+        <f t="shared" si="28"/>
+        <v>169</v>
+      </c>
+      <c r="F35" s="4">
+        <f t="shared" si="29"/>
+        <v>170</v>
+      </c>
+      <c r="G35" s="4">
+        <f t="shared" si="30"/>
+        <v>171</v>
+      </c>
+      <c r="H35" s="4">
+        <f t="shared" si="31"/>
+        <v>172</v>
+      </c>
+      <c r="I35" s="5">
+        <f t="shared" si="32"/>
+        <v>173</v>
+      </c>
+      <c r="J35" s="4">
+        <f t="shared" si="33"/>
+        <v>174</v>
+      </c>
+      <c r="K35" s="4">
+        <f t="shared" si="34"/>
+        <v>175</v>
+      </c>
+      <c r="L35" s="5">
+        <f t="shared" si="35"/>
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/pembagian talaqqi bahasa santri 2024-2025.xlsx
+++ b/pembagian talaqqi bahasa santri 2024-2025.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zen\bahasa arab\kosakata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1F382D-058F-40B7-A42A-4BEA114AE28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7875" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="masjid putri" sheetId="1" r:id="rId1"/>
@@ -13,12 +19,25 @@
     <sheet name="asrama putra" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'asrama putra'!$A$1:$L$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'asrama putri'!$A$1:$L$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'masjid putra'!$A$1:$L$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'masjid putri'!$A$1:$L$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'asrama putri'!$A$1:$L$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'asrama putra'!$A$1:$L$35</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -184,14 +203,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,342 +235,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -617,258 +307,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -881,73 +326,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="Normal 3" xfId="19"/>
-    <cellStyle name="20% - Accent1" xfId="20" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="21" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="22" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="23" builtinId="32"/>
-    <cellStyle name="Bad" xfId="24" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="25" builtinId="42"/>
-    <cellStyle name="Total" xfId="26" builtinId="25"/>
-    <cellStyle name="Output" xfId="27" builtinId="21"/>
-    <cellStyle name="Currency" xfId="28" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="29" builtinId="38"/>
-    <cellStyle name="Note" xfId="30" builtinId="10"/>
-    <cellStyle name="Input" xfId="31" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="32" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="33" builtinId="22"/>
-    <cellStyle name="Good" xfId="34" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="35" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="36" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="37" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="38" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
-    <cellStyle name="Title" xfId="40" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="41" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="42" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
-    <cellStyle name="Comma" xfId="45" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1205,11 +605,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1221,806 +622,803 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.3333333333333" customWidth="1"/>
-    <col min="2" max="12" width="6.47407407407407" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="12" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>2</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>3</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>4</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>5</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>6</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>7</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>8</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
         <v>9</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <v>10</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="4">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>12</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <f t="shared" ref="C3:L3" si="0">B3+1</f>
         <v>13</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <f>L3+1</f>
         <v>23</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <f t="shared" ref="C4:L9" si="1">B4+1</f>
         <v>24</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <f>L4+1</f>
         <v>34</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="9"/>
-    </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <f>L5+1</f>
         <v>45</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <f t="shared" ref="C7:L7" si="2">B7+1</f>
         <v>46</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="4">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <f>L7+1</f>
         <v>56</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="4">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <f>L8+1</f>
         <v>67</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="4">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <f t="shared" ref="B10:B12" si="3">L9+1</f>
         <v>78</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <f t="shared" ref="C10:L10" si="4">B10+1</f>
         <v>79</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <f t="shared" si="4"/>
         <v>81</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <f t="shared" si="4"/>
         <v>82</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <f t="shared" si="4"/>
         <v>83</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <f t="shared" si="4"/>
         <v>84</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <f t="shared" si="4"/>
         <v>85</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <f t="shared" si="4"/>
         <v>86</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <f t="shared" si="4"/>
         <v>87</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="4">
         <f t="shared" si="4"/>
         <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <f t="shared" si="3"/>
         <v>89</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <f t="shared" ref="C11:L11" si="5">B11+1</f>
         <v>90</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <f t="shared" si="5"/>
         <v>91</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <f t="shared" si="5"/>
         <v>92</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <f t="shared" si="5"/>
         <v>93</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <f t="shared" si="5"/>
         <v>94</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <f t="shared" si="5"/>
         <v>95</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <f t="shared" si="5"/>
         <v>96</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <f t="shared" si="5"/>
         <v>97</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <f t="shared" si="5"/>
         <v>98</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="4">
         <f t="shared" si="5"/>
         <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <f t="shared" ref="C12:L13" si="6">B12+1</f>
         <v>101</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <f t="shared" si="6"/>
         <v>102</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <f t="shared" si="6"/>
         <v>103</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <f t="shared" si="6"/>
         <v>104</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <f t="shared" si="6"/>
         <v>105</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <f t="shared" si="6"/>
         <v>106</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <f t="shared" si="6"/>
         <v>107</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <f t="shared" si="6"/>
         <v>108</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <f t="shared" si="6"/>
         <v>109</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="4">
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <f t="shared" ref="B13" si="7">L12+1</f>
         <v>111</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <f t="shared" si="6"/>
         <v>112</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <f t="shared" si="6"/>
         <v>113</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <f t="shared" si="6"/>
         <v>114</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <f t="shared" si="6"/>
         <v>115</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <f t="shared" si="6"/>
         <v>116</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <f t="shared" si="6"/>
         <v>117</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <f t="shared" si="6"/>
         <v>118</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <f t="shared" si="6"/>
         <v>119</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="4">
         <f t="shared" si="6"/>
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="2"/>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <f>L13+1</f>
         <v>122</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <f t="shared" ref="C15:L15" si="8">B15+1</f>
         <v>123</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <f t="shared" si="8"/>
         <v>124</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <f t="shared" si="8"/>
         <v>125</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <f t="shared" si="8"/>
         <v>126</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <f t="shared" si="8"/>
         <v>127</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <f t="shared" si="8"/>
         <v>128</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <f t="shared" si="8"/>
         <v>129</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <f t="shared" si="8"/>
         <v>130</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <f t="shared" si="8"/>
         <v>131</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="4">
         <f t="shared" si="8"/>
         <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <f>L15+1</f>
         <v>133</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <f t="shared" ref="C16:L16" si="9">B16+1</f>
         <v>134</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <f t="shared" si="9"/>
         <v>135</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <f t="shared" si="9"/>
         <v>136</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <f t="shared" si="9"/>
         <v>137</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <f t="shared" si="9"/>
         <v>138</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <f t="shared" si="9"/>
         <v>139</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <f t="shared" si="9"/>
         <v>140</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <f t="shared" si="9"/>
         <v>141</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <f t="shared" si="9"/>
         <v>142</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="4">
         <f t="shared" si="9"/>
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:12" ht="30">
+      <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <f>L16+1</f>
         <v>144</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <f t="shared" ref="C17:L17" si="10">B17+1</f>
         <v>145</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <f t="shared" si="10"/>
         <v>146</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <f t="shared" si="10"/>
         <v>147</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <f t="shared" si="10"/>
         <v>148</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <f t="shared" si="10"/>
         <v>149</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <f t="shared" si="10"/>
         <v>150</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <f t="shared" si="10"/>
         <v>151</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <f t="shared" si="10"/>
         <v>152</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <f t="shared" si="10"/>
         <v>153</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="4">
         <f t="shared" si="10"/>
         <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <f>L17+1</f>
         <v>155</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <f t="shared" ref="C18:L18" si="11">B18+1</f>
         <v>156</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <f t="shared" si="11"/>
         <v>157</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <f t="shared" si="11"/>
         <v>158</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <f t="shared" si="11"/>
         <v>159</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <f t="shared" si="11"/>
         <v>160</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <f t="shared" si="11"/>
         <v>161</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <f t="shared" si="11"/>
         <v>162</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <f t="shared" si="11"/>
         <v>163</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <f t="shared" si="11"/>
         <v>164</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="4">
         <f t="shared" si="11"/>
         <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <f>L18+1</f>
         <v>166</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <f t="shared" ref="C19:L19" si="12">B19+1</f>
         <v>167</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <f t="shared" si="12"/>
         <v>168</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <f t="shared" si="12"/>
         <v>169</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <f t="shared" si="12"/>
         <v>170</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <f t="shared" si="12"/>
         <v>171</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <f t="shared" si="12"/>
         <v>172</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="4">
         <f t="shared" si="12"/>
         <v>173</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="3">
         <f t="shared" si="12"/>
         <v>174</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="3">
         <f t="shared" si="12"/>
         <v>175</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="4">
         <f t="shared" si="12"/>
         <v>176</v>
       </c>
@@ -2033,12 +1431,11 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2050,1667 +1447,1667 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.4222222222222" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>2</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>3</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>4</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>5</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>6</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>7</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>8</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
         <v>9</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <v>10</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="4">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <f>L2+1</f>
         <v>12</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <f t="shared" ref="C3:L3" si="0">B3+1</f>
         <v>13</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <f t="shared" ref="B4:B8" si="1">L3+1</f>
         <v>23</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <f t="shared" ref="C4:L4" si="2">B4+1</f>
         <v>24</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <f t="shared" ref="C5:L5" si="3">B5+1</f>
         <v>35</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <f t="shared" ref="C6:L6" si="4">B6+1</f>
         <v>46</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <f t="shared" si="4"/>
         <v>47</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <f t="shared" si="4"/>
         <v>49</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <f t="shared" si="4"/>
         <v>51</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <f t="shared" si="4"/>
         <v>53</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <f t="shared" ref="C7:L7" si="5">B7+1</f>
         <v>57</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <f t="shared" si="5"/>
         <v>58</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="4">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <f t="shared" ref="C8:L8" si="6">B8+1</f>
         <v>68</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <f t="shared" si="6"/>
         <v>69</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <f t="shared" si="6"/>
         <v>70</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <f t="shared" si="6"/>
         <v>71</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <f t="shared" si="6"/>
         <v>72</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <f t="shared" si="6"/>
         <v>73</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <f t="shared" si="6"/>
         <v>74</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <f t="shared" si="6"/>
         <v>75</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <f t="shared" si="6"/>
         <v>76</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="4">
         <f t="shared" si="6"/>
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="5"/>
+    <row r="9" spans="1:12">
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <f>L8+1</f>
         <v>78</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <f t="shared" ref="C10:L10" si="7">B10+1</f>
         <v>79</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <f t="shared" si="7"/>
         <v>80</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <f t="shared" si="7"/>
         <v>81</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <f t="shared" si="7"/>
         <v>82</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <f t="shared" si="7"/>
         <v>83</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <f t="shared" si="7"/>
         <v>84</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <f t="shared" si="7"/>
         <v>85</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <f t="shared" si="7"/>
         <v>86</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <f t="shared" si="7"/>
         <v>87</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="4">
         <f t="shared" si="7"/>
         <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <f t="shared" ref="B11:B20" si="8">L10+1</f>
         <v>89</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <f t="shared" ref="C11:L11" si="9">B11+1</f>
         <v>90</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <f t="shared" si="9"/>
         <v>91</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <f t="shared" si="9"/>
         <v>92</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <f t="shared" si="9"/>
         <v>93</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <f t="shared" si="9"/>
         <v>94</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <f t="shared" si="9"/>
         <v>95</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <f t="shared" si="9"/>
         <v>96</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <f t="shared" si="9"/>
         <v>97</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <f t="shared" si="9"/>
         <v>98</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="4">
         <f t="shared" si="9"/>
         <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <f t="shared" ref="C12:L12" si="10">B12+1</f>
         <v>101</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <f t="shared" si="10"/>
         <v>102</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <f t="shared" si="10"/>
         <v>103</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <f t="shared" si="10"/>
         <v>104</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <f t="shared" si="10"/>
         <v>105</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <f t="shared" si="10"/>
         <v>106</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <f t="shared" si="10"/>
         <v>107</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <f t="shared" si="10"/>
         <v>108</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <f t="shared" si="10"/>
         <v>109</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="4">
         <f t="shared" si="10"/>
         <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <f t="shared" si="8"/>
         <v>111</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <f t="shared" ref="C13:L13" si="11">B13+1</f>
         <v>112</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <f t="shared" si="11"/>
         <v>113</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <f t="shared" si="11"/>
         <v>114</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <f t="shared" si="11"/>
         <v>115</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <f t="shared" si="11"/>
         <v>116</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <f t="shared" si="11"/>
         <v>117</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <f t="shared" si="11"/>
         <v>118</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <f t="shared" si="11"/>
         <v>119</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <f t="shared" si="11"/>
         <v>120</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="4">
         <f t="shared" si="11"/>
         <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <f t="shared" si="8"/>
         <v>122</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <f t="shared" ref="C14:L14" si="12">B14+1</f>
         <v>123</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <f t="shared" si="12"/>
         <v>124</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <f t="shared" si="12"/>
         <v>125</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <f t="shared" si="12"/>
         <v>126</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <f t="shared" si="12"/>
         <v>127</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <f t="shared" si="12"/>
         <v>128</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <f t="shared" si="12"/>
         <v>129</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <f t="shared" si="12"/>
         <v>130</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <f t="shared" si="12"/>
         <v>131</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="4">
         <f t="shared" si="12"/>
         <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <f t="shared" si="8"/>
         <v>133</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <f t="shared" ref="C15:L15" si="13">B15+1</f>
         <v>134</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <f t="shared" si="13"/>
         <v>135</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <f t="shared" si="13"/>
         <v>136</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <f t="shared" si="13"/>
         <v>137</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <f t="shared" si="13"/>
         <v>138</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <f t="shared" si="13"/>
         <v>139</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <f t="shared" si="13"/>
         <v>140</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <f t="shared" si="13"/>
         <v>141</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <f t="shared" si="13"/>
         <v>142</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="4">
         <f t="shared" si="13"/>
         <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <f t="shared" si="8"/>
         <v>144</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <f t="shared" ref="C16:C20" si="14">B16+1</f>
         <v>145</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <f t="shared" ref="D16:D20" si="15">C16+1</f>
         <v>146</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <f t="shared" ref="E16:E20" si="16">D16+1</f>
         <v>147</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <f t="shared" ref="F16:F20" si="17">E16+1</f>
         <v>148</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <f t="shared" ref="G16:G20" si="18">F16+1</f>
         <v>149</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <f t="shared" ref="H16:H20" si="19">G16+1</f>
         <v>150</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <f t="shared" ref="I16:I20" si="20">H16+1</f>
         <v>151</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <f t="shared" ref="J16:J20" si="21">I16+1</f>
         <v>152</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <f t="shared" ref="K16:K20" si="22">J16+1</f>
         <v>153</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="4">
         <f t="shared" ref="L16:L20" si="23">K16+1</f>
         <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <f t="shared" si="8"/>
         <v>155</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <f t="shared" si="14"/>
         <v>156</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <f t="shared" si="15"/>
         <v>157</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <f t="shared" si="16"/>
         <v>158</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <f t="shared" si="17"/>
         <v>159</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <f t="shared" si="18"/>
         <v>160</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <f t="shared" si="19"/>
         <v>161</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <f t="shared" si="20"/>
         <v>162</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <f t="shared" si="21"/>
         <v>163</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <f t="shared" si="22"/>
         <v>164</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="4">
         <f t="shared" si="23"/>
         <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <f t="shared" si="8"/>
         <v>166</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <f t="shared" si="14"/>
         <v>167</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <f t="shared" si="15"/>
         <v>168</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <f t="shared" si="16"/>
         <v>169</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <f t="shared" si="17"/>
         <v>170</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <f t="shared" si="18"/>
         <v>171</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <f t="shared" si="19"/>
         <v>172</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <f t="shared" si="20"/>
         <v>173</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <f t="shared" si="21"/>
         <v>174</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <f t="shared" si="22"/>
         <v>175</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="4">
         <f t="shared" si="23"/>
         <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <f t="shared" si="8"/>
         <v>177</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <f t="shared" si="14"/>
         <v>178</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <f t="shared" si="15"/>
         <v>179</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <f t="shared" si="16"/>
         <v>180</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <f t="shared" si="17"/>
         <v>181</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <f t="shared" si="18"/>
         <v>182</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <f t="shared" si="19"/>
         <v>183</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="4">
         <f t="shared" si="20"/>
         <v>184</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="3">
         <f t="shared" si="21"/>
         <v>185</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="3">
         <f t="shared" si="22"/>
         <v>186</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="4">
         <f t="shared" si="23"/>
         <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <f t="shared" si="8"/>
         <v>188</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <f t="shared" si="14"/>
         <v>189</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <f t="shared" si="15"/>
         <v>190</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <f t="shared" si="16"/>
         <v>191</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <f t="shared" si="17"/>
         <v>192</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <f t="shared" si="18"/>
         <v>193</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <f t="shared" si="19"/>
         <v>194</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="4">
         <f t="shared" si="20"/>
         <v>195</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="3">
         <f t="shared" si="21"/>
         <v>196</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="3">
         <f t="shared" si="22"/>
         <v>197</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="4">
         <f t="shared" si="23"/>
         <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>1</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>2</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>3</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>4</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>5</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>6</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>7</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="4">
         <v>8</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="3">
         <v>9</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="3">
         <v>10</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="4">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <f t="shared" ref="B22:B35" si="24">L21+1</f>
         <v>12</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <f t="shared" ref="C22:L22" si="25">B22+1</f>
         <v>13</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <f t="shared" si="25"/>
         <v>14</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <f t="shared" si="25"/>
         <v>15</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <f t="shared" si="25"/>
         <v>16</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <f t="shared" si="25"/>
         <v>17</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <f t="shared" si="25"/>
         <v>18</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="4">
         <f t="shared" si="25"/>
         <v>19</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="3">
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="3">
         <f t="shared" si="25"/>
         <v>21</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="4">
         <f t="shared" si="25"/>
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <f t="shared" si="24"/>
         <v>23</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <f t="shared" ref="C23:L23" si="26">B23+1</f>
         <v>24</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <f t="shared" si="26"/>
         <v>25</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <f t="shared" si="26"/>
         <v>26</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <f t="shared" si="26"/>
         <v>27</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <f t="shared" si="26"/>
         <v>28</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <f t="shared" si="26"/>
         <v>29</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="4">
         <f t="shared" si="26"/>
         <v>30</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="3">
         <f t="shared" si="26"/>
         <v>31</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="3">
         <f t="shared" si="26"/>
         <v>32</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="4">
         <f t="shared" si="26"/>
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="5"/>
+    <row r="24" spans="1:12">
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="4"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <f>L23+1</f>
         <v>34</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <f t="shared" ref="C25:L25" si="27">B25+1</f>
         <v>35</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <f t="shared" si="27"/>
         <v>36</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <f t="shared" si="27"/>
         <v>37</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <f t="shared" si="27"/>
         <v>38</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="3">
         <f t="shared" si="27"/>
         <v>39</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="3">
         <f t="shared" si="27"/>
         <v>40</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="4">
         <f t="shared" si="27"/>
         <v>41</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="3">
         <f t="shared" si="27"/>
         <v>42</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="3">
         <f t="shared" si="27"/>
         <v>43</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="4">
         <f t="shared" si="27"/>
         <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <f t="shared" si="24"/>
         <v>45</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <f t="shared" ref="C26:L26" si="28">B26+1</f>
         <v>46</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <f t="shared" si="28"/>
         <v>47</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <f t="shared" si="28"/>
         <v>48</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <f t="shared" si="28"/>
         <v>49</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="3">
         <f t="shared" si="28"/>
         <v>50</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="3">
         <f t="shared" si="28"/>
         <v>51</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="4">
         <f t="shared" si="28"/>
         <v>52</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="3">
         <f t="shared" si="28"/>
         <v>53</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="3">
         <f t="shared" si="28"/>
         <v>54</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L26" s="4">
         <f t="shared" si="28"/>
         <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <f t="shared" si="24"/>
         <v>56</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <f t="shared" ref="C27:L27" si="29">B27+1</f>
         <v>57</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <f t="shared" si="29"/>
         <v>58</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <f t="shared" si="29"/>
         <v>59</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <f t="shared" si="29"/>
         <v>60</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="3">
         <f t="shared" si="29"/>
         <v>61</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="3">
         <f t="shared" si="29"/>
         <v>62</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="4">
         <f t="shared" si="29"/>
         <v>63</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="3">
         <f t="shared" si="29"/>
         <v>64</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="3">
         <f t="shared" si="29"/>
         <v>65</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27" s="4">
         <f t="shared" si="29"/>
         <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <f t="shared" si="24"/>
         <v>67</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <f t="shared" ref="C28:C35" si="30">B28+1</f>
         <v>68</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <f t="shared" ref="D28:D35" si="31">C28+1</f>
         <v>69</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <f t="shared" ref="E28:E35" si="32">D28+1</f>
         <v>70</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="3">
         <f t="shared" ref="F28:F35" si="33">E28+1</f>
         <v>71</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="3">
         <f t="shared" ref="G28:G35" si="34">F28+1</f>
         <v>72</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="3">
         <f t="shared" ref="H28:H35" si="35">G28+1</f>
         <v>73</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="4">
         <f t="shared" ref="I28:I35" si="36">H28+1</f>
         <v>74</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="3">
         <f t="shared" ref="J28:J35" si="37">I28+1</f>
         <v>75</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="3">
         <f t="shared" ref="K28:K35" si="38">J28+1</f>
         <v>76</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L28" s="4">
         <f t="shared" ref="L28:L35" si="39">K28+1</f>
         <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <f t="shared" si="24"/>
         <v>78</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <f t="shared" si="30"/>
         <v>79</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <f t="shared" si="31"/>
         <v>80</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <f t="shared" si="32"/>
         <v>81</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="3">
         <f t="shared" si="33"/>
         <v>82</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="3">
         <f t="shared" si="34"/>
         <v>83</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="3">
         <f t="shared" si="35"/>
         <v>84</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="4">
         <f t="shared" si="36"/>
         <v>85</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="3">
         <f t="shared" si="37"/>
         <v>86</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="3">
         <f t="shared" si="38"/>
         <v>87</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29" s="4">
         <f t="shared" si="39"/>
         <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <f t="shared" si="24"/>
         <v>89</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <f t="shared" si="30"/>
         <v>90</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <f t="shared" si="31"/>
         <v>91</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <f t="shared" si="32"/>
         <v>92</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="3">
         <f t="shared" si="33"/>
         <v>93</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="3">
         <f t="shared" si="34"/>
         <v>94</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="3">
         <f t="shared" si="35"/>
         <v>95</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30" s="4">
         <f t="shared" si="36"/>
         <v>96</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="3">
         <f t="shared" si="37"/>
         <v>97</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="3">
         <f t="shared" si="38"/>
         <v>98</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="4">
         <f t="shared" si="39"/>
         <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <f t="shared" si="24"/>
         <v>100</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <f t="shared" si="30"/>
         <v>101</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <f t="shared" si="31"/>
         <v>102</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <f t="shared" si="32"/>
         <v>103</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="3">
         <f t="shared" si="33"/>
         <v>104</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="3">
         <f t="shared" si="34"/>
         <v>105</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="3">
         <f t="shared" si="35"/>
         <v>106</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="4">
         <f t="shared" si="36"/>
         <v>107</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="3">
         <f t="shared" si="37"/>
         <v>108</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="3">
         <f t="shared" si="38"/>
         <v>109</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31" s="4">
         <f t="shared" si="39"/>
         <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <f t="shared" si="24"/>
         <v>111</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <f t="shared" si="30"/>
         <v>112</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <f t="shared" si="31"/>
         <v>113</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <f t="shared" si="32"/>
         <v>114</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="3">
         <f t="shared" si="33"/>
         <v>115</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="3">
         <f t="shared" si="34"/>
         <v>116</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="3">
         <f t="shared" si="35"/>
         <v>117</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="4">
         <f t="shared" si="36"/>
         <v>118</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="3">
         <f t="shared" si="37"/>
         <v>119</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="3">
         <f t="shared" si="38"/>
         <v>120</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L32" s="4">
         <f t="shared" si="39"/>
         <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <f t="shared" si="24"/>
         <v>122</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <f t="shared" si="30"/>
         <v>123</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <f t="shared" si="31"/>
         <v>124</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <f t="shared" si="32"/>
         <v>125</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="3">
         <f t="shared" si="33"/>
         <v>126</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="3">
         <f t="shared" si="34"/>
         <v>127</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="3">
         <f t="shared" si="35"/>
         <v>128</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="4">
         <f t="shared" si="36"/>
         <v>129</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="3">
         <f t="shared" si="37"/>
         <v>130</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="3">
         <f t="shared" si="38"/>
         <v>131</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L33" s="4">
         <f t="shared" si="39"/>
         <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <f t="shared" si="24"/>
         <v>133</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <f t="shared" si="30"/>
         <v>134</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <f t="shared" si="31"/>
         <v>135</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <f t="shared" si="32"/>
         <v>136</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="3">
         <f t="shared" si="33"/>
         <v>137</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="3">
         <f t="shared" si="34"/>
         <v>138</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="3">
         <f t="shared" si="35"/>
         <v>139</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34" s="4">
         <f t="shared" si="36"/>
         <v>140</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34" s="3">
         <f t="shared" si="37"/>
         <v>141</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="3">
         <f t="shared" si="38"/>
         <v>142</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L34" s="4">
         <f t="shared" si="39"/>
         <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <f t="shared" si="24"/>
         <v>144</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <f t="shared" si="30"/>
         <v>145</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <f t="shared" si="31"/>
         <v>146</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <f t="shared" si="32"/>
         <v>147</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="3">
         <f t="shared" si="33"/>
         <v>148</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="3">
         <f t="shared" si="34"/>
         <v>149</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="3">
         <f t="shared" si="35"/>
         <v>150</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="4">
         <f t="shared" si="36"/>
         <v>151</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35" s="3">
         <f t="shared" si="37"/>
         <v>152</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="3">
         <f t="shared" si="38"/>
         <v>153</v>
       </c>
-      <c r="L35" s="5">
+      <c r="L35" s="4">
         <f t="shared" si="39"/>
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="2:12">
-      <c r="B36" s="3"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="5"/>
-    </row>
-    <row r="37" spans="2:12">
-      <c r="B37" s="3"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="5"/>
-    </row>
-    <row r="38" spans="2:12">
-      <c r="B38" s="3"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="5"/>
-    </row>
-    <row r="39" spans="2:12">
-      <c r="B39" s="3"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="5"/>
-    </row>
-    <row r="40" spans="2:12">
-      <c r="B40" s="3"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="5"/>
+    <row r="36" spans="1:12">
+      <c r="B36" s="2"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="B37" s="2"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="B38" s="2"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="B39" s="2"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="4"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="B40" s="2"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3720,823 +3117,819 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="landscape"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.3333333333333" customWidth="1"/>
-    <col min="2" max="12" width="6.47407407407407" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>2</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>3</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>4</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>5</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>6</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>7</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>8</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
         <v>9</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <v>10</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="4">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>12</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <f t="shared" ref="C3:L3" si="0">B3+1</f>
         <v>13</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <f t="shared" ref="B4:B13" si="1">L3+1</f>
         <v>23</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <f t="shared" ref="C4:L4" si="2">B4+1</f>
         <v>24</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <f t="shared" ref="C5:L5" si="3">B5+1</f>
         <v>35</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="9"/>
-    </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <f>L5+1</f>
         <v>45</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <f t="shared" ref="C7:L7" si="4">B7+1</f>
         <v>46</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <f t="shared" si="4"/>
         <v>47</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <f t="shared" si="4"/>
         <v>49</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <f t="shared" si="4"/>
         <v>51</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <f t="shared" si="4"/>
         <v>53</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="4">
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <f t="shared" ref="C8:L8" si="5">B8+1</f>
         <v>57</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <f t="shared" si="5"/>
         <v>58</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="4">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <f t="shared" ref="C9:L9" si="6">B9+1</f>
         <v>68</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <f t="shared" si="6"/>
         <v>69</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <f t="shared" si="6"/>
         <v>70</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <f t="shared" si="6"/>
         <v>71</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <f t="shared" si="6"/>
         <v>72</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <f t="shared" si="6"/>
         <v>73</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <f t="shared" si="6"/>
         <v>74</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <f t="shared" si="6"/>
         <v>75</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <f t="shared" si="6"/>
         <v>76</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="4">
         <f t="shared" si="6"/>
         <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <f t="shared" ref="C10:L10" si="7">B10+1</f>
         <v>79</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <f t="shared" si="7"/>
         <v>80</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <f t="shared" si="7"/>
         <v>81</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <f t="shared" si="7"/>
         <v>82</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <f t="shared" si="7"/>
         <v>83</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <f t="shared" si="7"/>
         <v>84</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <f t="shared" si="7"/>
         <v>85</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <f t="shared" si="7"/>
         <v>86</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <f t="shared" si="7"/>
         <v>87</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="4">
         <f t="shared" si="7"/>
         <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <f t="shared" ref="C11:L11" si="8">B11+1</f>
         <v>90</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <f t="shared" si="8"/>
         <v>91</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <f t="shared" si="8"/>
         <v>92</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <f t="shared" si="8"/>
         <v>93</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <f t="shared" si="8"/>
         <v>94</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <f t="shared" si="8"/>
         <v>95</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <f t="shared" si="8"/>
         <v>96</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <f t="shared" si="8"/>
         <v>97</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <f t="shared" si="8"/>
         <v>98</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="4">
         <f t="shared" si="8"/>
         <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <f t="shared" ref="C12:L12" si="9">B12+1</f>
         <v>101</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <f t="shared" si="9"/>
         <v>102</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <f t="shared" si="9"/>
         <v>103</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <f t="shared" si="9"/>
         <v>104</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <f t="shared" si="9"/>
         <v>105</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <f t="shared" si="9"/>
         <v>106</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <f t="shared" si="9"/>
         <v>107</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <f t="shared" si="9"/>
         <v>108</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <f t="shared" si="9"/>
         <v>109</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="4">
         <f t="shared" si="9"/>
         <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <f t="shared" ref="C13:L13" si="10">B13+1</f>
         <v>112</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <f t="shared" si="10"/>
         <v>113</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <f t="shared" si="10"/>
         <v>114</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <f t="shared" si="10"/>
         <v>115</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <f t="shared" si="10"/>
         <v>116</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <f t="shared" si="10"/>
         <v>117</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <f t="shared" si="10"/>
         <v>118</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <f t="shared" si="10"/>
         <v>119</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <f t="shared" si="10"/>
         <v>120</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="4">
         <f t="shared" si="10"/>
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="2"/>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <f>L13+1</f>
         <v>122</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <f t="shared" ref="C15:L15" si="11">B15+1</f>
         <v>123</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <f t="shared" si="11"/>
         <v>124</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <f t="shared" si="11"/>
         <v>125</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <f t="shared" si="11"/>
         <v>126</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <f t="shared" si="11"/>
         <v>127</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <f t="shared" si="11"/>
         <v>128</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <f t="shared" si="11"/>
         <v>129</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <f t="shared" si="11"/>
         <v>130</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <f t="shared" si="11"/>
         <v>131</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="4">
         <f t="shared" si="11"/>
         <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <f t="shared" ref="B16:B19" si="12">L15+1</f>
         <v>133</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <f t="shared" ref="C16:L16" si="13">B16+1</f>
         <v>134</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <f t="shared" si="13"/>
         <v>135</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <f t="shared" si="13"/>
         <v>136</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <f t="shared" si="13"/>
         <v>137</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <f t="shared" si="13"/>
         <v>138</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <f t="shared" si="13"/>
         <v>139</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <f t="shared" si="13"/>
         <v>140</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <f t="shared" si="13"/>
         <v>141</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <f t="shared" si="13"/>
         <v>142</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="4">
         <f t="shared" si="13"/>
         <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <f t="shared" si="12"/>
         <v>144</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <f t="shared" ref="C17:L17" si="14">B17+1</f>
         <v>145</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <f t="shared" si="14"/>
         <v>146</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <f t="shared" si="14"/>
         <v>147</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <f t="shared" si="14"/>
         <v>148</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <f t="shared" si="14"/>
         <v>149</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <f t="shared" si="14"/>
         <v>150</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <f t="shared" si="14"/>
         <v>151</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <f t="shared" si="14"/>
         <v>152</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <f t="shared" si="14"/>
         <v>153</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="4">
         <f t="shared" si="14"/>
         <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <f t="shared" si="12"/>
         <v>155</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <f t="shared" ref="C18:L18" si="15">B18+1</f>
         <v>156</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <f t="shared" si="15"/>
         <v>157</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <f t="shared" si="15"/>
         <v>158</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <f t="shared" si="15"/>
         <v>159</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <f t="shared" si="15"/>
         <v>160</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <f t="shared" si="15"/>
         <v>161</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <f t="shared" si="15"/>
         <v>162</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <f t="shared" si="15"/>
         <v>163</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <f t="shared" si="15"/>
         <v>164</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="4">
         <f t="shared" si="15"/>
         <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <f t="shared" si="12"/>
         <v>166</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <f t="shared" ref="C19:L19" si="16">B19+1</f>
         <v>167</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <f t="shared" si="16"/>
         <v>168</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <f t="shared" si="16"/>
         <v>169</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <f t="shared" si="16"/>
         <v>170</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <f t="shared" si="16"/>
         <v>171</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <f t="shared" si="16"/>
         <v>172</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="4">
         <f t="shared" si="16"/>
         <v>173</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="3">
         <f t="shared" si="16"/>
         <v>174</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="3">
         <f t="shared" si="16"/>
         <v>175</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="4">
         <f t="shared" si="16"/>
         <v>176</v>
       </c>
@@ -4547,1618 +3940,1619 @@
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="J1:L1"/>
   </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:L35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.4222222222222" customWidth="1"/>
+    <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>2</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>3</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>4</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>5</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>6</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>7</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>8</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
         <v>9</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <v>10</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="4">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <f t="shared" ref="B3:B8" si="0">L2+1</f>
         <v>12</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <f t="shared" ref="C3:L3" si="1">B3+1</f>
         <v>13</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <f t="shared" ref="C4:L4" si="2">B4+1</f>
         <v>24</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <f t="shared" ref="C5:L5" si="3">B5+1</f>
         <v>35</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <f t="shared" ref="C6:L6" si="4">B6+1</f>
         <v>46</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <f t="shared" si="4"/>
         <v>47</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <f t="shared" si="4"/>
         <v>49</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <f t="shared" si="4"/>
         <v>51</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <f t="shared" si="4"/>
         <v>53</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <f t="shared" ref="C7:L7" si="5">B7+1</f>
         <v>57</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <f t="shared" si="5"/>
         <v>58</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="4">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <f t="shared" ref="C8:L8" si="6">B8+1</f>
         <v>68</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <f t="shared" si="6"/>
         <v>69</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <f t="shared" si="6"/>
         <v>70</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <f t="shared" si="6"/>
         <v>71</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <f t="shared" si="6"/>
         <v>72</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <f t="shared" si="6"/>
         <v>73</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <f t="shared" si="6"/>
         <v>74</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <f t="shared" si="6"/>
         <v>75</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <f t="shared" si="6"/>
         <v>76</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="4">
         <f t="shared" si="6"/>
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="5"/>
+    <row r="9" spans="1:12">
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <f>L8+1</f>
         <v>78</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <f t="shared" ref="C10:L10" si="7">B10+1</f>
         <v>79</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <f t="shared" si="7"/>
         <v>80</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <f t="shared" si="7"/>
         <v>81</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <f t="shared" si="7"/>
         <v>82</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <f t="shared" si="7"/>
         <v>83</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <f t="shared" si="7"/>
         <v>84</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <f t="shared" si="7"/>
         <v>85</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <f t="shared" si="7"/>
         <v>86</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <f t="shared" si="7"/>
         <v>87</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="4">
         <f t="shared" si="7"/>
         <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="3">
-        <f t="shared" ref="B11:B20" si="8">L10+1</f>
+      <c r="B11" s="2">
+        <f t="shared" ref="B11:B18" si="8">L10+1</f>
         <v>89</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <f t="shared" ref="C11:L11" si="9">B11+1</f>
         <v>90</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <f t="shared" si="9"/>
         <v>91</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <f t="shared" si="9"/>
         <v>92</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <f t="shared" si="9"/>
         <v>93</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <f t="shared" si="9"/>
         <v>94</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <f t="shared" si="9"/>
         <v>95</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <f t="shared" si="9"/>
         <v>96</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <f t="shared" si="9"/>
         <v>97</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <f t="shared" si="9"/>
         <v>98</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="4">
         <f t="shared" si="9"/>
         <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <f t="shared" ref="C12:L12" si="10">B12+1</f>
         <v>101</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <f t="shared" si="10"/>
         <v>102</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <f t="shared" si="10"/>
         <v>103</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <f t="shared" si="10"/>
         <v>104</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <f t="shared" si="10"/>
         <v>105</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <f t="shared" si="10"/>
         <v>106</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <f t="shared" si="10"/>
         <v>107</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <f t="shared" si="10"/>
         <v>108</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <f t="shared" si="10"/>
         <v>109</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="4">
         <f t="shared" si="10"/>
         <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <f t="shared" si="8"/>
         <v>111</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <f t="shared" ref="C13:L13" si="11">B13+1</f>
         <v>112</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <f t="shared" si="11"/>
         <v>113</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <f t="shared" si="11"/>
         <v>114</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <f t="shared" si="11"/>
         <v>115</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <f t="shared" si="11"/>
         <v>116</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <f t="shared" si="11"/>
         <v>117</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <f t="shared" si="11"/>
         <v>118</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <f t="shared" si="11"/>
         <v>119</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <f t="shared" si="11"/>
         <v>120</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="4">
         <f t="shared" si="11"/>
         <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <f t="shared" si="8"/>
         <v>122</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <f t="shared" ref="C14:L14" si="12">B14+1</f>
         <v>123</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <f t="shared" si="12"/>
         <v>124</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <f t="shared" si="12"/>
         <v>125</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <f t="shared" si="12"/>
         <v>126</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <f t="shared" si="12"/>
         <v>127</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <f t="shared" si="12"/>
         <v>128</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <f t="shared" si="12"/>
         <v>129</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <f t="shared" si="12"/>
         <v>130</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <f t="shared" si="12"/>
         <v>131</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="4">
         <f t="shared" si="12"/>
         <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <f t="shared" si="8"/>
         <v>133</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <f t="shared" ref="C15:L15" si="13">B15+1</f>
         <v>134</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <f t="shared" si="13"/>
         <v>135</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <f t="shared" si="13"/>
         <v>136</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <f t="shared" si="13"/>
         <v>137</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <f t="shared" si="13"/>
         <v>138</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <f t="shared" si="13"/>
         <v>139</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <f t="shared" si="13"/>
         <v>140</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <f t="shared" si="13"/>
         <v>141</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <f t="shared" si="13"/>
         <v>142</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="4">
         <f t="shared" si="13"/>
         <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <f t="shared" si="8"/>
         <v>144</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <f t="shared" ref="C16:L16" si="14">B16+1</f>
         <v>145</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <f t="shared" si="14"/>
         <v>146</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <f t="shared" si="14"/>
         <v>147</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <f t="shared" si="14"/>
         <v>148</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <f t="shared" si="14"/>
         <v>149</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <f t="shared" si="14"/>
         <v>150</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <f t="shared" si="14"/>
         <v>151</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <f t="shared" si="14"/>
         <v>152</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <f t="shared" si="14"/>
         <v>153</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="4">
         <f t="shared" si="14"/>
         <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <f t="shared" si="8"/>
         <v>155</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <f t="shared" ref="C17:L17" si="15">B17+1</f>
         <v>156</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <f t="shared" si="15"/>
         <v>157</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <f t="shared" si="15"/>
         <v>158</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <f t="shared" si="15"/>
         <v>159</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <f t="shared" si="15"/>
         <v>160</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <f t="shared" si="15"/>
         <v>161</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <f t="shared" si="15"/>
         <v>162</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <f t="shared" si="15"/>
         <v>163</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <f t="shared" si="15"/>
         <v>164</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="4">
         <f t="shared" si="15"/>
         <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <f t="shared" si="8"/>
         <v>166</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <f t="shared" ref="C18:L18" si="16">B18+1</f>
         <v>167</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <f t="shared" si="16"/>
         <v>168</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <f t="shared" si="16"/>
         <v>169</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <f t="shared" si="16"/>
         <v>170</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <f t="shared" si="16"/>
         <v>171</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <f t="shared" si="16"/>
         <v>172</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <f t="shared" si="16"/>
         <v>173</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <f t="shared" si="16"/>
         <v>174</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <f t="shared" si="16"/>
         <v>175</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="4">
         <f t="shared" si="16"/>
         <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>1</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>2</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>3</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>4</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>5</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <v>6</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <v>7</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="4">
         <v>8</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="3">
         <v>9</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="3">
         <v>10</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="4">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <f t="shared" ref="B20:B23" si="17">L19+1</f>
         <v>12</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <f t="shared" ref="C20:L20" si="18">B20+1</f>
         <v>13</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <f t="shared" si="18"/>
         <v>14</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <f t="shared" si="18"/>
         <v>15</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <f t="shared" si="18"/>
         <v>16</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <f t="shared" si="18"/>
         <v>17</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <f t="shared" si="18"/>
         <v>18</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="4">
         <f t="shared" si="18"/>
         <v>19</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="3">
         <f t="shared" si="18"/>
         <v>20</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="3">
         <f t="shared" si="18"/>
         <v>21</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="4">
         <f t="shared" si="18"/>
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <f t="shared" si="17"/>
         <v>23</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <f t="shared" ref="C21:L21" si="19">B21+1</f>
         <v>24</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <f t="shared" si="19"/>
         <v>25</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <f t="shared" si="19"/>
         <v>26</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <f t="shared" si="19"/>
         <v>27</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <f t="shared" si="19"/>
         <v>28</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <f t="shared" si="19"/>
         <v>29</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="4">
         <f t="shared" si="19"/>
         <v>30</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="3">
         <f t="shared" si="19"/>
         <v>31</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="3">
         <f t="shared" si="19"/>
         <v>32</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="4">
         <f t="shared" si="19"/>
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <f t="shared" si="17"/>
         <v>34</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <f t="shared" ref="C22:L22" si="20">B22+1</f>
         <v>35</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <f t="shared" si="20"/>
         <v>36</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <f t="shared" si="20"/>
         <v>37</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <f t="shared" si="20"/>
         <v>38</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <f t="shared" si="20"/>
         <v>39</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <f t="shared" si="20"/>
         <v>40</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="4">
         <f t="shared" si="20"/>
         <v>41</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="3">
         <f t="shared" si="20"/>
         <v>42</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="3">
         <f t="shared" si="20"/>
         <v>43</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="4">
         <f t="shared" si="20"/>
         <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <f t="shared" si="17"/>
         <v>45</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <f t="shared" ref="C23:L23" si="21">B23+1</f>
         <v>46</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <f t="shared" si="21"/>
         <v>47</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <f t="shared" si="21"/>
         <v>48</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <f t="shared" si="21"/>
         <v>49</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <f t="shared" si="21"/>
         <v>50</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <f t="shared" si="21"/>
         <v>51</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="4">
         <f t="shared" si="21"/>
         <v>52</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="3">
         <f t="shared" si="21"/>
         <v>53</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="3">
         <f t="shared" si="21"/>
         <v>54</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="4">
         <f t="shared" si="21"/>
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="5"/>
+    <row r="24" spans="1:12">
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="4"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <f>L23+1</f>
         <v>56</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <f t="shared" ref="C25:L25" si="22">B25+1</f>
         <v>57</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <f t="shared" si="22"/>
         <v>58</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <f t="shared" si="22"/>
         <v>59</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <f t="shared" si="22"/>
         <v>60</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="3">
         <f t="shared" si="22"/>
         <v>61</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="3">
         <f t="shared" si="22"/>
         <v>62</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="4">
         <f t="shared" si="22"/>
         <v>63</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="3">
         <f t="shared" si="22"/>
         <v>64</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="3">
         <f t="shared" si="22"/>
         <v>65</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="4">
         <f t="shared" si="22"/>
         <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <f t="shared" ref="B26:B35" si="23">L25+1</f>
         <v>67</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <f t="shared" ref="C26:L26" si="24">B26+1</f>
         <v>68</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <f t="shared" si="24"/>
         <v>69</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <f t="shared" si="24"/>
         <v>70</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <f t="shared" si="24"/>
         <v>71</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="3">
         <f t="shared" si="24"/>
         <v>72</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="3">
         <f t="shared" si="24"/>
         <v>73</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="4">
         <f t="shared" si="24"/>
         <v>74</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="3">
         <f t="shared" si="24"/>
         <v>75</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="3">
         <f t="shared" si="24"/>
         <v>76</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L26" s="4">
         <f t="shared" si="24"/>
         <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <f t="shared" si="23"/>
         <v>78</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <f t="shared" ref="C27:L27" si="25">B27+1</f>
         <v>79</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <f t="shared" si="25"/>
         <v>80</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <f t="shared" si="25"/>
         <v>81</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <f t="shared" si="25"/>
         <v>82</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="3">
         <f t="shared" si="25"/>
         <v>83</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="3">
         <f t="shared" si="25"/>
         <v>84</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="4">
         <f t="shared" si="25"/>
         <v>85</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="3">
         <f t="shared" si="25"/>
         <v>86</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="3">
         <f t="shared" si="25"/>
         <v>87</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27" s="4">
         <f t="shared" si="25"/>
         <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <f t="shared" si="23"/>
         <v>89</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <f t="shared" ref="C28:C35" si="26">B28+1</f>
         <v>90</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <f t="shared" ref="D28:D35" si="27">C28+1</f>
         <v>91</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <f t="shared" ref="E28:E35" si="28">D28+1</f>
         <v>92</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="3">
         <f t="shared" ref="F28:F35" si="29">E28+1</f>
         <v>93</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="3">
         <f t="shared" ref="G28:G35" si="30">F28+1</f>
         <v>94</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="3">
         <f t="shared" ref="H28:H35" si="31">G28+1</f>
         <v>95</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="4">
         <f t="shared" ref="I28:I35" si="32">H28+1</f>
         <v>96</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="3">
         <f t="shared" ref="J28:J35" si="33">I28+1</f>
         <v>97</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="3">
         <f t="shared" ref="K28:K35" si="34">J28+1</f>
         <v>98</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L28" s="4">
         <f t="shared" ref="L28:L35" si="35">K28+1</f>
         <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <f t="shared" si="23"/>
         <v>100</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <f t="shared" si="26"/>
         <v>101</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <f t="shared" si="27"/>
         <v>102</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <f t="shared" si="28"/>
         <v>103</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="3">
         <f t="shared" si="29"/>
         <v>104</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="3">
         <f t="shared" si="30"/>
         <v>105</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="3">
         <f t="shared" si="31"/>
         <v>106</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="4">
         <f t="shared" si="32"/>
         <v>107</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="3">
         <f t="shared" si="33"/>
         <v>108</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="3">
         <f t="shared" si="34"/>
         <v>109</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29" s="4">
         <f t="shared" si="35"/>
         <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <f t="shared" si="23"/>
         <v>111</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <f t="shared" si="26"/>
         <v>112</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <f t="shared" si="27"/>
         <v>113</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <f t="shared" si="28"/>
         <v>114</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="3">
         <f t="shared" si="29"/>
         <v>115</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="3">
         <f t="shared" si="30"/>
         <v>116</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="3">
         <f t="shared" si="31"/>
         <v>117</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30" s="4">
         <f t="shared" si="32"/>
         <v>118</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="3">
         <f t="shared" si="33"/>
         <v>119</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="3">
         <f t="shared" si="34"/>
         <v>120</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="4">
         <f t="shared" si="35"/>
         <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <f t="shared" si="23"/>
         <v>122</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <f t="shared" si="26"/>
         <v>123</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <f t="shared" si="27"/>
         <v>124</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <f t="shared" si="28"/>
         <v>125</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="3">
         <f t="shared" si="29"/>
         <v>126</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="3">
         <f t="shared" si="30"/>
         <v>127</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="3">
         <f t="shared" si="31"/>
         <v>128</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="4">
         <f t="shared" si="32"/>
         <v>129</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="3">
         <f t="shared" si="33"/>
         <v>130</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="3">
         <f t="shared" si="34"/>
         <v>131</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31" s="4">
         <f t="shared" si="35"/>
         <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <f t="shared" si="23"/>
         <v>133</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <f t="shared" si="26"/>
         <v>134</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <f t="shared" si="27"/>
         <v>135</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <f t="shared" si="28"/>
         <v>136</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="3">
         <f t="shared" si="29"/>
         <v>137</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="3">
         <f t="shared" si="30"/>
         <v>138</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="3">
         <f t="shared" si="31"/>
         <v>139</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="4">
         <f t="shared" si="32"/>
         <v>140</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="3">
         <f t="shared" si="33"/>
         <v>141</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="3">
         <f t="shared" si="34"/>
         <v>142</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L32" s="4">
         <f t="shared" si="35"/>
         <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <f t="shared" si="23"/>
         <v>144</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <f t="shared" si="26"/>
         <v>145</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <f t="shared" si="27"/>
         <v>146</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <f t="shared" si="28"/>
         <v>147</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="3">
         <f t="shared" si="29"/>
         <v>148</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="3">
         <f t="shared" si="30"/>
         <v>149</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="3">
         <f t="shared" si="31"/>
         <v>150</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="4">
         <f t="shared" si="32"/>
         <v>151</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="3">
         <f t="shared" si="33"/>
         <v>152</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="3">
         <f t="shared" si="34"/>
         <v>153</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L33" s="4">
         <f t="shared" si="35"/>
         <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <f t="shared" si="23"/>
         <v>155</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <f t="shared" si="26"/>
         <v>156</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <f t="shared" si="27"/>
         <v>157</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <f t="shared" si="28"/>
         <v>158</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="3">
         <f t="shared" si="29"/>
         <v>159</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="3">
         <f t="shared" si="30"/>
         <v>160</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="3">
         <f t="shared" si="31"/>
         <v>161</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34" s="4">
         <f t="shared" si="32"/>
         <v>162</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34" s="3">
         <f t="shared" si="33"/>
         <v>163</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="3">
         <f t="shared" si="34"/>
         <v>164</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L34" s="4">
         <f t="shared" si="35"/>
         <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <f t="shared" si="23"/>
         <v>166</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <f t="shared" si="26"/>
         <v>167</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <f t="shared" si="27"/>
         <v>168</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <f t="shared" si="28"/>
         <v>169</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="3">
         <f t="shared" si="29"/>
         <v>170</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="3">
         <f t="shared" si="30"/>
         <v>171</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="3">
         <f t="shared" si="31"/>
         <v>172</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="4">
         <f t="shared" si="32"/>
         <v>173</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35" s="3">
         <f t="shared" si="33"/>
         <v>174</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="3">
         <f t="shared" si="34"/>
         <v>175</v>
       </c>
-      <c r="L35" s="5">
+      <c r="L35" s="4">
         <f t="shared" si="35"/>
         <v>176</v>
       </c>
@@ -6169,8 +5563,8 @@
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="J1:L1"/>
   </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="95" orientation="landscape"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" scale="87" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/pembagian talaqqi bahasa santri 2024-2025.xlsx
+++ b/pembagian talaqqi bahasa santri 2024-2025.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zen\bahasa arab\kosakata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1F382D-058F-40B7-A42A-4BEA114AE28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12300" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="masjid putri" sheetId="1" r:id="rId1"/>
@@ -19,8 +13,8 @@
     <sheet name="asrama putra" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'asrama putra'!$A$1:$L$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'asrama putri'!$A$1:$L$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'asrama putra'!$B$1:$M$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'asrama putri'!$B$1:$M$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'masjid putra'!$A$1:$L$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'masjid putri'!$A$1:$L$19</definedName>
   </definedNames>
@@ -42,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="59">
   <si>
     <t>Nama</t>
   </si>
@@ -199,12 +193,39 @@
   <si>
     <t>Umar Abdurrosyid Assariy</t>
   </si>
+  <si>
+    <t>nisn</t>
+  </si>
+  <si>
+    <t>0102468268</t>
+  </si>
+  <si>
+    <t>0114491608</t>
+  </si>
+  <si>
+    <t>0112475569</t>
+  </si>
+  <si>
+    <t>0116650830</t>
+  </si>
+  <si>
+    <t>01011800489</t>
+  </si>
+  <si>
+    <t>0108962478</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,22 +253,345 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -307,13 +651,258 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -332,22 +921,64 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal 3" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -605,12 +1236,11 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -622,803 +1252,803 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="12" width="6.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.2857142857143" customWidth="1"/>
+    <col min="2" max="12" width="6.42857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>3</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>4</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>5</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="4">
         <v>6</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="4">
         <v>7</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="5">
         <v>8</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="4">
         <v>9</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="4">
         <v>10</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="5">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>12</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <f t="shared" ref="C3:L3" si="0">B3+1</f>
         <v>13</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <f>L3+1</f>
         <v>23</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <f t="shared" ref="C4:L9" si="1">B4+1</f>
         <v>24</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="4">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="4">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="5">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="4">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="4">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="5">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <f>L4+1</f>
         <v>34</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="4">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="4">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="5">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="4">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="4">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="5">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <f>L5+1</f>
         <v>45</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <f t="shared" ref="C7:L7" si="2">B7+1</f>
         <v>46</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="4">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="4">
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="5">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="4">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="4">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="5">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <f>L7+1</f>
         <v>56</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="4">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="4">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="5">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="4">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="4">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="5">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <f>L8+1</f>
         <v>67</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="4">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="4">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="5">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="4">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="4">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="5">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <f t="shared" ref="B10:B12" si="3">L9+1</f>
         <v>78</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <f t="shared" ref="C10:L10" si="4">B10+1</f>
         <v>79</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <f t="shared" si="4"/>
         <v>81</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <f t="shared" si="4"/>
         <v>82</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="4">
         <f t="shared" si="4"/>
         <v>83</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="4">
         <f t="shared" si="4"/>
         <v>84</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="5">
         <f t="shared" si="4"/>
         <v>85</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="4">
         <f t="shared" si="4"/>
         <v>86</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="4">
         <f t="shared" si="4"/>
         <v>87</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="5">
         <f t="shared" si="4"/>
         <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <f t="shared" si="3"/>
         <v>89</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <f t="shared" ref="C11:L11" si="5">B11+1</f>
         <v>90</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="5">
         <f t="shared" si="5"/>
         <v>91</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <f t="shared" si="5"/>
         <v>92</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="4">
         <f t="shared" si="5"/>
         <v>93</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="4">
         <f t="shared" si="5"/>
         <v>94</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="4">
         <f t="shared" si="5"/>
         <v>95</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="5">
         <f t="shared" si="5"/>
         <v>96</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="4">
         <f t="shared" si="5"/>
         <v>97</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="4">
         <f t="shared" si="5"/>
         <v>98</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="5">
         <f t="shared" si="5"/>
         <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="4">
         <f t="shared" ref="C12:L13" si="6">B12+1</f>
         <v>101</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="5">
         <f t="shared" si="6"/>
         <v>102</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <f t="shared" si="6"/>
         <v>103</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="4">
         <f t="shared" si="6"/>
         <v>104</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="4">
         <f t="shared" si="6"/>
         <v>105</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="4">
         <f t="shared" si="6"/>
         <v>106</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="5">
         <f t="shared" si="6"/>
         <v>107</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="4">
         <f t="shared" si="6"/>
         <v>108</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="4">
         <f t="shared" si="6"/>
         <v>109</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="5">
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <f t="shared" ref="B13" si="7">L12+1</f>
         <v>111</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <f t="shared" si="6"/>
         <v>112</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="5">
         <f t="shared" si="6"/>
         <v>113</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <f t="shared" si="6"/>
         <v>114</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="4">
         <f t="shared" si="6"/>
         <v>115</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="4">
         <f t="shared" si="6"/>
         <v>116</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="4">
         <f t="shared" si="6"/>
         <v>117</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="5">
         <f t="shared" si="6"/>
         <v>118</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="4">
         <f t="shared" si="6"/>
         <v>119</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="4">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="5">
         <f t="shared" si="6"/>
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="1"/>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <f>L13+1</f>
         <v>122</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="4">
         <f t="shared" ref="C15:L15" si="8">B15+1</f>
         <v>123</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="5">
         <f t="shared" si="8"/>
         <v>124</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <f t="shared" si="8"/>
         <v>125</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="4">
         <f t="shared" si="8"/>
         <v>126</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="4">
         <f t="shared" si="8"/>
         <v>127</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="4">
         <f t="shared" si="8"/>
         <v>128</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="5">
         <f t="shared" si="8"/>
         <v>129</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="4">
         <f t="shared" si="8"/>
         <v>130</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="4">
         <f t="shared" si="8"/>
         <v>131</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="5">
         <f t="shared" si="8"/>
         <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <f>L15+1</f>
         <v>133</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="4">
         <f t="shared" ref="C16:L16" si="9">B16+1</f>
         <v>134</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="5">
         <f t="shared" si="9"/>
         <v>135</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <f t="shared" si="9"/>
         <v>136</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="4">
         <f t="shared" si="9"/>
         <v>137</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="4">
         <f t="shared" si="9"/>
         <v>138</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="4">
         <f t="shared" si="9"/>
         <v>139</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="5">
         <f t="shared" si="9"/>
         <v>140</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="4">
         <f t="shared" si="9"/>
         <v>141</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="4">
         <f t="shared" si="9"/>
         <v>142</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="5">
         <f t="shared" si="9"/>
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="30">
-      <c r="A17" s="5" t="s">
+    <row r="17" ht="30" spans="1:12">
+      <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <f>L16+1</f>
         <v>144</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="4">
         <f t="shared" ref="C17:L17" si="10">B17+1</f>
         <v>145</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="5">
         <f t="shared" si="10"/>
         <v>146</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="3">
         <f t="shared" si="10"/>
         <v>147</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="4">
         <f t="shared" si="10"/>
         <v>148</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="4">
         <f t="shared" si="10"/>
         <v>149</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="4">
         <f t="shared" si="10"/>
         <v>150</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="5">
         <f t="shared" si="10"/>
         <v>151</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="4">
         <f t="shared" si="10"/>
         <v>152</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="4">
         <f t="shared" si="10"/>
         <v>153</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="5">
         <f t="shared" si="10"/>
         <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <f>L17+1</f>
         <v>155</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="4">
         <f t="shared" ref="C18:L18" si="11">B18+1</f>
         <v>156</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="5">
         <f t="shared" si="11"/>
         <v>157</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
         <f t="shared" si="11"/>
         <v>158</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="4">
         <f t="shared" si="11"/>
         <v>159</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="4">
         <f t="shared" si="11"/>
         <v>160</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="4">
         <f t="shared" si="11"/>
         <v>161</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="5">
         <f t="shared" si="11"/>
         <v>162</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="4">
         <f t="shared" si="11"/>
         <v>163</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="4">
         <f t="shared" si="11"/>
         <v>164</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="5">
         <f t="shared" si="11"/>
         <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <f>L18+1</f>
         <v>166</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="4">
         <f t="shared" ref="C19:L19" si="12">B19+1</f>
         <v>167</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="5">
         <f t="shared" si="12"/>
         <v>168</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="3">
         <f t="shared" si="12"/>
         <v>169</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="4">
         <f t="shared" si="12"/>
         <v>170</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="4">
         <f t="shared" si="12"/>
         <v>171</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="4">
         <f t="shared" si="12"/>
         <v>172</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="5">
         <f t="shared" si="12"/>
         <v>173</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="4">
         <f t="shared" si="12"/>
         <v>174</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="4">
         <f t="shared" si="12"/>
         <v>175</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="5">
         <f t="shared" si="12"/>
         <v>176</v>
       </c>
@@ -1431,11 +2061,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1447,1667 +2078,1667 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" customWidth="1"/>
+    <col min="1" max="1" width="38.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>3</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>4</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>5</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="4">
         <v>6</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="4">
         <v>7</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="5">
         <v>8</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="4">
         <v>9</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="4">
         <v>10</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="5">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <f>L2+1</f>
         <v>12</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <f t="shared" ref="C3:L3" si="0">B3+1</f>
         <v>13</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <f t="shared" ref="B4:B8" si="1">L3+1</f>
         <v>23</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <f t="shared" ref="C4:L4" si="2">B4+1</f>
         <v>24</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="4">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="4">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="5">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="4">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="4">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="5">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <f t="shared" ref="C5:L5" si="3">B5+1</f>
         <v>35</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="4">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="4">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="5">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="4">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="4">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="5">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <f t="shared" ref="C6:L6" si="4">B6+1</f>
         <v>46</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <f t="shared" si="4"/>
         <v>47</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <f t="shared" si="4"/>
         <v>49</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="4">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="4">
         <f t="shared" si="4"/>
         <v>51</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="5">
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="4">
         <f t="shared" si="4"/>
         <v>53</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="4">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="5">
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <f t="shared" ref="C7:L7" si="5">B7+1</f>
         <v>57</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <f t="shared" si="5"/>
         <v>58</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="4">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="4">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="5">
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="4">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="4">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="5">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <f t="shared" ref="C8:L8" si="6">B8+1</f>
         <v>68</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <f t="shared" si="6"/>
         <v>69</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <f t="shared" si="6"/>
         <v>70</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <f t="shared" si="6"/>
         <v>71</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="4">
         <f t="shared" si="6"/>
         <v>72</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="4">
         <f t="shared" si="6"/>
         <v>73</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="5">
         <f t="shared" si="6"/>
         <v>74</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="4">
         <f t="shared" si="6"/>
         <v>75</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="4">
         <f t="shared" si="6"/>
         <v>76</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="5">
         <f t="shared" si="6"/>
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="4"/>
+    <row r="9" spans="2:12">
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <f>L8+1</f>
         <v>78</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <f t="shared" ref="C10:L10" si="7">B10+1</f>
         <v>79</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <f t="shared" si="7"/>
         <v>80</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <f t="shared" si="7"/>
         <v>81</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <f t="shared" si="7"/>
         <v>82</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="4">
         <f t="shared" si="7"/>
         <v>83</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="4">
         <f t="shared" si="7"/>
         <v>84</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="5">
         <f t="shared" si="7"/>
         <v>85</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="4">
         <f t="shared" si="7"/>
         <v>86</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="4">
         <f t="shared" si="7"/>
         <v>87</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="5">
         <f t="shared" si="7"/>
         <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <f t="shared" ref="B11:B20" si="8">L10+1</f>
         <v>89</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <f t="shared" ref="C11:L11" si="9">B11+1</f>
         <v>90</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="5">
         <f t="shared" si="9"/>
         <v>91</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <f t="shared" si="9"/>
         <v>92</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="4">
         <f t="shared" si="9"/>
         <v>93</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="4">
         <f t="shared" si="9"/>
         <v>94</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="4">
         <f t="shared" si="9"/>
         <v>95</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="5">
         <f t="shared" si="9"/>
         <v>96</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="4">
         <f t="shared" si="9"/>
         <v>97</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="4">
         <f t="shared" si="9"/>
         <v>98</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="5">
         <f t="shared" si="9"/>
         <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="4">
         <f t="shared" ref="C12:L12" si="10">B12+1</f>
         <v>101</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="5">
         <f t="shared" si="10"/>
         <v>102</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <f t="shared" si="10"/>
         <v>103</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="4">
         <f t="shared" si="10"/>
         <v>104</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="4">
         <f t="shared" si="10"/>
         <v>105</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="4">
         <f t="shared" si="10"/>
         <v>106</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="5">
         <f t="shared" si="10"/>
         <v>107</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="4">
         <f t="shared" si="10"/>
         <v>108</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="4">
         <f t="shared" si="10"/>
         <v>109</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="5">
         <f t="shared" si="10"/>
         <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <f t="shared" si="8"/>
         <v>111</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <f t="shared" ref="C13:L13" si="11">B13+1</f>
         <v>112</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="5">
         <f t="shared" si="11"/>
         <v>113</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <f t="shared" si="11"/>
         <v>114</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="4">
         <f t="shared" si="11"/>
         <v>115</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="4">
         <f t="shared" si="11"/>
         <v>116</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="4">
         <f t="shared" si="11"/>
         <v>117</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="5">
         <f t="shared" si="11"/>
         <v>118</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="4">
         <f t="shared" si="11"/>
         <v>119</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="4">
         <f t="shared" si="11"/>
         <v>120</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="5">
         <f t="shared" si="11"/>
         <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <f t="shared" si="8"/>
         <v>122</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="4">
         <f t="shared" ref="C14:L14" si="12">B14+1</f>
         <v>123</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="5">
         <f t="shared" si="12"/>
         <v>124</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <f t="shared" si="12"/>
         <v>125</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="4">
         <f t="shared" si="12"/>
         <v>126</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="4">
         <f t="shared" si="12"/>
         <v>127</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="4">
         <f t="shared" si="12"/>
         <v>128</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="5">
         <f t="shared" si="12"/>
         <v>129</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="4">
         <f t="shared" si="12"/>
         <v>130</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="4">
         <f t="shared" si="12"/>
         <v>131</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="5">
         <f t="shared" si="12"/>
         <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <f t="shared" si="8"/>
         <v>133</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="4">
         <f t="shared" ref="C15:L15" si="13">B15+1</f>
         <v>134</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="5">
         <f t="shared" si="13"/>
         <v>135</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <f t="shared" si="13"/>
         <v>136</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="4">
         <f t="shared" si="13"/>
         <v>137</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="4">
         <f t="shared" si="13"/>
         <v>138</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="4">
         <f t="shared" si="13"/>
         <v>139</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="5">
         <f t="shared" si="13"/>
         <v>140</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="4">
         <f t="shared" si="13"/>
         <v>141</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="4">
         <f t="shared" si="13"/>
         <v>142</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="5">
         <f t="shared" si="13"/>
         <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <f t="shared" si="8"/>
         <v>144</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="4">
         <f t="shared" ref="C16:C20" si="14">B16+1</f>
         <v>145</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="5">
         <f t="shared" ref="D16:D20" si="15">C16+1</f>
         <v>146</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <f t="shared" ref="E16:E20" si="16">D16+1</f>
         <v>147</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="4">
         <f t="shared" ref="F16:F20" si="17">E16+1</f>
         <v>148</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="4">
         <f t="shared" ref="G16:G20" si="18">F16+1</f>
         <v>149</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="4">
         <f t="shared" ref="H16:H20" si="19">G16+1</f>
         <v>150</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="5">
         <f t="shared" ref="I16:I20" si="20">H16+1</f>
         <v>151</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="4">
         <f t="shared" ref="J16:J20" si="21">I16+1</f>
         <v>152</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="4">
         <f t="shared" ref="K16:K20" si="22">J16+1</f>
         <v>153</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="5">
         <f t="shared" ref="L16:L20" si="23">K16+1</f>
         <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <f t="shared" si="8"/>
         <v>155</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="4">
         <f t="shared" si="14"/>
         <v>156</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="5">
         <f t="shared" si="15"/>
         <v>157</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="3">
         <f t="shared" si="16"/>
         <v>158</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="4">
         <f t="shared" si="17"/>
         <v>159</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="4">
         <f t="shared" si="18"/>
         <v>160</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="4">
         <f t="shared" si="19"/>
         <v>161</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="5">
         <f t="shared" si="20"/>
         <v>162</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="4">
         <f t="shared" si="21"/>
         <v>163</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="4">
         <f t="shared" si="22"/>
         <v>164</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="5">
         <f t="shared" si="23"/>
         <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <f t="shared" si="8"/>
         <v>166</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="4">
         <f t="shared" si="14"/>
         <v>167</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="5">
         <f t="shared" si="15"/>
         <v>168</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
         <f t="shared" si="16"/>
         <v>169</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="4">
         <f t="shared" si="17"/>
         <v>170</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="4">
         <f t="shared" si="18"/>
         <v>171</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="4">
         <f t="shared" si="19"/>
         <v>172</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="5">
         <f t="shared" si="20"/>
         <v>173</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="4">
         <f t="shared" si="21"/>
         <v>174</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="4">
         <f t="shared" si="22"/>
         <v>175</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="5">
         <f t="shared" si="23"/>
         <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <f t="shared" si="8"/>
         <v>177</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="4">
         <f t="shared" si="14"/>
         <v>178</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="5">
         <f t="shared" si="15"/>
         <v>179</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="3">
         <f t="shared" si="16"/>
         <v>180</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="4">
         <f t="shared" si="17"/>
         <v>181</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="4">
         <f t="shared" si="18"/>
         <v>182</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="4">
         <f t="shared" si="19"/>
         <v>183</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="5">
         <f t="shared" si="20"/>
         <v>184</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="4">
         <f t="shared" si="21"/>
         <v>185</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="4">
         <f t="shared" si="22"/>
         <v>186</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="5">
         <f t="shared" si="23"/>
         <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="3">
         <f t="shared" si="8"/>
         <v>188</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="4">
         <f t="shared" si="14"/>
         <v>189</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="5">
         <f t="shared" si="15"/>
         <v>190</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="3">
         <f t="shared" si="16"/>
         <v>191</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="4">
         <f t="shared" si="17"/>
         <v>192</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="4">
         <f t="shared" si="18"/>
         <v>193</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="4">
         <f t="shared" si="19"/>
         <v>194</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="5">
         <f t="shared" si="20"/>
         <v>195</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="4">
         <f t="shared" si="21"/>
         <v>196</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="4">
         <f t="shared" si="22"/>
         <v>197</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="5">
         <f t="shared" si="23"/>
         <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <v>1</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="4">
         <v>2</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="5">
         <v>3</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="3">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="4">
         <v>5</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="4">
         <v>6</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="4">
         <v>7</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="5">
         <v>8</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="4">
         <v>9</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="4">
         <v>10</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="5">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <f t="shared" ref="B22:B35" si="24">L21+1</f>
         <v>12</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="4">
         <f t="shared" ref="C22:L22" si="25">B22+1</f>
         <v>13</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="5">
         <f t="shared" si="25"/>
         <v>14</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="3">
         <f t="shared" si="25"/>
         <v>15</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="4">
         <f t="shared" si="25"/>
         <v>16</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="4">
         <f t="shared" si="25"/>
         <v>17</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="4">
         <f t="shared" si="25"/>
         <v>18</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="5">
         <f t="shared" si="25"/>
         <v>19</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="4">
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="4">
         <f t="shared" si="25"/>
         <v>21</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="5">
         <f t="shared" si="25"/>
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="3">
         <f t="shared" si="24"/>
         <v>23</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="4">
         <f t="shared" ref="C23:L23" si="26">B23+1</f>
         <v>24</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="5">
         <f t="shared" si="26"/>
         <v>25</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="3">
         <f t="shared" si="26"/>
         <v>26</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="4">
         <f t="shared" si="26"/>
         <v>27</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="4">
         <f t="shared" si="26"/>
         <v>28</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="4">
         <f t="shared" si="26"/>
         <v>29</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="5">
         <f t="shared" si="26"/>
         <v>30</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="4">
         <f t="shared" si="26"/>
         <v>31</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="4">
         <f t="shared" si="26"/>
         <v>32</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="5">
         <f t="shared" si="26"/>
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="4"/>
+    <row r="24" spans="2:12">
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="5"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <f>L23+1</f>
         <v>34</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="4">
         <f t="shared" ref="C25:L25" si="27">B25+1</f>
         <v>35</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="5">
         <f t="shared" si="27"/>
         <v>36</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="3">
         <f t="shared" si="27"/>
         <v>37</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="4">
         <f t="shared" si="27"/>
         <v>38</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="4">
         <f t="shared" si="27"/>
         <v>39</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="4">
         <f t="shared" si="27"/>
         <v>40</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="5">
         <f t="shared" si="27"/>
         <v>41</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="4">
         <f t="shared" si="27"/>
         <v>42</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="4">
         <f t="shared" si="27"/>
         <v>43</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="5">
         <f t="shared" si="27"/>
         <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="3">
         <f t="shared" si="24"/>
         <v>45</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="4">
         <f t="shared" ref="C26:L26" si="28">B26+1</f>
         <v>46</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="5">
         <f t="shared" si="28"/>
         <v>47</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="3">
         <f t="shared" si="28"/>
         <v>48</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="4">
         <f t="shared" si="28"/>
         <v>49</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="4">
         <f t="shared" si="28"/>
         <v>50</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="4">
         <f t="shared" si="28"/>
         <v>51</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="5">
         <f t="shared" si="28"/>
         <v>52</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="4">
         <f t="shared" si="28"/>
         <v>53</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="4">
         <f t="shared" si="28"/>
         <v>54</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="5">
         <f t="shared" si="28"/>
         <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="3">
         <f t="shared" si="24"/>
         <v>56</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="4">
         <f t="shared" ref="C27:L27" si="29">B27+1</f>
         <v>57</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="5">
         <f t="shared" si="29"/>
         <v>58</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="3">
         <f t="shared" si="29"/>
         <v>59</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="4">
         <f t="shared" si="29"/>
         <v>60</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="4">
         <f t="shared" si="29"/>
         <v>61</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="4">
         <f t="shared" si="29"/>
         <v>62</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="5">
         <f t="shared" si="29"/>
         <v>63</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="4">
         <f t="shared" si="29"/>
         <v>64</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="4">
         <f t="shared" si="29"/>
         <v>65</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="5">
         <f t="shared" si="29"/>
         <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="3">
         <f t="shared" si="24"/>
         <v>67</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="4">
         <f t="shared" ref="C28:C35" si="30">B28+1</f>
         <v>68</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="5">
         <f t="shared" ref="D28:D35" si="31">C28+1</f>
         <v>69</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="3">
         <f t="shared" ref="E28:E35" si="32">D28+1</f>
         <v>70</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="4">
         <f t="shared" ref="F28:F35" si="33">E28+1</f>
         <v>71</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="4">
         <f t="shared" ref="G28:G35" si="34">F28+1</f>
         <v>72</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="4">
         <f t="shared" ref="H28:H35" si="35">G28+1</f>
         <v>73</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="5">
         <f t="shared" ref="I28:I35" si="36">H28+1</f>
         <v>74</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="4">
         <f t="shared" ref="J28:J35" si="37">I28+1</f>
         <v>75</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="4">
         <f t="shared" ref="K28:K35" si="38">J28+1</f>
         <v>76</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L28" s="5">
         <f t="shared" ref="L28:L35" si="39">K28+1</f>
         <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="3">
         <f t="shared" si="24"/>
         <v>78</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="4">
         <f t="shared" si="30"/>
         <v>79</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="5">
         <f t="shared" si="31"/>
         <v>80</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="3">
         <f t="shared" si="32"/>
         <v>81</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="4">
         <f t="shared" si="33"/>
         <v>82</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="4">
         <f t="shared" si="34"/>
         <v>83</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="4">
         <f t="shared" si="35"/>
         <v>84</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="5">
         <f t="shared" si="36"/>
         <v>85</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="4">
         <f t="shared" si="37"/>
         <v>86</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="4">
         <f t="shared" si="38"/>
         <v>87</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L29" s="5">
         <f t="shared" si="39"/>
         <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="3">
         <f t="shared" si="24"/>
         <v>89</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="4">
         <f t="shared" si="30"/>
         <v>90</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="5">
         <f t="shared" si="31"/>
         <v>91</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="3">
         <f t="shared" si="32"/>
         <v>92</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="4">
         <f t="shared" si="33"/>
         <v>93</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="4">
         <f t="shared" si="34"/>
         <v>94</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="4">
         <f t="shared" si="35"/>
         <v>95</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="5">
         <f t="shared" si="36"/>
         <v>96</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="4">
         <f t="shared" si="37"/>
         <v>97</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="4">
         <f t="shared" si="38"/>
         <v>98</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30" s="5">
         <f t="shared" si="39"/>
         <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="3">
         <f t="shared" si="24"/>
         <v>100</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="4">
         <f t="shared" si="30"/>
         <v>101</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="5">
         <f t="shared" si="31"/>
         <v>102</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="3">
         <f t="shared" si="32"/>
         <v>103</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="4">
         <f t="shared" si="33"/>
         <v>104</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="4">
         <f t="shared" si="34"/>
         <v>105</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="4">
         <f t="shared" si="35"/>
         <v>106</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="5">
         <f t="shared" si="36"/>
         <v>107</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="4">
         <f t="shared" si="37"/>
         <v>108</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="4">
         <f t="shared" si="38"/>
         <v>109</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L31" s="5">
         <f t="shared" si="39"/>
         <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="3">
         <f t="shared" si="24"/>
         <v>111</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="4">
         <f t="shared" si="30"/>
         <v>112</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="5">
         <f t="shared" si="31"/>
         <v>113</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="3">
         <f t="shared" si="32"/>
         <v>114</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="4">
         <f t="shared" si="33"/>
         <v>115</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="4">
         <f t="shared" si="34"/>
         <v>116</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="4">
         <f t="shared" si="35"/>
         <v>117</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="5">
         <f t="shared" si="36"/>
         <v>118</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="4">
         <f t="shared" si="37"/>
         <v>119</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="4">
         <f t="shared" si="38"/>
         <v>120</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L32" s="5">
         <f t="shared" si="39"/>
         <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="3">
         <f t="shared" si="24"/>
         <v>122</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="4">
         <f t="shared" si="30"/>
         <v>123</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="5">
         <f t="shared" si="31"/>
         <v>124</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="3">
         <f t="shared" si="32"/>
         <v>125</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="4">
         <f t="shared" si="33"/>
         <v>126</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="4">
         <f t="shared" si="34"/>
         <v>127</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="4">
         <f t="shared" si="35"/>
         <v>128</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="5">
         <f t="shared" si="36"/>
         <v>129</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="4">
         <f t="shared" si="37"/>
         <v>130</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="4">
         <f t="shared" si="38"/>
         <v>131</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L33" s="5">
         <f t="shared" si="39"/>
         <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="3">
         <f t="shared" si="24"/>
         <v>133</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="4">
         <f t="shared" si="30"/>
         <v>134</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="5">
         <f t="shared" si="31"/>
         <v>135</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="3">
         <f t="shared" si="32"/>
         <v>136</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="4">
         <f t="shared" si="33"/>
         <v>137</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="4">
         <f t="shared" si="34"/>
         <v>138</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="4">
         <f t="shared" si="35"/>
         <v>139</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="5">
         <f t="shared" si="36"/>
         <v>140</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="4">
         <f t="shared" si="37"/>
         <v>141</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="4">
         <f t="shared" si="38"/>
         <v>142</v>
       </c>
-      <c r="L34" s="4">
+      <c r="L34" s="5">
         <f t="shared" si="39"/>
         <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="3">
         <f t="shared" si="24"/>
         <v>144</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="4">
         <f t="shared" si="30"/>
         <v>145</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="5">
         <f t="shared" si="31"/>
         <v>146</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="3">
         <f t="shared" si="32"/>
         <v>147</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="4">
         <f t="shared" si="33"/>
         <v>148</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="4">
         <f t="shared" si="34"/>
         <v>149</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="4">
         <f t="shared" si="35"/>
         <v>150</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="5">
         <f t="shared" si="36"/>
         <v>151</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="4">
         <f t="shared" si="37"/>
         <v>152</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="4">
         <f t="shared" si="38"/>
         <v>153</v>
       </c>
-      <c r="L35" s="4">
+      <c r="L35" s="5">
         <f t="shared" si="39"/>
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
-      <c r="B36" s="2"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="4"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="B37" s="2"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="4"/>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="B38" s="2"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="4"/>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="B39" s="2"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="4"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="B40" s="2"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="4"/>
+    <row r="36" spans="2:12">
+      <c r="B36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="5"/>
+    </row>
+    <row r="37" spans="2:12">
+      <c r="B37" s="3"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="5"/>
+    </row>
+    <row r="38" spans="2:12">
+      <c r="B38" s="3"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="5"/>
+    </row>
+    <row r="39" spans="2:12">
+      <c r="B39" s="3"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="5"/>
+    </row>
+    <row r="40" spans="2:12">
+      <c r="B40" s="3"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3117,2454 +3748,2495 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="6.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="31.1428571428571" customWidth="1"/>
+    <col min="3" max="13" width="6.85714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="5">
         <v>3</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="3">
         <v>4</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="4">
         <v>5</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="4">
         <v>6</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="4">
         <v>7</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="5">
         <v>8</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="4">
         <v>9</v>
       </c>
-      <c r="K2" s="3">
+      <c r="L2" s="4">
         <v>10</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="5">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="2:13">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="3">
         <v>12</v>
       </c>
-      <c r="C3" s="3">
-        <f t="shared" ref="C3:L3" si="0">B3+1</f>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:M3" si="0">C3+1</f>
         <v>13</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E3" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M3" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="2:13">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
-        <f t="shared" ref="B4:B13" si="1">L3+1</f>
+      <c r="C4" s="3">
+        <f t="shared" ref="C4:C13" si="1">M3+1</f>
         <v>23</v>
       </c>
-      <c r="C4" s="3">
-        <f t="shared" ref="C4:L4" si="2">B4+1</f>
+      <c r="D4" s="4">
+        <f t="shared" ref="D4:M4" si="2">C4+1</f>
         <v>24</v>
       </c>
-      <c r="D4" s="4">
+      <c r="E4" s="5">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="3">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="4">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="4">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="4">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="5">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="4">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="4">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="5">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="2:13">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="3">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="C5" s="3">
-        <f t="shared" ref="C5:L5" si="3">B5+1</f>
+      <c r="D5" s="4">
+        <f t="shared" ref="D5:M5" si="3">C5+1</f>
         <v>35</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E5" s="5">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="3">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="4">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="4">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="4">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="5">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="4">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L5" s="4">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="5">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="2:13">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2">
-        <f>L5+1</f>
+      <c r="C7" s="3">
+        <f>M5+1</f>
         <v>45</v>
       </c>
-      <c r="C7" s="3">
-        <f t="shared" ref="C7:L7" si="4">B7+1</f>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:M7" si="4">C7+1</f>
         <v>46</v>
       </c>
-      <c r="D7" s="4">
+      <c r="E7" s="5">
         <f t="shared" si="4"/>
         <v>47</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="3">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="4">
         <f t="shared" si="4"/>
         <v>49</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="4">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="4">
         <f t="shared" si="4"/>
         <v>51</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="5">
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7" s="4">
         <f t="shared" si="4"/>
         <v>53</v>
       </c>
-      <c r="K7" s="3">
+      <c r="L7" s="4">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="5">
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="2:13">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
+      <c r="C8" s="3">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="C8" s="3">
-        <f t="shared" ref="C8:L8" si="5">B8+1</f>
+      <c r="D8" s="4">
+        <f t="shared" ref="D8:M8" si="5">C8+1</f>
         <v>57</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="5">
         <f t="shared" si="5"/>
         <v>58</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="3">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="4">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="4">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="4">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="5">
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="4">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="4">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="5">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:13">
+      <c r="A9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2">
+      <c r="C9" s="3">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="C9" s="3">
-        <f t="shared" ref="C9:L9" si="6">B9+1</f>
+      <c r="D9" s="4">
+        <f t="shared" ref="D9:M9" si="6">C9+1</f>
         <v>68</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="5">
         <f t="shared" si="6"/>
         <v>69</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="3">
         <f t="shared" si="6"/>
         <v>70</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="4">
         <f t="shared" si="6"/>
         <v>71</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="4">
         <f t="shared" si="6"/>
         <v>72</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="4">
         <f t="shared" si="6"/>
         <v>73</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="5">
         <f t="shared" si="6"/>
         <v>74</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="4">
         <f t="shared" si="6"/>
         <v>75</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="4">
         <f t="shared" si="6"/>
         <v>76</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="5">
         <f t="shared" si="6"/>
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="2:13">
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2">
+      <c r="C10" s="3">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="C10" s="3">
-        <f t="shared" ref="C10:L10" si="7">B10+1</f>
+      <c r="D10" s="4">
+        <f t="shared" ref="D10:M10" si="7">C10+1</f>
         <v>79</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E10" s="5">
         <f t="shared" si="7"/>
         <v>80</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="3">
         <f t="shared" si="7"/>
         <v>81</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="4">
         <f t="shared" si="7"/>
         <v>82</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="4">
         <f t="shared" si="7"/>
         <v>83</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="4">
         <f t="shared" si="7"/>
         <v>84</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="5">
         <f t="shared" si="7"/>
         <v>85</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="4">
         <f t="shared" si="7"/>
         <v>86</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="4">
         <f t="shared" si="7"/>
         <v>87</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="5">
         <f t="shared" si="7"/>
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:13">
+      <c r="A11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2">
+      <c r="C11" s="3">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="C11" s="3">
-        <f t="shared" ref="C11:L11" si="8">B11+1</f>
+      <c r="D11" s="4">
+        <f t="shared" ref="D11:M11" si="8">C11+1</f>
         <v>90</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="5">
         <f t="shared" si="8"/>
         <v>91</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="3">
         <f t="shared" si="8"/>
         <v>92</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="4">
         <f t="shared" si="8"/>
         <v>93</v>
       </c>
-      <c r="G11" s="3">
+      <c r="H11" s="4">
         <f t="shared" si="8"/>
         <v>94</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I11" s="4">
         <f t="shared" si="8"/>
         <v>95</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="5">
         <f t="shared" si="8"/>
         <v>96</v>
       </c>
-      <c r="J11" s="3">
+      <c r="K11" s="4">
         <f t="shared" si="8"/>
         <v>97</v>
       </c>
-      <c r="K11" s="3">
+      <c r="L11" s="4">
         <f t="shared" si="8"/>
         <v>98</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="5">
         <f t="shared" si="8"/>
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:13">
+      <c r="A12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2">
+      <c r="C12" s="3">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="C12" s="3">
-        <f t="shared" ref="C12:L12" si="9">B12+1</f>
+      <c r="D12" s="4">
+        <f t="shared" ref="D12:M12" si="9">C12+1</f>
         <v>101</v>
       </c>
-      <c r="D12" s="4">
+      <c r="E12" s="5">
         <f t="shared" si="9"/>
         <v>102</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="3">
         <f t="shared" si="9"/>
         <v>103</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="4">
         <f t="shared" si="9"/>
         <v>104</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="4">
         <f t="shared" si="9"/>
         <v>105</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="4">
         <f t="shared" si="9"/>
         <v>106</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="5">
         <f t="shared" si="9"/>
         <v>107</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="4">
         <f t="shared" si="9"/>
         <v>108</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="4">
         <f t="shared" si="9"/>
         <v>109</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M12" s="5">
         <f t="shared" si="9"/>
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="2:13">
+      <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2">
+      <c r="C13" s="3">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="C13" s="3">
-        <f t="shared" ref="C13:L13" si="10">B13+1</f>
+      <c r="D13" s="4">
+        <f t="shared" ref="D13:M13" si="10">C13+1</f>
         <v>112</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="5">
         <f t="shared" si="10"/>
         <v>113</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="3">
         <f t="shared" si="10"/>
         <v>114</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="4">
         <f t="shared" si="10"/>
         <v>115</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13" s="4">
         <f t="shared" si="10"/>
         <v>116</v>
       </c>
-      <c r="H13" s="3">
+      <c r="I13" s="4">
         <f t="shared" si="10"/>
         <v>117</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="5">
         <f t="shared" si="10"/>
         <v>118</v>
       </c>
-      <c r="J13" s="3">
+      <c r="K13" s="4">
         <f t="shared" si="10"/>
         <v>119</v>
       </c>
-      <c r="K13" s="3">
+      <c r="L13" s="4">
         <f t="shared" si="10"/>
         <v>120</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="5">
         <f t="shared" si="10"/>
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="5" t="s">
+    <row r="14" spans="2:2">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2">
-        <f>L13+1</f>
+      <c r="C15" s="3">
+        <f>M13+1</f>
         <v>122</v>
       </c>
-      <c r="C15" s="3">
-        <f t="shared" ref="C15:L15" si="11">B15+1</f>
+      <c r="D15" s="4">
+        <f t="shared" ref="D15:M15" si="11">C15+1</f>
         <v>123</v>
       </c>
-      <c r="D15" s="4">
+      <c r="E15" s="5">
         <f t="shared" si="11"/>
         <v>124</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="3">
         <f t="shared" si="11"/>
         <v>125</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="4">
         <f t="shared" si="11"/>
         <v>126</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="4">
         <f t="shared" si="11"/>
         <v>127</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="4">
         <f t="shared" si="11"/>
         <v>128</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="5">
         <f t="shared" si="11"/>
         <v>129</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="4">
         <f t="shared" si="11"/>
         <v>130</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="4">
         <f t="shared" si="11"/>
         <v>131</v>
       </c>
-      <c r="L15" s="4">
+      <c r="M15" s="5">
         <f t="shared" si="11"/>
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="2:13">
+      <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2">
-        <f t="shared" ref="B16:B19" si="12">L15+1</f>
+      <c r="C16" s="3">
+        <f t="shared" ref="C16:C19" si="12">M15+1</f>
         <v>133</v>
       </c>
-      <c r="C16" s="3">
-        <f t="shared" ref="C16:L16" si="13">B16+1</f>
+      <c r="D16" s="4">
+        <f t="shared" ref="D16:M16" si="13">C16+1</f>
         <v>134</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="5">
         <f t="shared" si="13"/>
         <v>135</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="3">
         <f t="shared" si="13"/>
         <v>136</v>
       </c>
-      <c r="F16" s="3">
+      <c r="G16" s="4">
         <f t="shared" si="13"/>
         <v>137</v>
       </c>
-      <c r="G16" s="3">
+      <c r="H16" s="4">
         <f t="shared" si="13"/>
         <v>138</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I16" s="4">
         <f t="shared" si="13"/>
         <v>139</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="5">
         <f t="shared" si="13"/>
         <v>140</v>
       </c>
-      <c r="J16" s="3">
+      <c r="K16" s="4">
         <f t="shared" si="13"/>
         <v>141</v>
       </c>
-      <c r="K16" s="3">
+      <c r="L16" s="4">
         <f t="shared" si="13"/>
         <v>142</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="5">
         <f t="shared" si="13"/>
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="2:13">
+      <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="2">
+      <c r="C17" s="3">
         <f t="shared" si="12"/>
         <v>144</v>
       </c>
-      <c r="C17" s="3">
-        <f t="shared" ref="C17:L17" si="14">B17+1</f>
+      <c r="D17" s="4">
+        <f t="shared" ref="D17:M17" si="14">C17+1</f>
         <v>145</v>
       </c>
-      <c r="D17" s="4">
+      <c r="E17" s="5">
         <f t="shared" si="14"/>
         <v>146</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="3">
         <f t="shared" si="14"/>
         <v>147</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="4">
         <f t="shared" si="14"/>
         <v>148</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="4">
         <f t="shared" si="14"/>
         <v>149</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="4">
         <f t="shared" si="14"/>
         <v>150</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="5">
         <f t="shared" si="14"/>
         <v>151</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="4">
         <f t="shared" si="14"/>
         <v>152</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="4">
         <f t="shared" si="14"/>
         <v>153</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="5">
         <f t="shared" si="14"/>
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="2:13">
+      <c r="B18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2">
+      <c r="C18" s="3">
         <f t="shared" si="12"/>
         <v>155</v>
       </c>
-      <c r="C18" s="3">
-        <f t="shared" ref="C18:L18" si="15">B18+1</f>
+      <c r="D18" s="4">
+        <f t="shared" ref="D18:M18" si="15">C18+1</f>
         <v>156</v>
       </c>
-      <c r="D18" s="4">
+      <c r="E18" s="5">
         <f t="shared" si="15"/>
         <v>157</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F18" s="3">
         <f t="shared" si="15"/>
         <v>158</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="4">
         <f t="shared" si="15"/>
         <v>159</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="4">
         <f t="shared" si="15"/>
         <v>160</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="4">
         <f t="shared" si="15"/>
         <v>161</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="5">
         <f t="shared" si="15"/>
         <v>162</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="4">
         <f t="shared" si="15"/>
         <v>163</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="4">
         <f t="shared" si="15"/>
         <v>164</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="5">
         <f t="shared" si="15"/>
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="2:13">
+      <c r="B19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="2">
+      <c r="C19" s="3">
         <f t="shared" si="12"/>
         <v>166</v>
       </c>
-      <c r="C19" s="3">
-        <f t="shared" ref="C19:L19" si="16">B19+1</f>
+      <c r="D19" s="4">
+        <f t="shared" ref="D19:M19" si="16">C19+1</f>
         <v>167</v>
       </c>
-      <c r="D19" s="4">
+      <c r="E19" s="5">
         <f t="shared" si="16"/>
         <v>168</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F19" s="3">
         <f t="shared" si="16"/>
         <v>169</v>
       </c>
-      <c r="F19" s="3">
+      <c r="G19" s="4">
         <f t="shared" si="16"/>
         <v>170</v>
       </c>
-      <c r="G19" s="3">
+      <c r="H19" s="4">
         <f t="shared" si="16"/>
         <v>171</v>
       </c>
-      <c r="H19" s="3">
+      <c r="I19" s="4">
         <f t="shared" si="16"/>
         <v>172</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="5">
         <f t="shared" si="16"/>
         <v>173</v>
       </c>
-      <c r="J19" s="3">
+      <c r="K19" s="4">
         <f t="shared" si="16"/>
         <v>174</v>
       </c>
-      <c r="K19" s="3">
+      <c r="L19" s="4">
         <f t="shared" si="16"/>
         <v>175</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="5">
         <f t="shared" si="16"/>
         <v>176</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L35"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="5.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.8571428571429"/>
+    <col min="2" max="2" width="36.5714285714286" customWidth="1"/>
+    <col min="3" max="13" width="5.85714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13">
+      <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="5">
         <v>3</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="3">
         <v>4</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="4">
         <v>5</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="4">
         <v>6</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="4">
         <v>7</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="5">
         <v>8</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="4">
         <v>9</v>
       </c>
-      <c r="K2" s="3">
+      <c r="L2" s="4">
         <v>10</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="5">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="2:13">
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2">
-        <f t="shared" ref="B3:B8" si="0">L2+1</f>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C8" si="0">M2+1</f>
         <v>12</v>
       </c>
-      <c r="C3" s="3">
-        <f t="shared" ref="C3:L3" si="1">B3+1</f>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:M3" si="1">C3+1</f>
         <v>13</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E3" s="5">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="3">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="4">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="4">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="4">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="5">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="4">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="4">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M3" s="5">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="2:13">
+      <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C4" s="3">
-        <f t="shared" ref="C4:L4" si="2">B4+1</f>
+      <c r="D4" s="4">
+        <f t="shared" ref="D4:M4" si="2">C4+1</f>
         <v>24</v>
       </c>
-      <c r="D4" s="4">
+      <c r="E4" s="5">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="3">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="4">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="4">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="4">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="5">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="4">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="4">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="5">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="2:13">
+      <c r="B5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="3">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C5" s="3">
-        <f t="shared" ref="C5:L5" si="3">B5+1</f>
+      <c r="D5" s="4">
+        <f t="shared" ref="D5:M5" si="3">C5+1</f>
         <v>35</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E5" s="5">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="3">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="4">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="4">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="4">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="5">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="4">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L5" s="4">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="5">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="2:13">
+      <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="2">
+      <c r="C6" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C6" s="3">
-        <f t="shared" ref="C6:L6" si="4">B6+1</f>
+      <c r="D6" s="4">
+        <f t="shared" ref="D6:M6" si="4">C6+1</f>
         <v>46</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="5">
         <f t="shared" si="4"/>
         <v>47</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="3">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="4">
         <f t="shared" si="4"/>
         <v>49</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="4">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="4">
         <f t="shared" si="4"/>
         <v>51</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="5">
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K6" s="4">
         <f t="shared" si="4"/>
         <v>53</v>
       </c>
-      <c r="K6" s="3">
+      <c r="L6" s="4">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="5">
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="2:13">
+      <c r="B7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="2">
+      <c r="C7" s="3">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="C7" s="3">
-        <f t="shared" ref="C7:L7" si="5">B7+1</f>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:M7" si="5">C7+1</f>
         <v>57</v>
       </c>
-      <c r="D7" s="4">
+      <c r="E7" s="5">
         <f t="shared" si="5"/>
         <v>58</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="3">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="4">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="4">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="4">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="5">
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7" s="4">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="K7" s="3">
+      <c r="L7" s="4">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="5">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="2:13">
+      <c r="B8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="2">
+      <c r="C8" s="3">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="C8" s="3">
-        <f t="shared" ref="C8:L8" si="6">B8+1</f>
+      <c r="D8" s="4">
+        <f t="shared" ref="D8:M8" si="6">C8+1</f>
         <v>68</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="5">
         <f t="shared" si="6"/>
         <v>69</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="3">
         <f t="shared" si="6"/>
         <v>70</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="4">
         <f t="shared" si="6"/>
         <v>71</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="4">
         <f t="shared" si="6"/>
         <v>72</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="4">
         <f t="shared" si="6"/>
         <v>73</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="5">
         <f t="shared" si="6"/>
         <v>74</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="4">
         <f t="shared" si="6"/>
         <v>75</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="4">
         <f t="shared" si="6"/>
         <v>76</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="5">
         <f t="shared" si="6"/>
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="B9" s="2"/>
+    <row r="9" spans="3:13">
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="5"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="4"/>
       <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>3110600456</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="2">
-        <f>L8+1</f>
+      <c r="C10" s="3">
+        <f>M8+1</f>
         <v>78</v>
       </c>
-      <c r="C10" s="3">
-        <f t="shared" ref="C10:L10" si="7">B10+1</f>
+      <c r="D10" s="4">
+        <f t="shared" ref="D10:M10" si="7">C10+1</f>
         <v>79</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E10" s="5">
         <f t="shared" si="7"/>
         <v>80</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="3">
         <f t="shared" si="7"/>
         <v>81</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="4">
         <f t="shared" si="7"/>
         <v>82</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="4">
         <f t="shared" si="7"/>
         <v>83</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="4">
         <f t="shared" si="7"/>
         <v>84</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="5">
         <f t="shared" si="7"/>
         <v>85</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="4">
         <f t="shared" si="7"/>
         <v>86</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="4">
         <f t="shared" si="7"/>
         <v>87</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="5">
         <f t="shared" si="7"/>
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="2:13">
+      <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="2">
-        <f t="shared" ref="B11:B18" si="8">L10+1</f>
+      <c r="C11" s="3">
+        <f t="shared" ref="C11:C18" si="8">M10+1</f>
         <v>89</v>
       </c>
-      <c r="C11" s="3">
-        <f t="shared" ref="C11:L11" si="9">B11+1</f>
+      <c r="D11" s="4">
+        <f t="shared" ref="D11:M11" si="9">C11+1</f>
         <v>90</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="5">
         <f t="shared" si="9"/>
         <v>91</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="3">
         <f t="shared" si="9"/>
         <v>92</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="4">
         <f t="shared" si="9"/>
         <v>93</v>
       </c>
-      <c r="G11" s="3">
+      <c r="H11" s="4">
         <f t="shared" si="9"/>
         <v>94</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I11" s="4">
         <f t="shared" si="9"/>
         <v>95</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="5">
         <f t="shared" si="9"/>
         <v>96</v>
       </c>
-      <c r="J11" s="3">
+      <c r="K11" s="4">
         <f t="shared" si="9"/>
         <v>97</v>
       </c>
-      <c r="K11" s="3">
+      <c r="L11" s="4">
         <f t="shared" si="9"/>
         <v>98</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="5">
         <f t="shared" si="9"/>
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>31003356134</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="2">
+      <c r="C12" s="3">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="C12" s="3">
-        <f t="shared" ref="C12:L12" si="10">B12+1</f>
+      <c r="D12" s="4">
+        <f t="shared" ref="D12:M12" si="10">C12+1</f>
         <v>101</v>
       </c>
-      <c r="D12" s="4">
+      <c r="E12" s="5">
         <f t="shared" si="10"/>
         <v>102</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="3">
         <f t="shared" si="10"/>
         <v>103</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="4">
         <f t="shared" si="10"/>
         <v>104</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="4">
         <f t="shared" si="10"/>
         <v>105</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="4">
         <f t="shared" si="10"/>
         <v>106</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="5">
         <f t="shared" si="10"/>
         <v>107</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="4">
         <f t="shared" si="10"/>
         <v>108</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="4">
         <f t="shared" si="10"/>
         <v>109</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M12" s="5">
         <f t="shared" si="10"/>
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>3116653493</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="2">
+      <c r="C13" s="3">
         <f t="shared" si="8"/>
         <v>111</v>
       </c>
-      <c r="C13" s="3">
-        <f t="shared" ref="C13:L13" si="11">B13+1</f>
+      <c r="D13" s="4">
+        <f t="shared" ref="D13:M13" si="11">C13+1</f>
         <v>112</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="5">
         <f t="shared" si="11"/>
         <v>113</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="3">
         <f t="shared" si="11"/>
         <v>114</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="4">
         <f t="shared" si="11"/>
         <v>115</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13" s="4">
         <f t="shared" si="11"/>
         <v>116</v>
       </c>
-      <c r="H13" s="3">
+      <c r="I13" s="4">
         <f t="shared" si="11"/>
         <v>117</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="5">
         <f t="shared" si="11"/>
         <v>118</v>
       </c>
-      <c r="J13" s="3">
+      <c r="K13" s="4">
         <f t="shared" si="11"/>
         <v>119</v>
       </c>
-      <c r="K13" s="3">
+      <c r="L13" s="4">
         <f t="shared" si="11"/>
         <v>120</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="5">
         <f t="shared" si="11"/>
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:13">
+      <c r="A14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="2">
+      <c r="C14" s="3">
         <f t="shared" si="8"/>
         <v>122</v>
       </c>
-      <c r="C14" s="3">
-        <f t="shared" ref="C14:L14" si="12">B14+1</f>
+      <c r="D14" s="4">
+        <f t="shared" ref="D14:M14" si="12">C14+1</f>
         <v>123</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E14" s="5">
         <f t="shared" si="12"/>
         <v>124</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="3">
         <f t="shared" si="12"/>
         <v>125</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="4">
         <f t="shared" si="12"/>
         <v>126</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="4">
         <f t="shared" si="12"/>
         <v>127</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="4">
         <f t="shared" si="12"/>
         <v>128</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="5">
         <f t="shared" si="12"/>
         <v>129</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="4">
         <f t="shared" si="12"/>
         <v>130</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="4">
         <f t="shared" si="12"/>
         <v>131</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="5">
         <f t="shared" si="12"/>
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="2:13">
+      <c r="B15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="2">
+      <c r="C15" s="3">
         <f t="shared" si="8"/>
         <v>133</v>
       </c>
-      <c r="C15" s="3">
-        <f t="shared" ref="C15:L15" si="13">B15+1</f>
+      <c r="D15" s="4">
+        <f t="shared" ref="D15:M15" si="13">C15+1</f>
         <v>134</v>
       </c>
-      <c r="D15" s="4">
+      <c r="E15" s="5">
         <f t="shared" si="13"/>
         <v>135</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="3">
         <f t="shared" si="13"/>
         <v>136</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="4">
         <f t="shared" si="13"/>
         <v>137</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="4">
         <f t="shared" si="13"/>
         <v>138</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="4">
         <f t="shared" si="13"/>
         <v>139</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="5">
         <f t="shared" si="13"/>
         <v>140</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="4">
         <f t="shared" si="13"/>
         <v>141</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="4">
         <f t="shared" si="13"/>
         <v>142</v>
       </c>
-      <c r="L15" s="4">
+      <c r="M15" s="5">
         <f t="shared" si="13"/>
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:13">
+      <c r="A16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="2">
+      <c r="C16" s="3">
         <f t="shared" si="8"/>
         <v>144</v>
       </c>
-      <c r="C16" s="3">
-        <f t="shared" ref="C16:L16" si="14">B16+1</f>
+      <c r="D16" s="4">
+        <f t="shared" ref="D16:M16" si="14">C16+1</f>
         <v>145</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="5">
         <f t="shared" si="14"/>
         <v>146</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="3">
         <f t="shared" si="14"/>
         <v>147</v>
       </c>
-      <c r="F16" s="3">
+      <c r="G16" s="4">
         <f t="shared" si="14"/>
         <v>148</v>
       </c>
-      <c r="G16" s="3">
+      <c r="H16" s="4">
         <f t="shared" si="14"/>
         <v>149</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I16" s="4">
         <f t="shared" si="14"/>
         <v>150</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="5">
         <f t="shared" si="14"/>
         <v>151</v>
       </c>
-      <c r="J16" s="3">
+      <c r="K16" s="4">
         <f t="shared" si="14"/>
         <v>152</v>
       </c>
-      <c r="K16" s="3">
+      <c r="L16" s="4">
         <f t="shared" si="14"/>
         <v>153</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="5">
         <f t="shared" si="14"/>
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="2:13">
+      <c r="B17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="2">
+      <c r="C17" s="3">
         <f t="shared" si="8"/>
         <v>155</v>
       </c>
-      <c r="C17" s="3">
-        <f t="shared" ref="C17:L17" si="15">B17+1</f>
+      <c r="D17" s="4">
+        <f t="shared" ref="D17:M17" si="15">C17+1</f>
         <v>156</v>
       </c>
-      <c r="D17" s="4">
+      <c r="E17" s="5">
         <f t="shared" si="15"/>
         <v>157</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="3">
         <f t="shared" si="15"/>
         <v>158</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="4">
         <f t="shared" si="15"/>
         <v>159</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="4">
         <f t="shared" si="15"/>
         <v>160</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="4">
         <f t="shared" si="15"/>
         <v>161</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="5">
         <f t="shared" si="15"/>
         <v>162</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="4">
         <f t="shared" si="15"/>
         <v>163</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="4">
         <f t="shared" si="15"/>
         <v>164</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="5">
         <f t="shared" si="15"/>
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="2:13">
+      <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="2">
+      <c r="C18" s="3">
         <f t="shared" si="8"/>
         <v>166</v>
       </c>
-      <c r="C18" s="3">
-        <f t="shared" ref="C18:L18" si="16">B18+1</f>
+      <c r="D18" s="4">
+        <f t="shared" ref="D18:M18" si="16">C18+1</f>
         <v>167</v>
       </c>
-      <c r="D18" s="4">
+      <c r="E18" s="5">
         <f t="shared" si="16"/>
         <v>168</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F18" s="3">
         <f t="shared" si="16"/>
         <v>169</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="4">
         <f t="shared" si="16"/>
         <v>170</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="4">
         <f t="shared" si="16"/>
         <v>171</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="4">
         <f t="shared" si="16"/>
         <v>172</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="5">
         <f t="shared" si="16"/>
         <v>173</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="4">
         <f t="shared" si="16"/>
         <v>174</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="4">
         <f t="shared" si="16"/>
         <v>175</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="5">
         <f t="shared" si="16"/>
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:13">
+      <c r="A19">
+        <v>3108701451</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="2">
+      <c r="C19" s="3">
         <v>1</v>
       </c>
-      <c r="C19" s="3">
+      <c r="D19" s="4">
         <v>2</v>
       </c>
-      <c r="D19" s="4">
+      <c r="E19" s="5">
         <v>3</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F19" s="3">
         <v>4</v>
       </c>
-      <c r="F19" s="3">
+      <c r="G19" s="4">
         <v>5</v>
       </c>
-      <c r="G19" s="3">
+      <c r="H19" s="4">
         <v>6</v>
       </c>
-      <c r="H19" s="3">
+      <c r="I19" s="4">
         <v>7</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="5">
         <v>8</v>
       </c>
-      <c r="J19" s="3">
+      <c r="K19" s="4">
         <v>9</v>
       </c>
-      <c r="K19" s="3">
+      <c r="L19" s="4">
         <v>10</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="5">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:13">
+      <c r="A20" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="2">
-        <f t="shared" ref="B20:B23" si="17">L19+1</f>
+      <c r="C20" s="3">
+        <f t="shared" ref="C20:C23" si="17">M19+1</f>
         <v>12</v>
       </c>
-      <c r="C20" s="3">
-        <f t="shared" ref="C20:L20" si="18">B20+1</f>
+      <c r="D20" s="4">
+        <f t="shared" ref="D20:M20" si="18">C20+1</f>
         <v>13</v>
       </c>
-      <c r="D20" s="4">
+      <c r="E20" s="5">
         <f t="shared" si="18"/>
         <v>14</v>
       </c>
-      <c r="E20" s="2">
+      <c r="F20" s="3">
         <f t="shared" si="18"/>
         <v>15</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="4">
         <f t="shared" si="18"/>
         <v>16</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="4">
         <f t="shared" si="18"/>
         <v>17</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="4">
         <f t="shared" si="18"/>
         <v>18</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="5">
         <f t="shared" si="18"/>
         <v>19</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="4">
         <f t="shared" si="18"/>
         <v>20</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="4">
         <f t="shared" si="18"/>
         <v>21</v>
       </c>
-      <c r="L20" s="4">
+      <c r="M20" s="5">
         <f t="shared" si="18"/>
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="2:13">
+      <c r="B21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="2">
+      <c r="C21" s="3">
         <f t="shared" si="17"/>
         <v>23</v>
       </c>
-      <c r="C21" s="3">
-        <f t="shared" ref="C21:L21" si="19">B21+1</f>
+      <c r="D21" s="4">
+        <f t="shared" ref="D21:M21" si="19">C21+1</f>
         <v>24</v>
       </c>
-      <c r="D21" s="4">
+      <c r="E21" s="5">
         <f t="shared" si="19"/>
         <v>25</v>
       </c>
-      <c r="E21" s="2">
+      <c r="F21" s="3">
         <f t="shared" si="19"/>
         <v>26</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="4">
         <f t="shared" si="19"/>
         <v>27</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="4">
         <f t="shared" si="19"/>
         <v>28</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="4">
         <f t="shared" si="19"/>
         <v>29</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="5">
         <f t="shared" si="19"/>
         <v>30</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="4">
         <f t="shared" si="19"/>
         <v>31</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="4">
         <f t="shared" si="19"/>
         <v>32</v>
       </c>
-      <c r="L21" s="4">
+      <c r="M21" s="5">
         <f t="shared" si="19"/>
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="2:13">
+      <c r="B22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="2">
+      <c r="C22" s="3">
         <f t="shared" si="17"/>
         <v>34</v>
       </c>
-      <c r="C22" s="3">
-        <f t="shared" ref="C22:L22" si="20">B22+1</f>
+      <c r="D22" s="4">
+        <f t="shared" ref="D22:M22" si="20">C22+1</f>
         <v>35</v>
       </c>
-      <c r="D22" s="4">
+      <c r="E22" s="5">
         <f t="shared" si="20"/>
         <v>36</v>
       </c>
-      <c r="E22" s="2">
+      <c r="F22" s="3">
         <f t="shared" si="20"/>
         <v>37</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="4">
         <f t="shared" si="20"/>
         <v>38</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="4">
         <f t="shared" si="20"/>
         <v>39</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="4">
         <f t="shared" si="20"/>
         <v>40</v>
       </c>
-      <c r="I22" s="4">
+      <c r="J22" s="5">
         <f t="shared" si="20"/>
         <v>41</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="4">
         <f t="shared" si="20"/>
         <v>42</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="4">
         <f t="shared" si="20"/>
         <v>43</v>
       </c>
-      <c r="L22" s="4">
+      <c r="M22" s="5">
         <f t="shared" si="20"/>
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="2:13">
+      <c r="B23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="2">
+      <c r="C23" s="3">
         <f t="shared" si="17"/>
         <v>45</v>
       </c>
-      <c r="C23" s="3">
-        <f t="shared" ref="C23:L23" si="21">B23+1</f>
+      <c r="D23" s="4">
+        <f t="shared" ref="D23:M23" si="21">C23+1</f>
         <v>46</v>
       </c>
-      <c r="D23" s="4">
+      <c r="E23" s="5">
         <f t="shared" si="21"/>
         <v>47</v>
       </c>
-      <c r="E23" s="2">
+      <c r="F23" s="3">
         <f t="shared" si="21"/>
         <v>48</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="4">
         <f t="shared" si="21"/>
         <v>49</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="4">
         <f t="shared" si="21"/>
         <v>50</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="4">
         <f t="shared" si="21"/>
         <v>51</v>
       </c>
-      <c r="I23" s="4">
+      <c r="J23" s="5">
         <f t="shared" si="21"/>
         <v>52</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="4">
         <f t="shared" si="21"/>
         <v>53</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="4">
         <f t="shared" si="21"/>
         <v>54</v>
       </c>
-      <c r="L23" s="4">
+      <c r="M23" s="5">
         <f t="shared" si="21"/>
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
-      <c r="B24" s="2"/>
+    <row r="24" spans="3:13">
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="2"/>
+      <c r="E24" s="5"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="4"/>
       <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="5" t="s">
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="2">
-        <f>L23+1</f>
+      <c r="C25" s="3">
+        <f>M23+1</f>
         <v>56</v>
       </c>
-      <c r="C25" s="3">
-        <f t="shared" ref="C25:L25" si="22">B25+1</f>
+      <c r="D25" s="4">
+        <f t="shared" ref="D25:M25" si="22">C25+1</f>
         <v>57</v>
       </c>
-      <c r="D25" s="4">
+      <c r="E25" s="5">
         <f t="shared" si="22"/>
         <v>58</v>
       </c>
-      <c r="E25" s="2">
+      <c r="F25" s="3">
         <f t="shared" si="22"/>
         <v>59</v>
       </c>
-      <c r="F25" s="3">
+      <c r="G25" s="4">
         <f t="shared" si="22"/>
         <v>60</v>
       </c>
-      <c r="G25" s="3">
+      <c r="H25" s="4">
         <f t="shared" si="22"/>
         <v>61</v>
       </c>
-      <c r="H25" s="3">
+      <c r="I25" s="4">
         <f t="shared" si="22"/>
         <v>62</v>
       </c>
-      <c r="I25" s="4">
+      <c r="J25" s="5">
         <f t="shared" si="22"/>
         <v>63</v>
       </c>
-      <c r="J25" s="3">
+      <c r="K25" s="4">
         <f t="shared" si="22"/>
         <v>64</v>
       </c>
-      <c r="K25" s="3">
+      <c r="L25" s="4">
         <f t="shared" si="22"/>
         <v>65</v>
       </c>
-      <c r="L25" s="4">
+      <c r="M25" s="5">
         <f t="shared" si="22"/>
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="2:13">
+      <c r="B26" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="2">
-        <f t="shared" ref="B26:B35" si="23">L25+1</f>
+      <c r="C26" s="3">
+        <f t="shared" ref="C26:C35" si="23">M25+1</f>
         <v>67</v>
       </c>
-      <c r="C26" s="3">
-        <f t="shared" ref="C26:L26" si="24">B26+1</f>
+      <c r="D26" s="4">
+        <f t="shared" ref="D26:M26" si="24">C26+1</f>
         <v>68</v>
       </c>
-      <c r="D26" s="4">
+      <c r="E26" s="5">
         <f t="shared" si="24"/>
         <v>69</v>
       </c>
-      <c r="E26" s="2">
+      <c r="F26" s="3">
         <f t="shared" si="24"/>
         <v>70</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="4">
         <f t="shared" si="24"/>
         <v>71</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="4">
         <f t="shared" si="24"/>
         <v>72</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="4">
         <f t="shared" si="24"/>
         <v>73</v>
       </c>
-      <c r="I26" s="4">
+      <c r="J26" s="5">
         <f t="shared" si="24"/>
         <v>74</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="4">
         <f t="shared" si="24"/>
         <v>75</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="4">
         <f t="shared" si="24"/>
         <v>76</v>
       </c>
-      <c r="L26" s="4">
+      <c r="M26" s="5">
         <f t="shared" si="24"/>
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="2:13">
+      <c r="B27" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="2">
+      <c r="C27" s="3">
         <f t="shared" si="23"/>
         <v>78</v>
       </c>
-      <c r="C27" s="3">
-        <f t="shared" ref="C27:L27" si="25">B27+1</f>
+      <c r="D27" s="4">
+        <f t="shared" ref="D27:M27" si="25">C27+1</f>
         <v>79</v>
       </c>
-      <c r="D27" s="4">
+      <c r="E27" s="5">
         <f t="shared" si="25"/>
         <v>80</v>
       </c>
-      <c r="E27" s="2">
+      <c r="F27" s="3">
         <f t="shared" si="25"/>
         <v>81</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="4">
         <f t="shared" si="25"/>
         <v>82</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="4">
         <f t="shared" si="25"/>
         <v>83</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="4">
         <f t="shared" si="25"/>
         <v>84</v>
       </c>
-      <c r="I27" s="4">
+      <c r="J27" s="5">
         <f t="shared" si="25"/>
         <v>85</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="4">
         <f t="shared" si="25"/>
         <v>86</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="4">
         <f t="shared" si="25"/>
         <v>87</v>
       </c>
-      <c r="L27" s="4">
+      <c r="M27" s="5">
         <f t="shared" si="25"/>
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="2:13">
+      <c r="B28" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="2">
+      <c r="C28" s="3">
         <f t="shared" si="23"/>
         <v>89</v>
       </c>
-      <c r="C28" s="3">
-        <f t="shared" ref="C28:C35" si="26">B28+1</f>
+      <c r="D28" s="4">
+        <f t="shared" ref="D28:D35" si="26">C28+1</f>
         <v>90</v>
       </c>
-      <c r="D28" s="4">
-        <f t="shared" ref="D28:D35" si="27">C28+1</f>
+      <c r="E28" s="5">
+        <f t="shared" ref="E28:E35" si="27">D28+1</f>
         <v>91</v>
       </c>
-      <c r="E28" s="2">
-        <f t="shared" ref="E28:E35" si="28">D28+1</f>
+      <c r="F28" s="3">
+        <f t="shared" ref="F28:F35" si="28">E28+1</f>
         <v>92</v>
       </c>
-      <c r="F28" s="3">
-        <f t="shared" ref="F28:F35" si="29">E28+1</f>
+      <c r="G28" s="4">
+        <f t="shared" ref="G28:G35" si="29">F28+1</f>
         <v>93</v>
       </c>
-      <c r="G28" s="3">
-        <f t="shared" ref="G28:G35" si="30">F28+1</f>
+      <c r="H28" s="4">
+        <f t="shared" ref="H28:H35" si="30">G28+1</f>
         <v>94</v>
       </c>
-      <c r="H28" s="3">
-        <f t="shared" ref="H28:H35" si="31">G28+1</f>
+      <c r="I28" s="4">
+        <f t="shared" ref="I28:I35" si="31">H28+1</f>
         <v>95</v>
       </c>
-      <c r="I28" s="4">
-        <f t="shared" ref="I28:I35" si="32">H28+1</f>
+      <c r="J28" s="5">
+        <f t="shared" ref="J28:J35" si="32">I28+1</f>
         <v>96</v>
       </c>
-      <c r="J28" s="3">
-        <f t="shared" ref="J28:J35" si="33">I28+1</f>
+      <c r="K28" s="4">
+        <f t="shared" ref="K28:K35" si="33">J28+1</f>
         <v>97</v>
       </c>
-      <c r="K28" s="3">
-        <f t="shared" ref="K28:K35" si="34">J28+1</f>
+      <c r="L28" s="4">
+        <f t="shared" ref="L28:L35" si="34">K28+1</f>
         <v>98</v>
       </c>
-      <c r="L28" s="4">
-        <f t="shared" ref="L28:L35" si="35">K28+1</f>
+      <c r="M28" s="5">
+        <f t="shared" ref="M28:M35" si="35">L28+1</f>
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="2:13">
+      <c r="B29" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="2">
+      <c r="C29" s="3">
         <f t="shared" si="23"/>
         <v>100</v>
       </c>
-      <c r="C29" s="3">
+      <c r="D29" s="4">
         <f t="shared" si="26"/>
         <v>101</v>
       </c>
-      <c r="D29" s="4">
+      <c r="E29" s="5">
         <f t="shared" si="27"/>
         <v>102</v>
       </c>
-      <c r="E29" s="2">
+      <c r="F29" s="3">
         <f t="shared" si="28"/>
         <v>103</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="4">
         <f t="shared" si="29"/>
         <v>104</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="4">
         <f t="shared" si="30"/>
         <v>105</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="4">
         <f t="shared" si="31"/>
         <v>106</v>
       </c>
-      <c r="I29" s="4">
+      <c r="J29" s="5">
         <f t="shared" si="32"/>
         <v>107</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="4">
         <f t="shared" si="33"/>
         <v>108</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="4">
         <f t="shared" si="34"/>
         <v>109</v>
       </c>
-      <c r="L29" s="4">
+      <c r="M29" s="5">
         <f t="shared" si="35"/>
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="2:13">
+      <c r="B30" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="2">
+      <c r="C30" s="3">
         <f t="shared" si="23"/>
         <v>111</v>
       </c>
-      <c r="C30" s="3">
+      <c r="D30" s="4">
         <f t="shared" si="26"/>
         <v>112</v>
       </c>
-      <c r="D30" s="4">
+      <c r="E30" s="5">
         <f t="shared" si="27"/>
         <v>113</v>
       </c>
-      <c r="E30" s="2">
+      <c r="F30" s="3">
         <f t="shared" si="28"/>
         <v>114</v>
       </c>
-      <c r="F30" s="3">
+      <c r="G30" s="4">
         <f t="shared" si="29"/>
         <v>115</v>
       </c>
-      <c r="G30" s="3">
+      <c r="H30" s="4">
         <f t="shared" si="30"/>
         <v>116</v>
       </c>
-      <c r="H30" s="3">
+      <c r="I30" s="4">
         <f t="shared" si="31"/>
         <v>117</v>
       </c>
-      <c r="I30" s="4">
+      <c r="J30" s="5">
         <f t="shared" si="32"/>
         <v>118</v>
       </c>
-      <c r="J30" s="3">
+      <c r="K30" s="4">
         <f t="shared" si="33"/>
         <v>119</v>
       </c>
-      <c r="K30" s="3">
+      <c r="L30" s="4">
         <f t="shared" si="34"/>
         <v>120</v>
       </c>
-      <c r="L30" s="4">
+      <c r="M30" s="5">
         <f t="shared" si="35"/>
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="2:13">
+      <c r="B31" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="2">
+      <c r="C31" s="3">
         <f t="shared" si="23"/>
         <v>122</v>
       </c>
-      <c r="C31" s="3">
+      <c r="D31" s="4">
         <f t="shared" si="26"/>
         <v>123</v>
       </c>
-      <c r="D31" s="4">
+      <c r="E31" s="5">
         <f t="shared" si="27"/>
         <v>124</v>
       </c>
-      <c r="E31" s="2">
+      <c r="F31" s="3">
         <f t="shared" si="28"/>
         <v>125</v>
       </c>
-      <c r="F31" s="3">
+      <c r="G31" s="4">
         <f t="shared" si="29"/>
         <v>126</v>
       </c>
-      <c r="G31" s="3">
+      <c r="H31" s="4">
         <f t="shared" si="30"/>
         <v>127</v>
       </c>
-      <c r="H31" s="3">
+      <c r="I31" s="4">
         <f t="shared" si="31"/>
         <v>128</v>
       </c>
-      <c r="I31" s="4">
+      <c r="J31" s="5">
         <f t="shared" si="32"/>
         <v>129</v>
       </c>
-      <c r="J31" s="3">
+      <c r="K31" s="4">
         <f t="shared" si="33"/>
         <v>130</v>
       </c>
-      <c r="K31" s="3">
+      <c r="L31" s="4">
         <f t="shared" si="34"/>
         <v>131</v>
       </c>
-      <c r="L31" s="4">
+      <c r="M31" s="5">
         <f t="shared" si="35"/>
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="2:13">
+      <c r="B32" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="2">
+      <c r="C32" s="3">
         <f t="shared" si="23"/>
         <v>133</v>
       </c>
-      <c r="C32" s="3">
+      <c r="D32" s="4">
         <f t="shared" si="26"/>
         <v>134</v>
       </c>
-      <c r="D32" s="4">
+      <c r="E32" s="5">
         <f t="shared" si="27"/>
         <v>135</v>
       </c>
-      <c r="E32" s="2">
+      <c r="F32" s="3">
         <f t="shared" si="28"/>
         <v>136</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="4">
         <f t="shared" si="29"/>
         <v>137</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="4">
         <f t="shared" si="30"/>
         <v>138</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="4">
         <f t="shared" si="31"/>
         <v>139</v>
       </c>
-      <c r="I32" s="4">
+      <c r="J32" s="5">
         <f t="shared" si="32"/>
         <v>140</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="4">
         <f t="shared" si="33"/>
         <v>141</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="4">
         <f t="shared" si="34"/>
         <v>142</v>
       </c>
-      <c r="L32" s="4">
+      <c r="M32" s="5">
         <f t="shared" si="35"/>
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="2:13">
+      <c r="B33" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="2">
+      <c r="C33" s="3">
         <f t="shared" si="23"/>
         <v>144</v>
       </c>
-      <c r="C33" s="3">
+      <c r="D33" s="4">
         <f t="shared" si="26"/>
         <v>145</v>
       </c>
-      <c r="D33" s="4">
+      <c r="E33" s="5">
         <f t="shared" si="27"/>
         <v>146</v>
       </c>
-      <c r="E33" s="2">
+      <c r="F33" s="3">
         <f t="shared" si="28"/>
         <v>147</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="4">
         <f t="shared" si="29"/>
         <v>148</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="4">
         <f t="shared" si="30"/>
         <v>149</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="4">
         <f t="shared" si="31"/>
         <v>150</v>
       </c>
-      <c r="I33" s="4">
+      <c r="J33" s="5">
         <f t="shared" si="32"/>
         <v>151</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="4">
         <f t="shared" si="33"/>
         <v>152</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="4">
         <f t="shared" si="34"/>
         <v>153</v>
       </c>
-      <c r="L33" s="4">
+      <c r="M33" s="5">
         <f t="shared" si="35"/>
         <v>154</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="2:13">
+      <c r="B34" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="2">
+      <c r="C34" s="3">
         <f t="shared" si="23"/>
         <v>155</v>
       </c>
-      <c r="C34" s="3">
+      <c r="D34" s="4">
         <f t="shared" si="26"/>
         <v>156</v>
       </c>
-      <c r="D34" s="4">
+      <c r="E34" s="5">
         <f t="shared" si="27"/>
         <v>157</v>
       </c>
-      <c r="E34" s="2">
+      <c r="F34" s="3">
         <f t="shared" si="28"/>
         <v>158</v>
       </c>
-      <c r="F34" s="3">
+      <c r="G34" s="4">
         <f t="shared" si="29"/>
         <v>159</v>
       </c>
-      <c r="G34" s="3">
+      <c r="H34" s="4">
         <f t="shared" si="30"/>
         <v>160</v>
       </c>
-      <c r="H34" s="3">
+      <c r="I34" s="4">
         <f t="shared" si="31"/>
         <v>161</v>
       </c>
-      <c r="I34" s="4">
+      <c r="J34" s="5">
         <f t="shared" si="32"/>
         <v>162</v>
       </c>
-      <c r="J34" s="3">
+      <c r="K34" s="4">
         <f t="shared" si="33"/>
         <v>163</v>
       </c>
-      <c r="K34" s="3">
+      <c r="L34" s="4">
         <f t="shared" si="34"/>
         <v>164</v>
       </c>
-      <c r="L34" s="4">
+      <c r="M34" s="5">
         <f t="shared" si="35"/>
         <v>165</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="2:13">
+      <c r="B35" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="2">
+      <c r="C35" s="3">
         <f t="shared" si="23"/>
         <v>166</v>
       </c>
-      <c r="C35" s="3">
+      <c r="D35" s="4">
         <f t="shared" si="26"/>
         <v>167</v>
       </c>
-      <c r="D35" s="4">
+      <c r="E35" s="5">
         <f t="shared" si="27"/>
         <v>168</v>
       </c>
-      <c r="E35" s="2">
+      <c r="F35" s="3">
         <f t="shared" si="28"/>
         <v>169</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="4">
         <f t="shared" si="29"/>
         <v>170</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="4">
         <f t="shared" si="30"/>
         <v>171</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="4">
         <f t="shared" si="31"/>
         <v>172</v>
       </c>
-      <c r="I35" s="4">
+      <c r="J35" s="5">
         <f t="shared" si="32"/>
         <v>173</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="4">
         <f t="shared" si="33"/>
         <v>174</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="4">
         <f t="shared" si="34"/>
         <v>175</v>
       </c>
-      <c r="L35" s="4">
+      <c r="M35" s="5">
         <f t="shared" si="35"/>
         <v>176</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="87" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="87" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>